--- a/AAII_Financials/Quarterly/APTV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APTV_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>APTV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3226000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3596000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3559000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3627000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3575000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3636000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3485000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3684000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3630000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3440000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3148000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3153000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3143000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3193000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9081000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2725000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2909000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2881000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2956000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2962000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2965000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2833000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2957000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2947000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2730000</v>
-      </c>
-      <c r="M9" s="3">
-        <v>2498000</v>
       </c>
       <c r="N9" s="3">
         <v>2498000</v>
       </c>
       <c r="O9" s="3">
+        <v>2498000</v>
+      </c>
+      <c r="P9" s="3">
         <v>2544000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2325000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7202000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E10" s="3">
         <v>687000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>678000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>671000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>613000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>671000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>652000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>727000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>683000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>710000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>650000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>655000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>599000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>868000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1879000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,78 +1005,84 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-1406000</v>
+      </c>
+      <c r="E14" s="3">
         <v>35000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>62000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>41000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>32000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>41000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>66000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>32000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>9000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>28000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>18000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>14000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>79000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>362000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>178000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E15" s="3">
         <v>35000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>34000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>35000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>34000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>33000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>31000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>30000</v>
       </c>
       <c r="K15" s="3">
         <v>30000</v>
@@ -1068,7 +1091,7 @@
         <v>30000</v>
       </c>
       <c r="M15" s="3">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="N15" s="3">
         <v>29000</v>
@@ -1080,10 +1103,13 @@
         <v>29000</v>
       </c>
       <c r="Q15" s="3">
+        <v>29000</v>
+      </c>
+      <c r="R15" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1607000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3277000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3239000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3292000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3284000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3290000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3162000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3279000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3245000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3054000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2775000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2772000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2877000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2968000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8140000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1619000</v>
+      </c>
+      <c r="E18" s="3">
         <v>319000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>320000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>335000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>291000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>346000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>323000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>405000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>385000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>386000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>373000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>381000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>266000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>225000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>941000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,243 +1244,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-10000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>22000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-16000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>9000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>19000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-9000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1798000</v>
+      </c>
+      <c r="E21" s="3">
         <v>487000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>505000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>529000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>486000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>532000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>490000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>570000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>559000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>541000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>402000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>553000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>445000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>177000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1467000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E22" s="3">
         <v>41000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>42000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>43000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>38000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>37000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>34000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>36000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>34000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>37000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>35000</v>
       </c>
       <c r="N22" s="3">
         <v>35000</v>
       </c>
       <c r="O22" s="3">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="P22" s="3">
         <v>33000</v>
       </c>
       <c r="Q22" s="3">
+        <v>33000</v>
+      </c>
+      <c r="R22" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1575000</v>
+      </c>
+      <c r="E23" s="3">
         <v>268000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>285000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>298000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>275000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>293000</v>
       </c>
       <c r="I23" s="3">
         <v>293000</v>
       </c>
       <c r="J23" s="3">
+        <v>293000</v>
+      </c>
+      <c r="K23" s="3">
         <v>378000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>370000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>350000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>331000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>337000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>237000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>181000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>819000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E24" s="3">
         <v>30000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>38000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>31000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>33000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>36000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>67000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>58000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>59000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>135000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>31000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>38000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>19000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>171000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1565000</v>
+      </c>
+      <c r="E26" s="3">
         <v>238000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>247000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>267000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>242000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>257000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>226000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>320000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>311000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>215000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>300000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>299000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>218000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>185000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>648000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1572000</v>
+      </c>
+      <c r="E27" s="3">
         <v>230000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>246000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>274000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>240000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>253000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>221000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>316000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>307000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>232000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>236000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>272000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>195000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>204000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>630000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,16 +1692,19 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1651,38 +1712,41 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>-6000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>1000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-25000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>24000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>107000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>80000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>123000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>77000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>346000</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>10000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-22000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>16000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-9000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-19000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>9000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>11000</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1572000</v>
+      </c>
+      <c r="E33" s="3">
         <v>230000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>246000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>274000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>240000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>247000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>222000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>291000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>307000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>256000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>343000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>352000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>318000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>281000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1572000</v>
+      </c>
+      <c r="E35" s="3">
         <v>230000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>246000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>274000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>240000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>247000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>222000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>291000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>307000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>256000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>343000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>352000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>318000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>281000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2055000</v>
+      </c>
+      <c r="E41" s="3">
         <v>412000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>341000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>365000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>321000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>567000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>771000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>970000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1345000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1596000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>557000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>792000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>547000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>737000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>395000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,219 +2237,234 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2308000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2829000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2935000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2982000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3008000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2795000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2893000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2944000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3174000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2785000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3534000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3418000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3410000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2306000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3243000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1363000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1286000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1345000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1304000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1326000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1277000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1358000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1265000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1202000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1083000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1642000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1485000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1375000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>859000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1375000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>464000</v>
+      </c>
+      <c r="E45" s="3">
         <v>792000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>764000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>203000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>164000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>138000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>182000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>161000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>205000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>177000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>977000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>154000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>155000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1517000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>134000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6190000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5319000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5385000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4854000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4819000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4777000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5204000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5340000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5926000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5641000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6710000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5849000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5487000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5419000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5147000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2284000</v>
+      </c>
+      <c r="E47" s="3">
         <v>311000</v>
-      </c>
-      <c r="E47" s="3">
-        <v>280000</v>
       </c>
       <c r="F47" s="3">
         <v>280000</v>
       </c>
       <c r="G47" s="3">
+        <v>280000</v>
+      </c>
+      <c r="H47" s="3">
         <v>262000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>215000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>198000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>206000</v>
       </c>
       <c r="K47" s="3">
         <v>206000</v>
@@ -2368,116 +2473,125 @@
         <v>206000</v>
       </c>
       <c r="M47" s="3">
+        <v>206000</v>
+      </c>
+      <c r="N47" s="3">
         <v>320000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>278000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>256000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>136000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3642000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3722000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3556000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3681000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3652000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3179000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3056000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2972000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2890000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2804000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3819000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3671000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3569000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2325000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3522000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3521000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3593000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3264000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3822000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3837000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3904000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3378000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3402000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3184000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3163000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2883000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2860000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2801000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2650000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2905000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>530000</v>
+      </c>
+      <c r="E52" s="3">
         <v>514000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>454000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>471000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>449000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>405000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>491000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>396000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>354000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>355000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>434000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>398000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>384000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1762000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>331000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16167000</v>
+      </c>
+      <c r="E54" s="3">
         <v>13459000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12939000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13108000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13019000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12480000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12327000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12316000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12560000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12169000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14166000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13056000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12497000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12292000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12122000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +2879,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2243000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2463000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2232000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2284000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2340000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2334000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2254000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2307000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2282000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2227000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2745000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2603000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2549000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1820000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2544000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>260000</v>
+      </c>
+      <c r="E58" s="3">
         <v>393000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>444000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>517000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>542000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>306000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>24000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>22000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>60000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>17000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>13000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1152000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1198000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1199000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1190000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1132000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1054000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1109000</v>
       </c>
       <c r="J59" s="3">
         <v>1109000</v>
       </c>
       <c r="K59" s="3">
+        <v>1109000</v>
+      </c>
+      <c r="L59" s="3">
         <v>1366000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1296000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1383000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1554000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1535000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2318000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1261000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3655000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4054000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3875000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3991000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4014000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3694000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3387000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3438000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3708000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3540000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4143000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4170000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4092000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4148000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3841000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5964000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3971000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3939000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3997000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3995000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4038000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4084000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4067000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4163000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4132000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4884000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4059000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3991000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3953000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4038000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1395000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1423000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1344000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1388000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1375000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1078000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1047000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1053000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>991000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>980000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1525000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1542000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1465000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1428000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1322000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11196000</v>
+      </c>
+      <c r="E66" s="3">
         <v>9640000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9374000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9589000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9601000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9021000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8719000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8793000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9093000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8870000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10963000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10161000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9918000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9891000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9570000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4353000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2890000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2745000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2597000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2491000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2511000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2610000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2510000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2278000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2118000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2485000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2257000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2057000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1980000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1870000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4971000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3819000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3565000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3519000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3418000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3459000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3608000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3523000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3467000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3299000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3203000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2895000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2579000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2401000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2552000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1572000</v>
+      </c>
+      <c r="E81" s="3">
         <v>230000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>246000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>274000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>240000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>247000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>222000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>291000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>307000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>256000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>343000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>352000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>318000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>281000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>178000</v>
+        <v>180000</v>
       </c>
       <c r="E83" s="3">
         <v>178000</v>
       </c>
       <c r="F83" s="3">
+        <v>178000</v>
+      </c>
+      <c r="G83" s="3">
         <v>188000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>173000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>202000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>163000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>156000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>155000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>183000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>181000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>175000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>178000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>526000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>161000</v>
+      </c>
+      <c r="E89" s="3">
         <v>703000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>325000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>512000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>84000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>757000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>171000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>545000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>155000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>428000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>151000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>599000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>290000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>683000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1258000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-205000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-162000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-168000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-216000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-235000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-185000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-212000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-206000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-243000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-218000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-87000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-178000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-215000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-871000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-207000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-479000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-163000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-234000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-235000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-879000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-208000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-716000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-245000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-570000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-219000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-193000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-270000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>9000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-587000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4393,13 +4627,13 @@
         <v>-56000</v>
       </c>
       <c r="F96" s="3">
-        <v>-57000</v>
+        <v>-56000</v>
       </c>
       <c r="G96" s="3">
         <v>-57000</v>
       </c>
       <c r="H96" s="3">
-        <v>-58000</v>
+        <v>-57000</v>
       </c>
       <c r="I96" s="3">
         <v>-58000</v>
@@ -4408,28 +4642,31 @@
         <v>-58000</v>
       </c>
       <c r="K96" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-59000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-77000</v>
       </c>
       <c r="M96" s="3">
         <v>-77000</v>
       </c>
       <c r="N96" s="3">
-        <v>-78000</v>
+        <v>-77000</v>
       </c>
       <c r="O96" s="3">
         <v>-78000</v>
       </c>
       <c r="P96" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-79000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1720000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-160000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-174000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-216000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-99000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-73000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-161000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-116000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-205000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>351000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>618000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-181000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-332000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-221000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-860000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E101" s="3">
         <v>7000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-11000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-9000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-88000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>44000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>34000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>11000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>20000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>21000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1658000</v>
+      </c>
+      <c r="E102" s="3">
         <v>71000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-23000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>59000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-246000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-204000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-199000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-375000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-251000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>243000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>561000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>245000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-291000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>443000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-184000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APTV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APTV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>APTV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1960000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3226000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3596000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3559000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3627000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3575000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3636000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3485000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3684000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3630000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3440000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3148000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3153000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3143000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3193000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9081000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1947000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2725000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2909000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2881000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2956000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2962000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2965000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2833000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2957000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2947000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2730000</v>
-      </c>
-      <c r="N9" s="3">
-        <v>2498000</v>
       </c>
       <c r="O9" s="3">
         <v>2498000</v>
       </c>
       <c r="P9" s="3">
+        <v>2498000</v>
+      </c>
+      <c r="Q9" s="3">
         <v>2544000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2325000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7202000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E10" s="3">
         <v>501000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>687000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>678000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>671000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>613000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>671000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>652000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>727000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>683000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>710000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>650000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>655000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>599000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>868000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1879000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,84 +1025,90 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1406000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>35000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>62000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>41000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>32000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>41000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>66000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>32000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>9000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>28000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>18000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>14000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>79000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>362000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>178000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E15" s="3">
         <v>36000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>35000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>34000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>35000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>34000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>33000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>31000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>30000</v>
       </c>
       <c r="L15" s="3">
         <v>30000</v>
@@ -1094,7 +1117,7 @@
         <v>30000</v>
       </c>
       <c r="N15" s="3">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="O15" s="3">
         <v>29000</v>
@@ -1106,10 +1129,13 @@
         <v>29000</v>
       </c>
       <c r="R15" s="3">
+        <v>29000</v>
+      </c>
+      <c r="S15" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2275000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1607000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3277000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3239000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3292000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3284000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3290000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3162000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3279000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3245000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3054000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2775000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2772000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2877000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2968000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8140000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-315000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1619000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>319000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>320000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>335000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>291000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>346000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>323000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>405000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>385000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>386000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>373000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>381000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>266000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>225000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>941000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-10000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>22000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-16000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>19000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-9000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-11000</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-133000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1798000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>487000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>505000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>529000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>486000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>532000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>490000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>570000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>559000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>541000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>402000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>553000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>445000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>177000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1467000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E22" s="3">
         <v>43000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>41000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>42000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>43000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>38000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>37000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>34000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>36000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>34000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>37000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>35000</v>
       </c>
       <c r="O22" s="3">
         <v>35000</v>
       </c>
       <c r="P22" s="3">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="Q22" s="3">
         <v>33000</v>
       </c>
       <c r="R22" s="3">
+        <v>33000</v>
+      </c>
+      <c r="S22" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-361000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1575000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>268000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>285000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>298000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>275000</v>
-      </c>
-      <c r="I23" s="3">
-        <v>293000</v>
       </c>
       <c r="J23" s="3">
         <v>293000</v>
       </c>
       <c r="K23" s="3">
+        <v>293000</v>
+      </c>
+      <c r="L23" s="3">
         <v>378000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>370000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>350000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>331000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>337000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>237000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>181000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>819000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E24" s="3">
         <v>10000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>30000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>38000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>31000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>33000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>36000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>67000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>58000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>59000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>135000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>31000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>38000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>19000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-4000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>171000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-347000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1565000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>238000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>247000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>267000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>242000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>257000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>226000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>320000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>311000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>215000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>300000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>299000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>218000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>185000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>648000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-369000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1572000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>230000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>246000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>274000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>240000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>253000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>221000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>316000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>307000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>232000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>236000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>272000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>195000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>204000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>630000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,19 +1753,22 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1715,38 +1776,41 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>-6000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>1000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-25000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>24000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>107000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>80000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>123000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>77000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>346000</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>10000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-22000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>16000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-19000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>9000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>11000</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-369000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1572000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>230000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>246000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>274000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>240000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>247000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>222000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>291000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>307000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>256000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>343000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>352000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>318000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>281000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-369000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1572000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>230000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>246000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>274000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>240000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>247000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>222000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>291000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>307000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>256000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>343000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>352000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>318000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>281000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1885000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2055000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>412000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>341000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>365000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>321000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>567000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>771000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>970000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1345000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1596000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>557000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>792000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>547000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>737000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>395000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,234 +2330,249 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2091000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2308000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2829000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2935000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2982000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3008000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2795000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2893000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2944000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3174000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2785000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3534000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3418000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3410000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2306000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3243000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1212000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1363000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1286000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1345000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1304000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1326000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1277000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1358000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1265000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1202000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1083000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1642000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1485000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1375000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>859000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1375000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E45" s="3">
         <v>464000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>792000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>764000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>203000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>164000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>138000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>182000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>161000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>205000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>177000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>977000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>154000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>155000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1517000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>134000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5412000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6190000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5319000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5385000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4854000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4819000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4777000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5204000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5340000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5926000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5641000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6710000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5849000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5487000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5419000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5147000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2238000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2284000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>311000</v>
-      </c>
-      <c r="F47" s="3">
-        <v>280000</v>
       </c>
       <c r="G47" s="3">
         <v>280000</v>
       </c>
       <c r="H47" s="3">
+        <v>280000</v>
+      </c>
+      <c r="I47" s="3">
         <v>262000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>215000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>198000</v>
-      </c>
-      <c r="K47" s="3">
-        <v>206000</v>
       </c>
       <c r="L47" s="3">
         <v>206000</v>
@@ -2476,122 +2581,131 @@
         <v>206000</v>
       </c>
       <c r="N47" s="3">
+        <v>206000</v>
+      </c>
+      <c r="O47" s="3">
         <v>320000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>278000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>256000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>136000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3573000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3642000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3722000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3556000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3681000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3652000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3179000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3056000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2972000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2890000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2804000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3819000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3671000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3569000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2325000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3522000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3505000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3521000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3593000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3264000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3822000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3837000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3904000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3378000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3402000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3184000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3163000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2883000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2860000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2801000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2650000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2905000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>552000</v>
+      </c>
+      <c r="E52" s="3">
         <v>530000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>514000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>454000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>471000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>449000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>405000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>491000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>396000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>354000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>355000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>434000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>398000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>384000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1762000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>331000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15280000</v>
+      </c>
+      <c r="E54" s="3">
         <v>16167000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13459000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12939000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13108000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13019000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12480000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12327000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12316000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12560000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12169000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14166000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13056000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12497000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12292000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12122000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1432000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2243000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2463000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2232000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2284000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2340000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2334000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2254000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2307000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2282000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2227000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2745000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2603000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2549000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1820000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2544000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E58" s="3">
         <v>260000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>393000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>444000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>517000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>542000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>306000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>24000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>22000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>60000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>17000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>15000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>13000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>10000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1227000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1152000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1198000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1199000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1190000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1132000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1054000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1109000</v>
       </c>
       <c r="K59" s="3">
         <v>1109000</v>
       </c>
       <c r="L59" s="3">
+        <v>1109000</v>
+      </c>
+      <c r="M59" s="3">
         <v>1366000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1296000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1383000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1554000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1535000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2318000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1261000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2859000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3655000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4054000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3875000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3991000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4014000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3694000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3387000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3438000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3708000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3540000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4143000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4170000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4092000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4148000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3841000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3946000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5964000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3971000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3939000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3997000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3995000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4038000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4084000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4067000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4163000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4132000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4884000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4059000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3991000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3953000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4038000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1349000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1395000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1423000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1344000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1388000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1375000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1078000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1047000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1053000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>991000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>980000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1525000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1542000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1465000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1428000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1322000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8338000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11196000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9640000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9374000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9589000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9601000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9021000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8719000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8793000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9093000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8870000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10963000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10161000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9918000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9891000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9570000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3984000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4353000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2890000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2745000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2597000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2491000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2511000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2610000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2510000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2278000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2118000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2485000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2257000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2057000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1980000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1870000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6942000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4971000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3819000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3565000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3519000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3418000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3459000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3608000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3523000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3467000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3299000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3203000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2895000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2579000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2401000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2552000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-369000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1572000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>230000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>246000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>274000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>240000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>247000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>222000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>291000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>307000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>256000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>343000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>352000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>318000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>281000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>184000</v>
+      </c>
+      <c r="E83" s="3">
         <v>180000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>178000</v>
       </c>
       <c r="F83" s="3">
         <v>178000</v>
       </c>
       <c r="G83" s="3">
+        <v>178000</v>
+      </c>
+      <c r="H83" s="3">
         <v>188000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>173000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>202000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>163000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>156000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>155000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>183000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>181000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>175000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>178000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>526000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-106000</v>
+      </c>
+      <c r="E89" s="3">
         <v>161000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>703000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>325000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>512000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>84000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>757000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>171000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>545000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>155000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>428000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>151000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>599000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>290000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>683000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1258000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-167000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-205000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-162000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-168000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-216000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-235000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-185000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-212000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-206000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-243000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-218000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-87000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-178000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-215000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-871000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-187000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-207000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-479000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-163000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-234000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-235000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-879000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-208000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-716000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-245000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-570000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-219000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-193000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-270000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>9000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-587000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,13 +4848,14 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-56000</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>-56000</v>
@@ -4630,13 +4864,13 @@
         <v>-56000</v>
       </c>
       <c r="G96" s="3">
-        <v>-57000</v>
+        <v>-56000</v>
       </c>
       <c r="H96" s="3">
         <v>-57000</v>
       </c>
       <c r="I96" s="3">
-        <v>-58000</v>
+        <v>-57000</v>
       </c>
       <c r="J96" s="3">
         <v>-58000</v>
@@ -4645,28 +4879,31 @@
         <v>-58000</v>
       </c>
       <c r="L96" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-59000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-77000</v>
       </c>
       <c r="N96" s="3">
         <v>-77000</v>
       </c>
       <c r="O96" s="3">
-        <v>-78000</v>
+        <v>-77000</v>
       </c>
       <c r="P96" s="3">
         <v>-78000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-79000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1720000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-160000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-174000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-216000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-99000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-73000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-161000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-116000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-205000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>351000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>618000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-181000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-332000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-221000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-860000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-16000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>7000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-11000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-9000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-88000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>44000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>34000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>11000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>20000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>21000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-28000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-170000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1658000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>71000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-23000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>59000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-246000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-204000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-199000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-375000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-251000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>243000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>561000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>245000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-291000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>443000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-184000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APTV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APTV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>APTV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3668000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1960000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3226000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3596000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3559000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3627000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3575000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3636000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3485000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3684000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3630000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3440000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3148000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3153000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3143000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3193000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9081000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3021000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1947000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2725000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2909000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2881000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2956000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2962000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2965000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2833000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2957000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2947000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2730000</v>
-      </c>
-      <c r="O9" s="3">
-        <v>2498000</v>
       </c>
       <c r="P9" s="3">
         <v>2498000</v>
       </c>
       <c r="Q9" s="3">
+        <v>2498000</v>
+      </c>
+      <c r="R9" s="3">
         <v>2544000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2325000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7202000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>647000</v>
+      </c>
+      <c r="E10" s="3">
         <v>13000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>501000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>687000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>678000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>671000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>613000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>671000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>652000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>727000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>683000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>710000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>650000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>655000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>599000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>868000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1879000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,90 +1045,96 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E14" s="3">
         <v>76000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-1406000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>35000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>62000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>41000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>32000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>41000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>66000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>32000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>9000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>28000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>18000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>14000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>79000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>362000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>178000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E15" s="3">
         <v>35000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>36000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>35000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>34000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>35000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>34000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>33000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>31000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>30000</v>
       </c>
       <c r="M15" s="3">
         <v>30000</v>
@@ -1120,7 +1143,7 @@
         <v>30000</v>
       </c>
       <c r="O15" s="3">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="P15" s="3">
         <v>29000</v>
@@ -1132,10 +1155,13 @@
         <v>29000</v>
       </c>
       <c r="S15" s="3">
+        <v>29000</v>
+      </c>
+      <c r="T15" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3304000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2275000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1607000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3277000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3239000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3292000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3284000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3290000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3162000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3279000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3245000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3054000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2775000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2772000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2877000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2968000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8140000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>364000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-315000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1619000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>319000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>320000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>335000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>291000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>346000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>323000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>405000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>385000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>386000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>373000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>381000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>266000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>225000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>941000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-10000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>22000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-16000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>9000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>19000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-11000</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>557000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-133000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1798000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>487000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>505000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>529000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>486000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>532000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>490000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>570000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>559000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>541000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>402000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>553000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>445000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>177000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1467000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E22" s="3">
         <v>44000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>43000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>41000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>42000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>43000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>38000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>37000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>34000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>36000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>34000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>37000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>35000</v>
       </c>
       <c r="P22" s="3">
         <v>35000</v>
       </c>
       <c r="Q22" s="3">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="R22" s="3">
         <v>33000</v>
       </c>
       <c r="S22" s="3">
+        <v>33000</v>
+      </c>
+      <c r="T22" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>327000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-361000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1575000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>268000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>285000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>298000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>275000</v>
-      </c>
-      <c r="J23" s="3">
-        <v>293000</v>
       </c>
       <c r="K23" s="3">
         <v>293000</v>
       </c>
       <c r="L23" s="3">
+        <v>293000</v>
+      </c>
+      <c r="M23" s="3">
         <v>378000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>370000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>350000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>331000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>337000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>237000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>181000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>819000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-14000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>30000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>38000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>31000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>33000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>36000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>67000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>58000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>59000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>135000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>31000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>38000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>19000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-4000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>171000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>329000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-347000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1565000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>238000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>247000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>267000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>242000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>257000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>226000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>320000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>311000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>215000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>300000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>299000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>218000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>185000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>648000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>283000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-369000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1572000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>230000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>246000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>274000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>240000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>253000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>221000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>316000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>307000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>232000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>236000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>272000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>195000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>204000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>630000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1767,11 +1828,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1779,38 +1840,41 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>-6000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>1000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-25000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>24000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>107000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>80000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>123000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>77000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>346000</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>10000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-7000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-22000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>16000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-9000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-19000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>9000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>11000</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>283000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-369000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1572000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>230000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>246000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>274000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>240000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>247000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>222000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>291000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>307000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>256000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>343000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>352000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>318000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>281000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>283000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-369000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1572000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>230000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>246000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>274000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>240000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>247000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>222000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>291000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>307000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>256000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>343000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>352000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>318000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>281000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2122000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1885000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2055000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>412000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>341000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>365000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>321000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>567000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>771000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>970000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1345000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1596000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>557000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>792000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>547000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>737000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>395000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,249 +2423,264 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2920000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2091000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2308000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2829000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2935000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2982000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3008000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2795000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2893000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2944000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3174000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2785000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3534000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3418000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3410000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2306000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3243000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1229000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1212000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1363000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1286000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1345000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1304000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1326000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1277000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1358000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1265000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1202000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1083000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1642000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1485000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1375000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>859000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1375000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>318000</v>
+      </c>
+      <c r="E45" s="3">
         <v>224000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>464000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>792000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>764000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>203000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>164000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>138000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>182000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>161000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>205000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>177000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>977000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>154000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>155000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1517000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>134000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6589000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5412000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6190000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5319000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5385000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4854000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4819000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4777000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5204000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5340000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5926000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5641000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6710000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5849000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5487000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5419000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5147000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2221000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2238000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2284000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>311000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>280000</v>
       </c>
       <c r="H47" s="3">
         <v>280000</v>
       </c>
       <c r="I47" s="3">
+        <v>280000</v>
+      </c>
+      <c r="J47" s="3">
         <v>262000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>215000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>198000</v>
-      </c>
-      <c r="L47" s="3">
-        <v>206000</v>
       </c>
       <c r="M47" s="3">
         <v>206000</v>
@@ -2584,128 +2689,137 @@
         <v>206000</v>
       </c>
       <c r="O47" s="3">
+        <v>206000</v>
+      </c>
+      <c r="P47" s="3">
         <v>320000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>278000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>256000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>136000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3598000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3573000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3642000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3722000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3556000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3681000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3652000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3179000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3056000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2972000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2890000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2804000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3819000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3671000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3569000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2325000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3522000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3574000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3505000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3521000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3593000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3264000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3822000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3837000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3904000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3378000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3402000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3184000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3163000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2883000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2860000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2801000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2650000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2905000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>462000</v>
+      </c>
+      <c r="E52" s="3">
         <v>552000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>530000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>514000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>454000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>471000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>449000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>405000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>491000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>396000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>354000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>355000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>434000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>398000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>384000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1762000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>331000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16444000</v>
+      </c>
+      <c r="E54" s="3">
         <v>15280000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16167000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13459000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12939000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13108000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13019000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12480000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12327000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12316000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12560000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12169000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14166000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13056000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12497000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12292000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12122000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2186000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1432000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2243000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2463000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2232000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2284000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2340000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2334000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2254000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2307000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2282000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2227000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2745000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2603000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2549000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1820000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2544000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E58" s="3">
         <v>200000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>260000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>393000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>444000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>517000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>542000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>306000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>24000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>22000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>60000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>17000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>15000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>13000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>10000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1294000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1227000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1152000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1198000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1199000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1190000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1132000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1054000</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1109000</v>
       </c>
       <c r="L59" s="3">
         <v>1109000</v>
       </c>
       <c r="M59" s="3">
+        <v>1109000</v>
+      </c>
+      <c r="N59" s="3">
         <v>1366000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1296000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1383000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1554000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1535000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2318000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1261000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3579000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2859000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3655000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4054000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3875000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3991000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4014000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3694000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3387000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3438000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3708000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3540000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4143000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4170000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4092000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4148000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3841000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3935000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3946000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5964000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3971000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3939000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3997000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3995000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4038000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4084000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4067000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4163000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4132000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4884000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4059000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3991000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3953000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4038000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1376000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1349000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1395000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1423000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1344000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1388000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1375000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1078000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1047000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1053000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>991000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>980000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1525000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1542000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1465000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1428000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1322000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9081000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8338000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11196000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9640000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9374000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9589000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9601000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9021000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8719000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8793000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9093000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8870000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10963000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10161000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9918000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9891000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9570000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4267000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3984000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4353000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2890000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2745000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2597000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2491000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2511000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2610000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2510000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2278000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2118000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2485000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2257000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2057000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1980000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1870000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7363000</v>
+      </c>
+      <c r="E76" s="3">
         <v>6942000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4971000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3819000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3565000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3519000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3418000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3459000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3608000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3523000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3467000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3299000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3203000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2895000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2579000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2401000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2552000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>283000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-369000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1572000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>230000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>246000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>274000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>240000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>247000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>222000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>291000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>307000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>256000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>343000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>352000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>318000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>281000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>192000</v>
+      </c>
+      <c r="E83" s="3">
         <v>184000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>180000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>178000</v>
       </c>
       <c r="G83" s="3">
         <v>178000</v>
       </c>
       <c r="H83" s="3">
+        <v>178000</v>
+      </c>
+      <c r="I83" s="3">
         <v>188000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>173000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>202000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>163000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>156000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>155000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>183000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>181000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>175000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>178000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>526000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>559000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-106000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>161000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>703000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>325000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>512000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>84000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>757000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>171000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>545000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>155000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>428000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>151000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>599000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>290000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>683000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1258000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-117000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-167000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-205000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-162000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-168000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-216000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-235000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-185000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-212000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-206000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-243000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-218000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-87000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-178000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-215000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-871000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-138000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-187000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-207000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-479000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-163000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-234000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-235000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-879000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-208000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-716000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-245000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-570000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-219000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-193000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-270000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>9000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-587000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4858,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-56000</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>-56000</v>
@@ -4867,13 +5101,13 @@
         <v>-56000</v>
       </c>
       <c r="H96" s="3">
-        <v>-57000</v>
+        <v>-56000</v>
       </c>
       <c r="I96" s="3">
         <v>-57000</v>
       </c>
       <c r="J96" s="3">
-        <v>-58000</v>
+        <v>-57000</v>
       </c>
       <c r="K96" s="3">
         <v>-58000</v>
@@ -4882,28 +5116,31 @@
         <v>-58000</v>
       </c>
       <c r="M96" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-59000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-77000</v>
       </c>
       <c r="O96" s="3">
         <v>-77000</v>
       </c>
       <c r="P96" s="3">
-        <v>-78000</v>
+        <v>-77000</v>
       </c>
       <c r="Q96" s="3">
         <v>-78000</v>
       </c>
       <c r="R96" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-79000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-196000</v>
+      </c>
+      <c r="E100" s="3">
         <v>120000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1720000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-160000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-174000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-216000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-99000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-73000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-161000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-116000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-205000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>351000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>618000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-181000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-332000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-221000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-860000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E101" s="3">
         <v>3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-16000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>7000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-11000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-9000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-88000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>44000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>34000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>11000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>20000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>21000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-28000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>237000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-170000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1658000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>71000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-23000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>59000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-246000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-204000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-199000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-375000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-251000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>243000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>561000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>245000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-291000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>443000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-184000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APTV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APTV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>APTV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4212000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3668000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1960000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3226000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3596000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3559000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3627000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3575000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3636000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3485000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3684000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3630000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3440000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3148000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3153000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3143000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3193000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9081000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3427000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3021000</v>
       </c>
-      <c r="E9" s="3">
-        <v>1947000</v>
-      </c>
       <c r="F9" s="3">
+        <v>1943000</v>
+      </c>
+      <c r="G9" s="3">
         <v>2725000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2909000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2881000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2956000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2962000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2965000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2833000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2957000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2947000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2730000</v>
-      </c>
-      <c r="P9" s="3">
-        <v>2498000</v>
       </c>
       <c r="Q9" s="3">
         <v>2498000</v>
       </c>
       <c r="R9" s="3">
+        <v>2498000</v>
+      </c>
+      <c r="S9" s="3">
         <v>2544000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2325000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7202000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>785000</v>
+      </c>
+      <c r="E10" s="3">
         <v>647000</v>
       </c>
-      <c r="E10" s="3">
-        <v>13000</v>
-      </c>
       <c r="F10" s="3">
+        <v>17000</v>
+      </c>
+      <c r="G10" s="3">
         <v>501000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>687000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>678000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>671000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>613000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>671000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>652000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>727000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>683000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>710000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>650000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>655000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>599000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>868000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1879000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,96 +1064,102 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E14" s="3">
         <v>18000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>76000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1406000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>35000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>62000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>41000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>32000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>41000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>66000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>32000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>9000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>28000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>18000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>14000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>79000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>362000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>178000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E15" s="3">
         <v>36000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>35000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>36000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>35000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>34000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>35000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>34000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>33000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>31000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>30000</v>
       </c>
       <c r="N15" s="3">
         <v>30000</v>
@@ -1146,7 +1168,7 @@
         <v>30000</v>
       </c>
       <c r="P15" s="3">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="Q15" s="3">
         <v>29000</v>
@@ -1158,10 +1180,13 @@
         <v>29000</v>
       </c>
       <c r="T15" s="3">
+        <v>29000</v>
+      </c>
+      <c r="U15" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3766000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3304000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2275000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1607000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3277000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3239000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3292000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3284000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3290000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3162000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3279000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3245000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3054000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2775000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2772000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2877000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2968000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8140000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>446000</v>
+      </c>
+      <c r="E18" s="3">
         <v>364000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-315000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1619000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>319000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>320000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>335000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>291000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>346000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>323000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>405000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>385000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>386000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>373000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>381000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>266000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>225000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>941000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-10000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>7000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>6000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>22000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-16000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>9000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>19000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-9000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-11000</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>660000</v>
+      </c>
+      <c r="E21" s="3">
         <v>557000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-133000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1798000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>487000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>505000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>529000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>486000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>532000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>490000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>570000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>559000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>541000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>402000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>553000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>445000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>177000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1467000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E22" s="3">
         <v>38000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>44000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>43000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>41000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>42000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>43000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>38000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>37000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>34000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>36000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>34000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>37000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>35000</v>
       </c>
       <c r="Q22" s="3">
         <v>35000</v>
       </c>
       <c r="R22" s="3">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="S22" s="3">
         <v>33000</v>
       </c>
       <c r="T22" s="3">
+        <v>33000</v>
+      </c>
+      <c r="U22" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>413000</v>
+      </c>
+      <c r="E23" s="3">
         <v>327000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-361000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1575000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>268000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>285000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>298000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>275000</v>
-      </c>
-      <c r="K23" s="3">
-        <v>293000</v>
       </c>
       <c r="L23" s="3">
         <v>293000</v>
       </c>
       <c r="M23" s="3">
+        <v>293000</v>
+      </c>
+      <c r="N23" s="3">
         <v>378000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>370000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>350000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>331000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>337000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>237000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>181000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>819000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-14000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>30000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>38000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>31000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>33000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>36000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>67000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>58000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>59000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>135000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>31000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>38000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>19000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-4000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>171000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,64 +1697,70 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>358000</v>
+      </c>
+      <c r="E26" s="3">
         <v>329000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-347000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1565000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>238000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>247000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>267000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>242000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>257000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>226000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>320000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>311000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>215000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>300000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>299000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>218000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>185000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>648000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1714,55 +1768,58 @@
         <v>283000</v>
       </c>
       <c r="E27" s="3">
+        <v>283000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-369000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1572000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>230000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>246000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>274000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>240000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>253000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>221000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>316000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>307000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>232000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>236000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>272000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>195000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>204000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>630000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1831,11 +1891,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1843,38 +1903,41 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>-6000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-25000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>24000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>107000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>80000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>123000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>77000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>346000</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,64 +2051,70 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>10000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-7000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-6000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-22000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>16000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-9000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-19000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>9000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>11000</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2050,55 +2122,58 @@
         <v>283000</v>
       </c>
       <c r="E33" s="3">
+        <v>283000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-369000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1572000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>230000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>246000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>274000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>240000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>247000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>222000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>291000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>307000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>256000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>343000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>352000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>318000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>281000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2228,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2162,116 +2240,122 @@
         <v>283000</v>
       </c>
       <c r="E35" s="3">
+        <v>283000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-369000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1572000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>230000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>246000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>274000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>240000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>247000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>222000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>291000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>307000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>256000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>343000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>352000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>318000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>281000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2821000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2122000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1885000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2055000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>412000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>341000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>365000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>321000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>567000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>771000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>970000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1345000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1596000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>557000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>792000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>547000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>737000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>395000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,264 +2515,279 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3016000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2920000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2091000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2308000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2829000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2935000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2982000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3008000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2795000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2893000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2944000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3174000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2785000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3534000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3418000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3410000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2306000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3243000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1297000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1229000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1212000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1363000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1286000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1345000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1304000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1326000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1277000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1358000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1265000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1202000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1083000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1642000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1485000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1375000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>859000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1375000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>331000</v>
+      </c>
+      <c r="E45" s="3">
         <v>318000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>224000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>464000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>792000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>764000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>203000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>164000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>138000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>182000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>161000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>205000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>177000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>977000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>154000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>155000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1517000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>134000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7465000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6589000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5412000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6190000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5319000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5385000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4854000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4819000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4777000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5204000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5340000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5926000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5641000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6710000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5849000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5487000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5419000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5147000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2178000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2221000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2238000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2284000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>311000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>280000</v>
       </c>
       <c r="I47" s="3">
         <v>280000</v>
       </c>
       <c r="J47" s="3">
+        <v>280000</v>
+      </c>
+      <c r="K47" s="3">
         <v>262000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>215000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>198000</v>
-      </c>
-      <c r="M47" s="3">
-        <v>206000</v>
       </c>
       <c r="N47" s="3">
         <v>206000</v>
@@ -2692,134 +2796,143 @@
         <v>206000</v>
       </c>
       <c r="P47" s="3">
+        <v>206000</v>
+      </c>
+      <c r="Q47" s="3">
         <v>320000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>278000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>256000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>136000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3681000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3598000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3573000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3642000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3722000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3556000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3681000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3652000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3179000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3056000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2972000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2890000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2804000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3819000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3671000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3569000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2325000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3522000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3671000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3574000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3505000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3521000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3593000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3264000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3822000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3837000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3904000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3378000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3402000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3184000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3163000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2883000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2860000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2801000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2650000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2905000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>527000</v>
+      </c>
+      <c r="E52" s="3">
         <v>462000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>552000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>530000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>514000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>454000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>471000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>449000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>405000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>491000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>396000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>354000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>355000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>434000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>398000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>384000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1762000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>331000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17522000</v>
+      </c>
+      <c r="E54" s="3">
         <v>16444000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15280000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16167000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13459000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12939000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13108000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13019000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12480000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12327000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12316000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12560000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12169000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14166000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13056000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12497000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12292000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12122000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2571000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2186000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1432000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2243000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2463000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2232000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2284000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2340000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2334000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2254000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2307000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2282000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2227000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2745000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2603000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2549000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1820000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2544000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E58" s="3">
         <v>99000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>200000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>260000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>393000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>444000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>517000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>542000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>306000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>24000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>22000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>60000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>17000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>15000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>13000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>10000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1385000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1294000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1227000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1152000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1198000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1199000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1190000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1132000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1054000</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1109000</v>
       </c>
       <c r="M59" s="3">
         <v>1109000</v>
       </c>
       <c r="N59" s="3">
+        <v>1109000</v>
+      </c>
+      <c r="O59" s="3">
         <v>1366000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1296000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1383000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1554000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1535000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2318000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1261000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4046000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3579000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2859000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3655000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4054000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3875000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3991000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4014000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3694000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3387000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3438000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3708000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3540000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4143000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4170000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4092000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4148000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3841000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4011000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3935000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3946000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5964000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3971000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3939000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3997000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3995000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4038000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4084000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4067000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4163000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4132000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4884000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4059000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3991000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3953000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4038000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1365000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1376000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1349000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1395000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1423000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1344000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1388000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1375000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1078000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1047000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1053000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>991000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>980000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1525000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1542000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1465000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1428000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1322000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9617000</v>
+      </c>
+      <c r="E66" s="3">
         <v>9081000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8338000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11196000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9640000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9374000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9589000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9601000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9021000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8719000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8793000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9093000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8870000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10963000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10161000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9918000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9891000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9570000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4550000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4267000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3984000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4353000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2890000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2745000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2597000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2491000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2511000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2610000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2510000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2278000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2118000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2485000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2257000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2057000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1980000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1870000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7905000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7363000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6942000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4971000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3819000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3565000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3519000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3418000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3459000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3608000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3523000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3467000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3299000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3203000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2895000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2579000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2401000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2552000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4472,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4354,55 +4548,58 @@
         <v>283000</v>
       </c>
       <c r="E81" s="3">
+        <v>283000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-369000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1572000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>230000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>246000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>274000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>240000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>247000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>222000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>291000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>307000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>256000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>343000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>352000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>318000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>281000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>208000</v>
+      </c>
+      <c r="E83" s="3">
         <v>192000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>184000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>180000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>178000</v>
       </c>
       <c r="H83" s="3">
         <v>178000</v>
       </c>
       <c r="I83" s="3">
+        <v>178000</v>
+      </c>
+      <c r="J83" s="3">
         <v>188000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>173000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>202000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>163000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>156000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>155000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>183000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>181000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>175000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>178000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>526000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>799000</v>
+      </c>
+      <c r="E89" s="3">
         <v>559000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-106000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>161000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>703000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>325000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>512000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>84000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>757000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>171000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>545000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>155000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>428000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>151000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>599000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>290000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>683000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1258000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-117000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-167000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-205000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-162000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-168000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-216000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-235000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-185000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-212000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-206000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-243000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-218000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-87000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-178000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-215000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-871000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-138000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-187000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-207000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-479000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-163000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-234000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-235000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-879000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-208000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-716000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-245000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-570000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-219000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-193000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-270000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>9000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-587000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5095,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-56000</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>-56000</v>
@@ -5104,13 +5337,13 @@
         <v>-56000</v>
       </c>
       <c r="I96" s="3">
-        <v>-57000</v>
+        <v>-56000</v>
       </c>
       <c r="J96" s="3">
         <v>-57000</v>
       </c>
       <c r="K96" s="3">
-        <v>-58000</v>
+        <v>-57000</v>
       </c>
       <c r="L96" s="3">
         <v>-58000</v>
@@ -5119,28 +5352,31 @@
         <v>-58000</v>
       </c>
       <c r="N96" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-59000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-77000</v>
       </c>
       <c r="P96" s="3">
         <v>-77000</v>
       </c>
       <c r="Q96" s="3">
-        <v>-78000</v>
+        <v>-77000</v>
       </c>
       <c r="R96" s="3">
         <v>-78000</v>
       </c>
       <c r="S96" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-79000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-196000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>120000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1720000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-160000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-174000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-216000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-99000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-73000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-161000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-116000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-205000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>351000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>618000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-181000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-332000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-221000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-860000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E101" s="3">
         <v>12000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-16000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>7000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-11000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-9000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-88000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>44000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>34000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>11000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>20000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>21000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-28000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>699000</v>
+      </c>
+      <c r="E102" s="3">
         <v>237000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-170000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1658000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>71000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-23000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>59000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-246000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-204000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-199000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-375000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-251000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>243000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>561000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>245000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-291000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>443000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-184000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APTV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APTV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>APTV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4023000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4212000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3668000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1960000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3226000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3596000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3559000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3627000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3575000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3636000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3485000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3684000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3630000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3440000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3148000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3153000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3143000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3193000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9081000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3296000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3427000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3021000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1943000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2725000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2909000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2881000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2956000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2962000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2965000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2833000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2957000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2947000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2730000</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>2498000</v>
       </c>
       <c r="R9" s="3">
         <v>2498000</v>
       </c>
       <c r="S9" s="3">
+        <v>2498000</v>
+      </c>
+      <c r="T9" s="3">
         <v>2544000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2325000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7202000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>727000</v>
+      </c>
+      <c r="E10" s="3">
         <v>785000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>647000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>17000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>501000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>687000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>678000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>671000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>613000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>671000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>652000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>727000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>683000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>710000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>650000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>655000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>599000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>868000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1879000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,67 +1084,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E14" s="3">
         <v>24000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>18000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>76000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-1406000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>35000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>62000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>41000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>32000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>41000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>66000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>32000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>9000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>28000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>18000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>14000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>79000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>362000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>178000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,34 +1158,34 @@
         <v>37000</v>
       </c>
       <c r="E15" s="3">
+        <v>37000</v>
+      </c>
+      <c r="F15" s="3">
         <v>36000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>35000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>36000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>35000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>34000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>35000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>34000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>33000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>31000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>30000</v>
       </c>
       <c r="O15" s="3">
         <v>30000</v>
@@ -1171,7 +1194,7 @@
         <v>30000</v>
       </c>
       <c r="Q15" s="3">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="R15" s="3">
         <v>29000</v>
@@ -1183,10 +1206,13 @@
         <v>29000</v>
       </c>
       <c r="U15" s="3">
+        <v>29000</v>
+      </c>
+      <c r="V15" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3594000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3766000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3304000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2275000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1607000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3277000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3239000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3292000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3284000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3290000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3162000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3279000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3245000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3054000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2775000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2772000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2877000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2968000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8140000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>429000</v>
+      </c>
+      <c r="E18" s="3">
         <v>446000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>364000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-315000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1619000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>319000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>320000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>335000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>291000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>346000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>323000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>405000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>385000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>386000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>373000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>381000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>266000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>225000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>941000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>6000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-10000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>7000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>22000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-16000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>9000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>19000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-9000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-11000</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>623000</v>
+      </c>
+      <c r="E21" s="3">
         <v>660000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>557000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-133000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1798000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>487000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>505000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>529000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>486000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>532000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>490000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>570000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>559000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>541000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>402000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>553000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>445000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>177000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1467000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E22" s="3">
         <v>39000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>38000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>44000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>43000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>41000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>42000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>43000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>38000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>37000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>34000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>36000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>34000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>37000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>35000</v>
       </c>
       <c r="R22" s="3">
         <v>35000</v>
       </c>
       <c r="S22" s="3">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="T22" s="3">
         <v>33000</v>
       </c>
       <c r="U22" s="3">
+        <v>33000</v>
+      </c>
+      <c r="V22" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>390000</v>
+      </c>
+      <c r="E23" s="3">
         <v>413000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>327000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-361000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1575000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>268000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>285000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>298000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>275000</v>
-      </c>
-      <c r="L23" s="3">
-        <v>293000</v>
       </c>
       <c r="M23" s="3">
         <v>293000</v>
       </c>
       <c r="N23" s="3">
+        <v>293000</v>
+      </c>
+      <c r="O23" s="3">
         <v>378000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>370000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>350000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>331000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>337000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>237000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>181000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>819000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E24" s="3">
         <v>55000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-14000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>30000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>38000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>31000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>33000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>36000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>67000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>58000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>59000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>135000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>31000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>38000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>19000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-4000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>171000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>342000</v>
+      </c>
+      <c r="E26" s="3">
         <v>358000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>329000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-347000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1565000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>238000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>247000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>267000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>242000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>257000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>226000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>320000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>311000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>215000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>300000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>299000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>218000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>185000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>648000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>283000</v>
+        <v>279000</v>
       </c>
       <c r="E27" s="3">
         <v>283000</v>
       </c>
       <c r="F27" s="3">
+        <v>283000</v>
+      </c>
+      <c r="G27" s="3">
         <v>-369000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1572000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>230000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>246000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>274000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>240000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>253000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>221000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>316000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>307000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>232000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>236000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>272000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>195000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>204000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>630000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1894,11 +1955,11 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1906,38 +1967,41 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>-6000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-25000</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>24000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>107000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>80000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>123000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>77000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>346000</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>10000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-7000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-22000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>16000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-9000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-19000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>9000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>11000</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>283000</v>
+        <v>279000</v>
       </c>
       <c r="E33" s="3">
         <v>283000</v>
       </c>
       <c r="F33" s="3">
+        <v>283000</v>
+      </c>
+      <c r="G33" s="3">
         <v>-369000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1572000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>230000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>246000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>274000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>240000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>247000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>222000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>291000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>307000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>256000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>343000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>352000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>318000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>281000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>283000</v>
+        <v>279000</v>
       </c>
       <c r="E35" s="3">
         <v>283000</v>
       </c>
       <c r="F35" s="3">
+        <v>283000</v>
+      </c>
+      <c r="G35" s="3">
         <v>-369000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1572000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>230000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>246000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>274000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>240000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>247000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>222000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>291000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>307000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>256000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>343000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>352000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>318000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>281000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2830000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2821000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2122000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1885000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2055000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>412000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>341000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>365000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>321000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>567000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>771000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>970000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1345000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1596000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>557000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>792000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>547000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>737000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>395000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,279 +2608,294 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3048000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3016000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2920000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2091000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2308000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2829000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2935000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2982000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3008000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2795000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2893000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2944000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3174000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2785000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3534000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3418000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3410000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2306000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3243000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1525000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1297000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1229000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1212000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1363000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1286000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1345000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1304000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1326000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1277000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1358000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1265000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1202000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1083000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1642000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1485000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1375000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>859000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1375000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>398000</v>
+      </c>
+      <c r="E45" s="3">
         <v>331000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>318000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>224000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>464000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>792000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>764000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>203000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>164000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>138000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>182000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>161000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>205000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>177000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>977000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>154000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>155000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1517000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>134000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7801000</v>
+      </c>
+      <c r="E46" s="3">
         <v>7465000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6589000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5412000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6190000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5319000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5385000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4854000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4819000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4777000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5204000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5340000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5926000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5641000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6710000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5849000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5487000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5419000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5147000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2128000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2178000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2221000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2238000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2284000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>311000</v>
-      </c>
-      <c r="I47" s="3">
-        <v>280000</v>
       </c>
       <c r="J47" s="3">
         <v>280000</v>
       </c>
       <c r="K47" s="3">
+        <v>280000</v>
+      </c>
+      <c r="L47" s="3">
         <v>262000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>215000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>198000</v>
-      </c>
-      <c r="N47" s="3">
-        <v>206000</v>
       </c>
       <c r="O47" s="3">
         <v>206000</v>
@@ -2799,140 +2904,149 @@
         <v>206000</v>
       </c>
       <c r="Q47" s="3">
+        <v>206000</v>
+      </c>
+      <c r="R47" s="3">
         <v>320000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>278000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>256000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>136000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3523000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3681000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3598000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3573000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3642000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3722000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3556000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3681000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3652000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3179000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3056000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2972000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2890000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2804000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3819000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3671000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3569000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2325000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3522000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3536000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3671000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3574000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3505000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3521000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3593000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3264000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3822000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3837000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3904000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3378000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3402000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3184000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3163000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2883000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2860000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2801000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2650000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2905000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>488000</v>
+      </c>
+      <c r="E52" s="3">
         <v>527000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>462000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>552000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>530000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>514000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>454000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>471000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>449000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>405000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>491000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>396000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>354000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>355000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>434000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>398000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>384000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1762000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>331000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17476000</v>
+      </c>
+      <c r="E54" s="3">
         <v>17522000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16444000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15280000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16167000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13459000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12939000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13108000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13019000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12480000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12327000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12316000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12560000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12169000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14166000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13056000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12497000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12292000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12122000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2624000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2571000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2186000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1432000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2243000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2463000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2232000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2284000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2340000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2334000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2254000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2307000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2282000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2227000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2745000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2603000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2549000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1820000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2544000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E58" s="3">
         <v>90000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>99000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>200000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>260000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>393000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>444000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>517000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>542000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>306000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>24000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>22000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>60000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>17000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>15000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>13000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>10000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1260000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1385000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1294000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1227000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1152000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1198000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1199000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1190000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1132000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1054000</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1109000</v>
       </c>
       <c r="N59" s="3">
         <v>1109000</v>
       </c>
       <c r="O59" s="3">
+        <v>1109000</v>
+      </c>
+      <c r="P59" s="3">
         <v>1366000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1296000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1383000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1554000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1535000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2318000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1261000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3962000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4046000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3579000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2859000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3655000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4054000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3875000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3991000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4014000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3694000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3387000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3438000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3708000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3540000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4143000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4170000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4092000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4148000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3841000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3946000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4011000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3935000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3946000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5964000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3971000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3939000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3997000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3995000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4038000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4084000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4067000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4163000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4132000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4884000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4059000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3991000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3953000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4038000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1292000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1365000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1376000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1349000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1395000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1423000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1344000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1388000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1375000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1078000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1047000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1053000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>991000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>980000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1525000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1542000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1465000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1428000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1322000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9399000</v>
+      </c>
+      <c r="E66" s="3">
         <v>9617000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9081000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8338000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11196000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9640000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9374000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9589000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9601000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9021000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8719000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8793000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9093000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8870000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10963000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10161000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9918000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9891000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9570000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4829000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4550000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4267000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3984000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4353000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2890000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2745000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2597000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2491000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2511000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2610000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2510000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2278000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2118000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2485000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2257000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2057000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1980000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1870000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8077000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7905000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7363000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6942000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4971000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3819000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3565000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3519000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3418000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3459000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3608000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3523000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3467000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3299000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3203000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2895000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2579000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2401000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2552000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>283000</v>
+        <v>279000</v>
       </c>
       <c r="E81" s="3">
         <v>283000</v>
       </c>
       <c r="F81" s="3">
+        <v>283000</v>
+      </c>
+      <c r="G81" s="3">
         <v>-369000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1572000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>230000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>246000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>274000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>240000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>247000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>222000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>291000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>307000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>256000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>343000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>352000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>318000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>281000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E83" s="3">
         <v>208000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>192000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>184000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>180000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>178000</v>
       </c>
       <c r="I83" s="3">
         <v>178000</v>
       </c>
       <c r="J83" s="3">
+        <v>178000</v>
+      </c>
+      <c r="K83" s="3">
         <v>188000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>173000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>202000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>163000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>156000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>155000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>183000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>181000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>175000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>178000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>526000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>252000</v>
+      </c>
+      <c r="E89" s="3">
         <v>799000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>559000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-106000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>161000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>703000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>325000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>512000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>84000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>757000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>171000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>545000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>155000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>428000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>151000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>599000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>290000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>683000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1258000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-95000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-117000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-167000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-205000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-162000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-168000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-216000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-235000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-185000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-212000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-206000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-243000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-218000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-87000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-178000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-215000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-871000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-94000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-138000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-187000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-207000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-479000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-163000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-234000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-235000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-879000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-208000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-716000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-245000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-570000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-219000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-193000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-270000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>9000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-587000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5331,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-56000</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>-56000</v>
@@ -5340,13 +5574,13 @@
         <v>-56000</v>
       </c>
       <c r="J96" s="3">
-        <v>-57000</v>
+        <v>-56000</v>
       </c>
       <c r="K96" s="3">
         <v>-57000</v>
       </c>
       <c r="L96" s="3">
-        <v>-58000</v>
+        <v>-57000</v>
       </c>
       <c r="M96" s="3">
         <v>-58000</v>
@@ -5355,28 +5589,31 @@
         <v>-58000</v>
       </c>
       <c r="O96" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-59000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-77000</v>
       </c>
       <c r="Q96" s="3">
         <v>-77000</v>
       </c>
       <c r="R96" s="3">
-        <v>-78000</v>
+        <v>-77000</v>
       </c>
       <c r="S96" s="3">
         <v>-78000</v>
       </c>
       <c r="T96" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-79000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-31000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-196000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>120000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1720000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-160000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-174000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-216000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-99000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-73000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-161000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-116000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-205000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>351000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>618000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-181000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-332000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-221000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-860000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E101" s="3">
         <v>25000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>12000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-16000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>7000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-11000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-9000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-88000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>44000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>34000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>11000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>20000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>21000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-28000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E102" s="3">
         <v>699000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>237000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-170000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1658000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>71000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-23000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>59000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-246000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-204000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-199000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-375000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-251000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>243000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>561000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>245000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-291000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>443000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-184000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APTV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APTV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>APTV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3807000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4023000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4212000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3668000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1960000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3226000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3596000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3559000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3627000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3575000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3636000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3485000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3684000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3630000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3440000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3148000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3153000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3143000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3193000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9081000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3205000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3296000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3427000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3021000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1943000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2725000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2909000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2881000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2956000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2962000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2965000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2833000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2957000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2947000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2730000</v>
-      </c>
-      <c r="R9" s="3">
-        <v>2498000</v>
       </c>
       <c r="S9" s="3">
         <v>2498000</v>
       </c>
       <c r="T9" s="3">
+        <v>2498000</v>
+      </c>
+      <c r="U9" s="3">
         <v>2544000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2325000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7202000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>602000</v>
+      </c>
+      <c r="E10" s="3">
         <v>727000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>785000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>647000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>17000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>501000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>687000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>678000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>671000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>613000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>671000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>652000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>727000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>683000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>710000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>650000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>655000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>599000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>868000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1879000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,70 +1104,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E14" s="3">
         <v>6000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>24000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>18000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>76000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-1406000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>35000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>62000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>41000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>32000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>41000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>66000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>32000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>9000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>28000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>18000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>14000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>79000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>362000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>178000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,34 +1184,34 @@
         <v>37000</v>
       </c>
       <c r="F15" s="3">
+        <v>37000</v>
+      </c>
+      <c r="G15" s="3">
         <v>36000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>35000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>36000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>35000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>34000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>35000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>34000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>33000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>31000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>30000</v>
       </c>
       <c r="P15" s="3">
         <v>30000</v>
@@ -1197,7 +1220,7 @@
         <v>30000</v>
       </c>
       <c r="R15" s="3">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="S15" s="3">
         <v>29000</v>
@@ -1209,10 +1232,13 @@
         <v>29000</v>
       </c>
       <c r="V15" s="3">
+        <v>29000</v>
+      </c>
+      <c r="W15" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3523000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3594000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3766000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3304000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2275000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1607000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3277000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3239000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3292000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3284000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3290000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3162000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3279000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3245000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3054000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2775000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2772000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2877000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2968000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8140000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>284000</v>
+      </c>
+      <c r="E18" s="3">
         <v>429000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>446000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>364000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-315000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1619000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>319000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>320000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>335000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>291000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>346000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>323000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>405000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>385000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>386000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>373000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>381000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>266000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>225000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>941000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,309 +1423,324 @@
         <v>1000</v>
       </c>
       <c r="E20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>6000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-10000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>22000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-16000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>9000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>19000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-9000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-11000</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>482000</v>
+      </c>
+      <c r="E21" s="3">
         <v>623000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>660000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>557000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-133000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1798000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>487000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>505000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>529000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>486000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>532000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>490000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>570000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>559000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>541000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>402000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>553000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>445000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>177000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1467000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E22" s="3">
         <v>40000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>39000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>38000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>44000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>43000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>41000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>42000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>43000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>38000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>37000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>34000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>36000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>34000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>37000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>35000</v>
       </c>
       <c r="S22" s="3">
         <v>35000</v>
       </c>
       <c r="T22" s="3">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="U22" s="3">
         <v>33000</v>
       </c>
       <c r="V22" s="3">
+        <v>33000</v>
+      </c>
+      <c r="W22" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E23" s="3">
         <v>390000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>413000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>327000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-361000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1575000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>268000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>285000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>298000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>275000</v>
-      </c>
-      <c r="M23" s="3">
-        <v>293000</v>
       </c>
       <c r="N23" s="3">
         <v>293000</v>
       </c>
       <c r="O23" s="3">
+        <v>293000</v>
+      </c>
+      <c r="P23" s="3">
         <v>378000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>370000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>350000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>331000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>337000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>237000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>181000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>819000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E24" s="3">
         <v>48000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>55000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-14000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>10000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>30000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>38000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>31000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>33000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>36000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>67000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>58000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>59000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>135000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>31000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>38000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>19000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-4000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>171000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>219000</v>
+      </c>
+      <c r="E26" s="3">
         <v>342000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>358000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>329000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-347000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1565000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>238000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>247000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>267000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>242000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>257000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>226000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>320000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>311000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>215000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>300000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>299000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>218000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>185000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>648000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E27" s="3">
         <v>279000</v>
-      </c>
-      <c r="E27" s="3">
-        <v>283000</v>
       </c>
       <c r="F27" s="3">
         <v>283000</v>
       </c>
       <c r="G27" s="3">
+        <v>283000</v>
+      </c>
+      <c r="H27" s="3">
         <v>-369000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1572000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>230000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>246000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>274000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>240000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>253000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>221000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>316000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>307000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>232000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>236000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>272000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>195000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>204000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>630000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1958,11 +2019,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1970,38 +2031,41 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-6000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>1000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-25000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>24000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>107000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>80000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>123000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>77000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>346000</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,123 +2203,129 @@
         <v>-1000</v>
       </c>
       <c r="E32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-6000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>10000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-22000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>16000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-9000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>9000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>11000</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E33" s="3">
         <v>279000</v>
-      </c>
-      <c r="E33" s="3">
-        <v>283000</v>
       </c>
       <c r="F33" s="3">
         <v>283000</v>
       </c>
       <c r="G33" s="3">
+        <v>283000</v>
+      </c>
+      <c r="H33" s="3">
         <v>-369000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1572000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>230000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>246000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>274000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>240000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>247000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>222000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>291000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>307000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>256000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>343000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>352000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>318000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>281000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E35" s="3">
         <v>279000</v>
-      </c>
-      <c r="E35" s="3">
-        <v>283000</v>
       </c>
       <c r="F35" s="3">
         <v>283000</v>
       </c>
       <c r="G35" s="3">
+        <v>283000</v>
+      </c>
+      <c r="H35" s="3">
         <v>-369000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1572000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>230000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>246000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>274000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>240000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>247000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>222000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>291000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>307000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>256000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>343000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>352000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>318000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>281000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2926000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2830000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2821000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2122000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1885000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2055000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>412000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>341000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>365000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>321000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>567000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>771000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>970000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1345000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1596000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>557000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>792000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>547000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>737000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>395000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,294 +2701,309 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2928000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3048000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3016000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2920000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2091000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2308000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2829000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2935000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2982000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3008000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2795000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2893000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2944000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3174000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2785000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3534000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3418000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3410000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2306000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3243000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1801000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1525000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1297000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1229000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1212000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1363000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1286000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1345000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1304000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1326000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1277000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1358000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1265000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1202000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1083000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1642000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1485000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1375000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>859000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1375000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400000</v>
+      </c>
+      <c r="E45" s="3">
         <v>398000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>331000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>318000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>224000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>464000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>792000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>764000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>203000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>164000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>138000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>182000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>161000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>205000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>177000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>977000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>154000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>155000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1517000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>134000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8055000</v>
+      </c>
+      <c r="E46" s="3">
         <v>7801000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7465000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6589000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5412000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6190000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5319000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5385000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4854000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4819000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4777000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5204000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5340000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5926000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5641000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6710000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5849000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5487000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5419000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5147000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2095000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2128000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2178000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2221000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2238000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2284000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>311000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>280000</v>
       </c>
       <c r="K47" s="3">
         <v>280000</v>
       </c>
       <c r="L47" s="3">
+        <v>280000</v>
+      </c>
+      <c r="M47" s="3">
         <v>262000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>215000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>198000</v>
-      </c>
-      <c r="O47" s="3">
-        <v>206000</v>
       </c>
       <c r="P47" s="3">
         <v>206000</v>
@@ -2907,146 +3012,155 @@
         <v>206000</v>
       </c>
       <c r="R47" s="3">
+        <v>206000</v>
+      </c>
+      <c r="S47" s="3">
         <v>320000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>278000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>256000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>136000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3571000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3523000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3681000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3598000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3573000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3642000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3722000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3556000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3681000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3652000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3179000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3056000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2972000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2890000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2804000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3819000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3671000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3569000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2325000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3522000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3568000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3536000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3671000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3574000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3505000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3521000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3593000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3264000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3822000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3837000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3904000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3378000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3402000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3184000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3163000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2883000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2860000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2801000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2650000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2905000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>491000</v>
+      </c>
+      <c r="E52" s="3">
         <v>488000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>527000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>462000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>552000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>530000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>514000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>454000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>471000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>449000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>405000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>491000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>396000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>354000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>355000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>434000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>398000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>384000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1762000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>331000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17780000</v>
+      </c>
+      <c r="E54" s="3">
         <v>17476000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17522000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16444000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15280000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16167000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13459000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12939000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13108000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13019000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12480000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12327000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12316000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12560000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12169000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14166000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13056000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12497000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12292000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12122000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2574000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2624000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2571000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2186000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1432000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2243000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2463000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2232000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2284000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2340000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2334000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2254000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2307000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2282000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2227000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2745000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2603000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2549000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1820000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2544000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E58" s="3">
         <v>78000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>90000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>99000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>200000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>260000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>393000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>444000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>517000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>542000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>306000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>24000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>22000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>60000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>17000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>15000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>13000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>10000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1315000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1260000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1385000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1294000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1227000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1152000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1198000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1199000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1190000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1132000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1054000</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1109000</v>
       </c>
       <c r="O59" s="3">
         <v>1109000</v>
       </c>
       <c r="P59" s="3">
+        <v>1109000</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1366000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1296000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1383000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1554000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1535000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2318000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1261000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3905000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3962000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4046000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3579000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2859000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3655000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4054000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3875000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3991000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4014000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3694000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3387000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3438000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3708000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3540000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4143000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4170000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4092000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4148000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3841000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4031000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3946000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4011000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3935000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3946000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5964000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3971000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3939000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3997000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3995000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4038000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4084000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4067000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4163000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4132000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4884000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4059000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3991000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3953000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4038000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1319000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1292000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1365000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1376000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1349000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1395000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1423000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1344000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1388000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1375000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1078000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1047000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1053000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>991000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>980000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1525000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1542000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1465000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1428000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1322000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9458000</v>
+      </c>
+      <c r="E66" s="3">
         <v>9399000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9617000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9081000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8338000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11196000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9640000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9374000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9589000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9601000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9021000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8719000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8793000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9093000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8870000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10963000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10161000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9918000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9891000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9570000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4976000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4829000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4550000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4267000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3984000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4353000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2890000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2745000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2597000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2491000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2511000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2610000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2510000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2278000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2118000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2485000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2257000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2057000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1980000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1870000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8322000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8077000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7905000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7363000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6942000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4971000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3819000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3565000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3519000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3418000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3459000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3608000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3523000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3467000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3299000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3203000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2895000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2579000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2401000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2552000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E81" s="3">
         <v>279000</v>
-      </c>
-      <c r="E81" s="3">
-        <v>283000</v>
       </c>
       <c r="F81" s="3">
         <v>283000</v>
       </c>
       <c r="G81" s="3">
+        <v>283000</v>
+      </c>
+      <c r="H81" s="3">
         <v>-369000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1572000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>230000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>246000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>274000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>240000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>247000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>222000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>291000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>307000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>256000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>343000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>352000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>318000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>281000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>197000</v>
+      </c>
+      <c r="E83" s="3">
         <v>193000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>208000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>192000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>184000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>180000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>178000</v>
       </c>
       <c r="J83" s="3">
         <v>178000</v>
       </c>
       <c r="K83" s="3">
+        <v>178000</v>
+      </c>
+      <c r="L83" s="3">
         <v>188000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>173000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>202000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>163000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>156000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>155000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>183000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>181000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>175000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>178000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>526000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>297000</v>
+      </c>
+      <c r="E89" s="3">
         <v>252000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>799000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>559000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-106000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>161000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>703000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>325000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>512000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>84000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>757000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>171000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>545000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>155000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>428000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>151000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>599000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>290000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>683000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1258000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-127000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-134000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-95000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-117000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-167000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-205000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-162000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-168000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-216000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-235000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-185000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-212000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-206000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-243000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-218000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-87000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-178000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-215000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-871000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-180000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-134000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-94000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-138000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-187000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-207000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-479000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-163000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-234000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-235000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-879000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-208000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-716000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-245000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-570000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-219000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-193000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-270000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>9000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-587000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5568,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-56000</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>-56000</v>
@@ -5577,13 +5811,13 @@
         <v>-56000</v>
       </c>
       <c r="K96" s="3">
-        <v>-57000</v>
+        <v>-56000</v>
       </c>
       <c r="L96" s="3">
         <v>-57000</v>
       </c>
       <c r="M96" s="3">
-        <v>-58000</v>
+        <v>-57000</v>
       </c>
       <c r="N96" s="3">
         <v>-58000</v>
@@ -5592,28 +5826,31 @@
         <v>-58000</v>
       </c>
       <c r="P96" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-59000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-77000</v>
       </c>
       <c r="R96" s="3">
         <v>-77000</v>
       </c>
       <c r="S96" s="3">
-        <v>-78000</v>
+        <v>-77000</v>
       </c>
       <c r="T96" s="3">
         <v>-78000</v>
       </c>
       <c r="U96" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-79000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-77000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-31000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-196000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>120000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1720000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-160000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-174000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-216000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-99000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-73000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-161000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-116000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-205000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>351000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>618000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-181000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-332000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-221000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-860000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-12000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>25000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>12000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-16000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>7000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-11000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-9000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-88000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>44000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>34000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>11000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>20000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>21000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-28000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E102" s="3">
         <v>29000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>699000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>237000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-170000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1658000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>71000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-23000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>59000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-246000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-204000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-199000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-375000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-251000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>243000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>561000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>245000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-291000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>443000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-184000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APTV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APTV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>APTV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3654000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3807000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4023000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4212000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3668000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1960000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3226000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3596000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3559000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3627000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3575000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3636000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3485000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3684000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3630000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3440000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3148000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3153000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3143000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3193000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9081000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3138000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3205000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3296000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3427000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3021000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1943000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2725000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2909000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2881000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2956000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2962000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2965000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2833000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2957000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2947000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2730000</v>
-      </c>
-      <c r="S9" s="3">
-        <v>2498000</v>
       </c>
       <c r="T9" s="3">
         <v>2498000</v>
       </c>
       <c r="U9" s="3">
+        <v>2498000</v>
+      </c>
+      <c r="V9" s="3">
         <v>2544000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2325000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7202000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>516000</v>
+      </c>
+      <c r="E10" s="3">
         <v>602000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>727000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>785000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>647000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>17000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>501000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>687000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>678000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>671000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>613000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>671000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>652000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>727000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>683000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>710000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>650000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>655000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>599000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>868000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1879000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,73 +1124,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>15000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>24000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>18000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>76000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-1406000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>35000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>62000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>41000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>32000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>41000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>66000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>32000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>9000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>28000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>18000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>14000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>79000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>362000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>178000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1187,34 +1210,34 @@
         <v>37000</v>
       </c>
       <c r="G15" s="3">
+        <v>37000</v>
+      </c>
+      <c r="H15" s="3">
         <v>36000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>35000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>36000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>35000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>34000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>35000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>34000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>33000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>31000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>30000</v>
       </c>
       <c r="Q15" s="3">
         <v>30000</v>
@@ -1223,7 +1246,7 @@
         <v>30000</v>
       </c>
       <c r="S15" s="3">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="T15" s="3">
         <v>29000</v>
@@ -1235,10 +1258,13 @@
         <v>29000</v>
       </c>
       <c r="W15" s="3">
+        <v>29000</v>
+      </c>
+      <c r="X15" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3439000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3523000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3594000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3766000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3304000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2275000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1607000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3277000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3239000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3292000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3284000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3290000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3162000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3279000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3245000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3054000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2775000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2772000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2877000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2968000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8140000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>215000</v>
+      </c>
+      <c r="E18" s="3">
         <v>284000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>429000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>446000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>364000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-315000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1619000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>319000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>320000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>335000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>291000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>346000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>323000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>405000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>385000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>386000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>373000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>381000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>266000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>225000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>941000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1426,321 +1460,336 @@
         <v>1000</v>
       </c>
       <c r="F20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="3">
         <v>6000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-10000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>22000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-16000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>9000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>19000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-7000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-9000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-11000</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>409000</v>
+      </c>
+      <c r="E21" s="3">
         <v>482000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>623000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>660000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>557000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-133000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1798000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>487000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>505000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>529000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>486000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>532000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>490000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>570000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>559000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>541000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>402000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>553000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>445000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>177000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1467000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E22" s="3">
         <v>38000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>40000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>39000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>38000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>44000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>43000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>41000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>42000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>43000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>38000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>37000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>34000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>36000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>34000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>37000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>35000</v>
       </c>
       <c r="T22" s="3">
         <v>35000</v>
       </c>
       <c r="U22" s="3">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="V22" s="3">
         <v>33000</v>
       </c>
       <c r="W22" s="3">
+        <v>33000</v>
+      </c>
+      <c r="X22" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E23" s="3">
         <v>247000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>390000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>413000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>327000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-361000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1575000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>268000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>285000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>298000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>275000</v>
-      </c>
-      <c r="N23" s="3">
-        <v>293000</v>
       </c>
       <c r="O23" s="3">
         <v>293000</v>
       </c>
       <c r="P23" s="3">
+        <v>293000</v>
+      </c>
+      <c r="Q23" s="3">
         <v>378000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>370000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>350000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>331000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>337000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>237000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>181000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>819000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E24" s="3">
         <v>28000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>48000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>55000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-14000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>10000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>30000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>38000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>31000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>33000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>36000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>67000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>58000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>59000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>135000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>31000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>38000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>19000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-4000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>171000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E26" s="3">
         <v>219000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>342000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>358000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>329000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-347000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1565000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>238000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>247000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>267000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>242000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>257000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>226000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>320000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>311000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>215000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>300000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>299000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>218000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>185000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>648000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E27" s="3">
         <v>147000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>279000</v>
-      </c>
-      <c r="F27" s="3">
-        <v>283000</v>
       </c>
       <c r="G27" s="3">
         <v>283000</v>
       </c>
       <c r="H27" s="3">
+        <v>283000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-369000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1572000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>230000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>246000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>274000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>240000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>253000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>221000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>316000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>307000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>232000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>236000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>272000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>195000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>204000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>630000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2022,11 +2083,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2034,38 +2095,41 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-6000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>1000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>24000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>107000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>80000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>123000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>77000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>346000</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2206,126 +2276,132 @@
         <v>-1000</v>
       </c>
       <c r="F32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-6000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>10000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-22000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>16000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-19000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>7000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>9000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>11000</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E33" s="3">
         <v>147000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>279000</v>
-      </c>
-      <c r="F33" s="3">
-        <v>283000</v>
       </c>
       <c r="G33" s="3">
         <v>283000</v>
       </c>
       <c r="H33" s="3">
+        <v>283000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-369000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1572000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>230000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>246000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>274000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>240000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>247000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>222000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>291000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>307000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>256000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>343000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>352000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>318000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>281000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E35" s="3">
         <v>147000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>279000</v>
-      </c>
-      <c r="F35" s="3">
-        <v>283000</v>
       </c>
       <c r="G35" s="3">
         <v>283000</v>
       </c>
       <c r="H35" s="3">
+        <v>283000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-369000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1572000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>230000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>246000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>274000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>240000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>247000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>222000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>291000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>307000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>256000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>343000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>352000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>318000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>281000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2741000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2926000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2830000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2821000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2122000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1885000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2055000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>412000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>341000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>365000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>321000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>567000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>771000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>970000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1345000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1596000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>557000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>792000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>547000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>737000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>395000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,309 +2794,324 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2954000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2928000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3048000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3016000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2920000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2091000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2308000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2829000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2935000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2982000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3008000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2795000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2893000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2944000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3174000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2785000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3534000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3418000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3410000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2306000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3243000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2119000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1801000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1525000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1297000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1229000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1212000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1363000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1286000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1345000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1304000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1326000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1277000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1358000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1265000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1202000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1083000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1642000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1485000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1375000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>859000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1375000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>290000</v>
+      </c>
+      <c r="E45" s="3">
         <v>400000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>398000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>331000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>318000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>224000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>464000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>792000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>764000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>203000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>164000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>138000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>182000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>161000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>205000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>177000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>977000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>154000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>155000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1517000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>134000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8104000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8055000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7801000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7465000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6589000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5412000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6190000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5319000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5385000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4854000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4819000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4777000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5204000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5340000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5926000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5641000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6710000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5849000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5487000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5419000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5147000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2023000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2095000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2128000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2178000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2221000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2238000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2284000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>311000</v>
-      </c>
-      <c r="K47" s="3">
-        <v>280000</v>
       </c>
       <c r="L47" s="3">
         <v>280000</v>
       </c>
       <c r="M47" s="3">
+        <v>280000</v>
+      </c>
+      <c r="N47" s="3">
         <v>262000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>215000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>198000</v>
-      </c>
-      <c r="P47" s="3">
-        <v>206000</v>
       </c>
       <c r="Q47" s="3">
         <v>206000</v>
@@ -3015,152 +3120,161 @@
         <v>206000</v>
       </c>
       <c r="S47" s="3">
+        <v>206000</v>
+      </c>
+      <c r="T47" s="3">
         <v>320000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>278000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>256000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>136000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3574000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3571000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3523000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3681000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3598000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3573000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3642000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3722000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3556000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3681000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3652000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3179000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3056000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2972000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2890000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2804000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3819000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3671000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3569000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2325000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3522000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3477000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3568000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3536000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3671000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3574000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3505000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3521000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3593000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3264000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3822000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3837000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3904000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3378000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3402000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3184000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3163000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2883000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2860000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2801000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2650000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2905000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>473000</v>
+      </c>
+      <c r="E52" s="3">
         <v>491000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>488000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>527000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>462000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>552000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>530000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>514000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>454000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>471000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>449000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>405000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>491000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>396000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>354000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>355000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>434000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>398000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>384000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1762000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>331000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17651000</v>
+      </c>
+      <c r="E54" s="3">
         <v>17780000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17476000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17522000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16444000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15280000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16167000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13459000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12939000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13108000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13019000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12480000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12327000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12316000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12560000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12169000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>14166000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>13056000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12497000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12292000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12122000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2544000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2574000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2624000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2571000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2186000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1432000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2243000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2463000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2232000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2284000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2340000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2334000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2254000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2307000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2282000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2227000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2745000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2603000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2549000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1820000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2544000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E58" s="3">
         <v>16000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>78000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>90000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>99000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>200000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>260000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>393000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>444000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>517000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>542000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>306000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>24000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>22000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>60000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>17000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>15000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>13000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>10000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1282000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1315000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1260000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1385000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1294000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1227000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1152000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1198000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1199000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1190000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1132000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1054000</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1109000</v>
       </c>
       <c r="P59" s="3">
         <v>1109000</v>
       </c>
       <c r="Q59" s="3">
+        <v>1109000</v>
+      </c>
+      <c r="R59" s="3">
         <v>1366000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1296000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1383000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1554000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1535000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2318000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1261000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3834000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3905000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3962000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4046000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3579000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2859000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3655000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4054000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3875000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3991000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4014000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3694000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3387000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3438000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3708000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3540000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4143000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4170000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4092000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4148000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3841000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4000000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4031000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3946000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4011000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3935000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3946000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5964000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3971000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3939000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3997000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3995000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4038000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4084000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4067000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4163000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4132000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4884000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4059000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3991000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3953000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4038000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1318000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1319000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1292000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1365000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1376000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1349000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1395000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1423000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1344000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1388000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1375000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1078000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1047000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1053000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>991000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>980000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1525000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1542000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1465000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1428000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1322000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9357000</v>
+      </c>
+      <c r="E66" s="3">
         <v>9458000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9399000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9617000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9081000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8338000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11196000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9640000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9374000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9589000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9601000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9021000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8719000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8793000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9093000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8870000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10963000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10161000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9918000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9891000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>9570000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5062000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4976000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4829000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4550000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4267000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3984000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4353000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2890000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2745000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2597000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2491000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2511000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2610000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2510000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2278000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2118000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2485000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2257000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2057000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1980000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1870000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8294000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8322000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8077000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7905000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7363000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6942000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4971000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3819000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3565000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3519000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3418000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3459000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3608000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3523000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3467000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3299000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3203000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2895000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2579000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2401000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2552000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E81" s="3">
         <v>147000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>279000</v>
-      </c>
-      <c r="F81" s="3">
-        <v>283000</v>
       </c>
       <c r="G81" s="3">
         <v>283000</v>
       </c>
       <c r="H81" s="3">
+        <v>283000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-369000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1572000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>230000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>246000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>274000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>240000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>247000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>222000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>291000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>307000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>256000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>343000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>352000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>318000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>281000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E83" s="3">
         <v>197000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>193000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>208000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>192000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>184000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>180000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>178000</v>
       </c>
       <c r="K83" s="3">
         <v>178000</v>
       </c>
       <c r="L83" s="3">
+        <v>178000</v>
+      </c>
+      <c r="M83" s="3">
         <v>188000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>173000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>202000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>163000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>156000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>155000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>183000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>181000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>175000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>178000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>526000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E89" s="3">
         <v>297000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>252000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>799000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>559000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-106000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>161000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>703000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>325000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>512000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>84000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>757000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>171000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>545000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>155000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>428000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>151000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>599000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>290000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>683000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1258000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-169000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-127000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-134000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-95000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-117000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-167000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-205000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-162000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-168000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-216000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-235000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-185000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-212000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-206000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-243000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-218000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-87000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-178000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-215000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-871000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-156000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-180000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-134000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-94000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-138000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-187000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-207000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-479000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-163000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-234000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-235000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-879000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-208000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-716000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-245000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-570000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-219000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-193000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-270000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>9000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-587000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5805,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-56000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
         <v>-56000</v>
@@ -5814,13 +6048,13 @@
         <v>-56000</v>
       </c>
       <c r="L96" s="3">
-        <v>-57000</v>
+        <v>-56000</v>
       </c>
       <c r="M96" s="3">
         <v>-57000</v>
       </c>
       <c r="N96" s="3">
-        <v>-58000</v>
+        <v>-57000</v>
       </c>
       <c r="O96" s="3">
         <v>-58000</v>
@@ -5829,28 +6063,31 @@
         <v>-58000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-59000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-77000</v>
       </c>
       <c r="S96" s="3">
         <v>-77000</v>
       </c>
       <c r="T96" s="3">
-        <v>-78000</v>
+        <v>-77000</v>
       </c>
       <c r="U96" s="3">
         <v>-78000</v>
       </c>
       <c r="V96" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-79000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-26000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-77000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-31000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-196000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>120000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1720000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-160000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-174000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-216000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-99000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-73000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-161000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-116000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-205000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>351000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>618000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-181000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-332000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-221000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-860000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E101" s="3">
         <v>5000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-12000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>25000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>12000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-16000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>7000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-11000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-9000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-88000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>44000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>34000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>11000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>20000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>21000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-28000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-185000</v>
+      </c>
+      <c r="E102" s="3">
         <v>96000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>29000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>699000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>237000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-170000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1658000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>71000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-23000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>59000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-246000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-204000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-199000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-375000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-251000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>243000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>561000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>245000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-291000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>443000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-184000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APTV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APTV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>APTV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4134000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3654000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3807000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4023000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4212000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3668000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1960000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3226000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3596000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3559000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3627000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3575000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3636000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3485000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3684000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3630000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3440000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3148000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3153000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3143000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3193000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9081000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3543000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3138000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3205000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3296000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3427000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3021000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1943000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2725000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2909000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2881000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2956000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2962000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2965000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2833000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2957000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2947000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2730000</v>
-      </c>
-      <c r="T9" s="3">
-        <v>2498000</v>
       </c>
       <c r="U9" s="3">
         <v>2498000</v>
       </c>
       <c r="V9" s="3">
+        <v>2498000</v>
+      </c>
+      <c r="W9" s="3">
         <v>2544000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2325000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7202000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>591000</v>
+      </c>
+      <c r="E10" s="3">
         <v>516000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>602000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>727000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>785000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>647000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>17000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>501000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>687000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>678000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>671000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>613000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>671000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>652000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>727000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>683000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>710000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>650000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>655000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>599000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>868000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1879000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,76 +1143,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>15000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>24000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>18000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>76000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-1406000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>35000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>62000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>41000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>32000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>41000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>66000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>32000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>9000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>28000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>18000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>14000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>79000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>362000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>178000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1213,34 +1235,34 @@
         <v>37000</v>
       </c>
       <c r="H15" s="3">
+        <v>37000</v>
+      </c>
+      <c r="I15" s="3">
         <v>36000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>35000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>36000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>35000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>34000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>35000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>34000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>33000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>31000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>30000</v>
       </c>
       <c r="R15" s="3">
         <v>30000</v>
@@ -1249,7 +1271,7 @@
         <v>30000</v>
       </c>
       <c r="T15" s="3">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="U15" s="3">
         <v>29000</v>
@@ -1261,10 +1283,13 @@
         <v>29000</v>
       </c>
       <c r="X15" s="3">
+        <v>29000</v>
+      </c>
+      <c r="Y15" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4021000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3439000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3523000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3594000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3766000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3304000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2275000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1607000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3277000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3239000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3292000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3284000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3290000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3162000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3279000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3245000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3054000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2775000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2772000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2877000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2968000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8140000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E18" s="3">
         <v>215000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>284000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>429000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>446000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>364000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-315000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1619000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>319000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>320000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>335000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>291000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>346000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>323000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>405000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>385000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>386000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>373000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>381000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>266000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>225000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>941000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,13 +1480,14 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1000</v>
+        <v>16000</v>
       </c>
       <c r="E20" s="3">
         <v>1000</v>
@@ -1463,129 +1496,135 @@
         <v>1000</v>
       </c>
       <c r="G20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="3">
         <v>6000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-10000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>22000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-16000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>9000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>19000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-7000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-9000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>4000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-11000</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>319000</v>
+      </c>
+      <c r="E21" s="3">
         <v>409000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>482000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>623000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>660000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>557000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-133000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1798000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>487000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>505000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>529000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>486000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>532000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>490000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>570000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>559000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>541000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>402000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>553000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>445000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>177000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1467000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1593,203 +1632,212 @@
         <v>36000</v>
       </c>
       <c r="E22" s="3">
+        <v>36000</v>
+      </c>
+      <c r="F22" s="3">
         <v>38000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>40000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>39000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>38000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>44000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>43000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>41000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>42000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>43000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>38000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>37000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>34000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>36000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>34000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>37000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>35000</v>
       </c>
       <c r="U22" s="3">
         <v>35000</v>
       </c>
       <c r="V22" s="3">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="W22" s="3">
         <v>33000</v>
       </c>
       <c r="X22" s="3">
+        <v>33000</v>
+      </c>
+      <c r="Y22" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E23" s="3">
         <v>180000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>247000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>390000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>413000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>327000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-361000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1575000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>268000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>285000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>298000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>275000</v>
-      </c>
-      <c r="O23" s="3">
-        <v>293000</v>
       </c>
       <c r="P23" s="3">
         <v>293000</v>
       </c>
       <c r="Q23" s="3">
+        <v>293000</v>
+      </c>
+      <c r="R23" s="3">
         <v>378000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>370000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>350000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>331000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>337000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>237000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>181000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>819000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>25000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>28000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>48000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>55000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-14000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>30000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>38000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>31000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>33000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>36000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>67000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>58000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>59000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>135000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>31000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>38000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>19000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-4000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>171000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E26" s="3">
         <v>155000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>219000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>342000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>358000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>329000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-347000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1565000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>238000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>247000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>267000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>242000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>257000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>226000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>320000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>311000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>215000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>300000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>299000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>218000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>185000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>648000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E27" s="3">
         <v>86000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>147000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>279000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>283000</v>
       </c>
       <c r="H27" s="3">
         <v>283000</v>
       </c>
       <c r="I27" s="3">
+        <v>283000</v>
+      </c>
+      <c r="J27" s="3">
         <v>-369000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1572000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>230000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>246000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>274000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>240000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>253000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>221000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>316000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>307000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>232000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>236000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>272000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>195000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>204000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>630000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2086,11 +2146,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2098,38 +2158,41 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-6000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>1000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-25000</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>24000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>107000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>80000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>123000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>77000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>346000</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,13 +2330,16 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1000</v>
+        <v>-16000</v>
       </c>
       <c r="E32" s="3">
         <v>-1000</v>
@@ -2279,129 +2348,135 @@
         <v>-1000</v>
       </c>
       <c r="G32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-6000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>10000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-22000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>16000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-9000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-19000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>7000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>9000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-4000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>11000</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E33" s="3">
         <v>86000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>147000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>279000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>283000</v>
       </c>
       <c r="H33" s="3">
         <v>283000</v>
       </c>
       <c r="I33" s="3">
+        <v>283000</v>
+      </c>
+      <c r="J33" s="3">
         <v>-369000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1572000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>230000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>246000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>274000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>240000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>247000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>222000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>291000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>307000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>256000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>343000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>352000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>318000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>281000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E35" s="3">
         <v>86000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>147000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>279000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>283000</v>
       </c>
       <c r="H35" s="3">
         <v>283000</v>
       </c>
       <c r="I35" s="3">
+        <v>283000</v>
+      </c>
+      <c r="J35" s="3">
         <v>-369000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1572000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>230000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>246000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>274000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>240000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>247000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>222000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>291000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>307000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>256000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>343000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>352000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>318000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>281000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3139000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2741000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2926000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2830000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2821000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2122000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1885000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2055000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>412000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>341000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>365000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>321000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>567000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>771000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>970000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1345000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1596000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>557000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>792000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>547000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>737000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>395000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,324 +2886,339 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3032000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2954000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2928000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3048000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3016000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2920000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2091000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2308000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2829000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2935000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2982000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3008000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2795000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2893000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2944000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3174000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2785000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3534000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3418000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3410000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2306000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3243000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2014000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2119000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1801000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1525000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1297000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1229000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1212000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1363000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1286000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1345000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1304000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1326000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1277000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1358000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1265000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1202000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1083000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1642000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1485000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1375000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>859000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1375000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>251000</v>
+      </c>
+      <c r="E45" s="3">
         <v>290000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>398000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>331000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>318000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>224000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>464000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>792000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>764000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>203000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>164000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>138000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>182000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>161000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>205000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>177000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>977000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>154000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>155000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1517000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>134000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8436000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8104000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8055000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7801000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7465000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6589000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5412000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6190000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5319000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5385000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4854000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4819000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4777000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5204000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5340000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5926000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5641000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6710000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5849000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5487000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5419000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5147000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1941000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2023000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2095000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2128000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2178000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2221000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2238000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2284000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>311000</v>
-      </c>
-      <c r="L47" s="3">
-        <v>280000</v>
       </c>
       <c r="M47" s="3">
         <v>280000</v>
       </c>
       <c r="N47" s="3">
+        <v>280000</v>
+      </c>
+      <c r="O47" s="3">
         <v>262000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>215000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>198000</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>206000</v>
       </c>
       <c r="R47" s="3">
         <v>206000</v>
@@ -3123,158 +3227,167 @@
         <v>206000</v>
       </c>
       <c r="T47" s="3">
+        <v>206000</v>
+      </c>
+      <c r="U47" s="3">
         <v>320000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>278000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>256000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>136000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3677000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3574000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3571000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3523000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3681000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3598000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3573000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3642000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3722000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3556000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3681000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3652000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3179000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3056000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2972000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2890000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2804000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3819000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3671000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3569000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2325000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3522000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3475000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3477000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3568000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3536000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3671000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3574000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3505000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3521000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3593000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3264000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3822000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3837000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3904000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3378000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3402000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3184000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3163000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2883000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2860000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2801000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2650000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2905000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>478000</v>
+      </c>
+      <c r="E52" s="3">
         <v>473000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>491000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>488000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>527000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>462000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>552000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>530000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>514000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>454000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>471000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>449000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>405000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>491000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>396000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>354000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>355000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>434000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>398000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>384000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1762000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>331000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18007000</v>
+      </c>
+      <c r="E54" s="3">
         <v>17651000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17780000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17476000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17522000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16444000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>15280000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16167000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13459000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12939000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13108000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13019000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12480000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12327000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12316000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12560000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12169000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>14166000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>13056000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12497000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12292000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12122000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3794,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2953000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2544000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2574000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2624000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2571000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2186000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1432000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2243000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2463000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2232000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2284000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2340000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2334000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2254000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2307000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2282000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2227000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2745000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2603000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2549000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1820000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2544000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3742,339 +3875,354 @@
         <v>8000</v>
       </c>
       <c r="E58" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F58" s="3">
         <v>16000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>78000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>90000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>99000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>200000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>260000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>393000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>444000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>517000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>542000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>306000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>24000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>22000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>60000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>17000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>15000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>13000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>8000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>10000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1246000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1282000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1315000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1260000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1385000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1294000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1227000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1152000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1198000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1199000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1190000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1132000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1054000</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1109000</v>
       </c>
       <c r="Q59" s="3">
         <v>1109000</v>
       </c>
       <c r="R59" s="3">
+        <v>1109000</v>
+      </c>
+      <c r="S59" s="3">
         <v>1366000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1296000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1383000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1554000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1535000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2318000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1261000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4207000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3834000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3905000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3962000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4046000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3579000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2859000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3655000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4054000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3875000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3991000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4014000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3694000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3387000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3438000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3708000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3540000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4143000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4170000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4092000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4148000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3841000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4059000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4000000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4031000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3946000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4011000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3935000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3946000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5964000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3971000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3939000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3997000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3995000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4038000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4084000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4067000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4163000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4132000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4884000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4059000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3991000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3953000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4038000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1180000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1318000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1319000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1292000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1365000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1376000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1349000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1395000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1423000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1344000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1388000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1375000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1078000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1047000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1053000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>991000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>980000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1525000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1542000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1465000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1428000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1322000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9660000</v>
+      </c>
+      <c r="E66" s="3">
         <v>9357000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9458000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9399000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9617000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9081000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8338000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11196000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9640000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9374000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9589000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9601000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9021000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8719000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8793000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9093000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8870000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10963000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10161000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9918000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>9891000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>9570000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5077000</v>
+      </c>
+      <c r="E72" s="3">
         <v>5062000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4976000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4829000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4550000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4267000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3984000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4353000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2890000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2745000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2597000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2491000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2511000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2610000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2510000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2278000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2118000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2485000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2257000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2057000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1980000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1870000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8347000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8294000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8322000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8077000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7905000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7363000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6942000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4971000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3819000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3565000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3519000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3418000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3459000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3608000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3523000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3467000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3299000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3203000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2895000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2579000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2401000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2552000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E81" s="3">
         <v>86000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>147000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>279000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>283000</v>
       </c>
       <c r="H81" s="3">
         <v>283000</v>
       </c>
       <c r="I81" s="3">
+        <v>283000</v>
+      </c>
+      <c r="J81" s="3">
         <v>-369000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1572000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>230000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>246000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>274000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>240000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>247000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>222000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>291000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>307000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>256000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>343000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>352000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>318000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>281000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E83" s="3">
         <v>193000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>197000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>193000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>208000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>192000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>184000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>180000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>178000</v>
       </c>
       <c r="L83" s="3">
         <v>178000</v>
       </c>
       <c r="M83" s="3">
+        <v>178000</v>
+      </c>
+      <c r="N83" s="3">
         <v>188000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>173000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>202000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>163000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>156000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>155000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>183000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>181000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>175000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>178000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>526000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>669000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>297000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>252000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>799000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>559000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-106000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>161000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>703000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>325000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>512000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>84000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>757000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>171000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>545000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>155000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>428000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>151000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>599000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>290000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>683000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1258000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-181000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-169000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-127000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-134000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-95000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-117000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-167000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-205000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-162000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-168000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-216000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-235000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-185000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-212000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-206000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-243000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-218000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-87000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-178000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-215000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-871000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-259000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-156000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-180000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-134000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-94000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-138000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-187000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-207000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-479000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-163000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-234000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-235000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-879000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-208000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-716000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-245000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-570000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-219000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-193000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-270000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>9000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-587000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6042,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-56000</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>-56000</v>
@@ -6051,13 +6284,13 @@
         <v>-56000</v>
       </c>
       <c r="M96" s="3">
-        <v>-57000</v>
+        <v>-56000</v>
       </c>
       <c r="N96" s="3">
         <v>-57000</v>
       </c>
       <c r="O96" s="3">
-        <v>-58000</v>
+        <v>-57000</v>
       </c>
       <c r="P96" s="3">
         <v>-58000</v>
@@ -6066,28 +6299,31 @@
         <v>-58000</v>
       </c>
       <c r="R96" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-59000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-77000</v>
       </c>
       <c r="T96" s="3">
         <v>-77000</v>
       </c>
       <c r="U96" s="3">
-        <v>-78000</v>
+        <v>-77000</v>
       </c>
       <c r="V96" s="3">
         <v>-78000</v>
       </c>
       <c r="W96" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-79000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-25000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-26000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-77000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-31000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-196000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>120000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1720000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-160000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-174000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-216000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-99000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-73000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-161000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-116000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-205000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>351000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>618000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-181000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-332000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-221000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-860000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-8000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-12000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>25000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>12000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-16000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-11000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-9000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-88000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>44000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>34000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>11000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>20000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>21000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-28000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>346000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-185000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>96000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>29000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>699000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>237000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-170000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1658000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>71000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-23000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>59000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-246000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-204000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-199000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-375000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-251000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>243000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>561000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>245000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-291000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>443000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-184000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APTV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APTV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>APTV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4178000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4134000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3654000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3807000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4023000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4212000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3668000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1960000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3226000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3596000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3559000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3627000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3575000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3636000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3485000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3684000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3630000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3440000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3148000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3153000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3143000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3193000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9081000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3589000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3543000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3138000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3205000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3296000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3427000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3021000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1943000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2725000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2909000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2881000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2956000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2962000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2965000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2833000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2957000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2947000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2730000</v>
-      </c>
-      <c r="U9" s="3">
-        <v>2498000</v>
       </c>
       <c r="V9" s="3">
         <v>2498000</v>
       </c>
       <c r="W9" s="3">
+        <v>2498000</v>
+      </c>
+      <c r="X9" s="3">
         <v>2544000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2325000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>7202000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>589000</v>
+      </c>
+      <c r="E10" s="3">
         <v>591000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>516000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>602000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>727000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>785000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>647000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>17000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>501000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>687000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>678000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>671000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>613000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>671000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>652000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>727000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>683000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>710000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>650000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>655000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>599000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>868000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1879000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,79 +1163,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E14" s="3">
         <v>150000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>15000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>24000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>18000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>76000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1406000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>35000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>62000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>41000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>32000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>41000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>66000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>32000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>9000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>28000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>18000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>14000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>79000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>362000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>178000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,34 +1261,34 @@
         <v>37000</v>
       </c>
       <c r="I15" s="3">
+        <v>37000</v>
+      </c>
+      <c r="J15" s="3">
         <v>36000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>35000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>36000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>35000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>34000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>35000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>34000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>33000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>31000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>30000</v>
       </c>
       <c r="S15" s="3">
         <v>30000</v>
@@ -1274,7 +1297,7 @@
         <v>30000</v>
       </c>
       <c r="U15" s="3">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="V15" s="3">
         <v>29000</v>
@@ -1286,10 +1309,13 @@
         <v>29000</v>
       </c>
       <c r="Y15" s="3">
+        <v>29000</v>
+      </c>
+      <c r="Z15" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3922000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4021000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3439000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3523000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3594000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3766000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3304000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2275000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1607000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3277000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3239000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3292000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3284000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3290000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3162000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3279000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3245000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3054000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2775000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2772000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2877000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2968000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8140000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>256000</v>
+      </c>
+      <c r="E18" s="3">
         <v>113000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>215000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>284000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>429000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>446000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>364000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-315000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1619000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>319000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>320000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>335000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>291000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>346000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>323000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>405000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>385000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>386000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>373000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>381000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>266000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>225000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>941000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,16 +1514,17 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="E20" s="3">
         <v>16000</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1000</v>
       </c>
       <c r="F20" s="3">
         <v>1000</v>
@@ -1499,345 +1533,360 @@
         <v>1000</v>
       </c>
       <c r="H20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="3">
         <v>6000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-10000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>22000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>9000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>19000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-7000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-9000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>4000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-11000</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>408000</v>
+      </c>
+      <c r="E21" s="3">
         <v>319000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>409000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>482000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>623000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>660000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>557000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-133000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1798000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>487000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>505000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>529000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>486000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>532000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>490000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>570000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>559000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>541000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>402000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>553000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>445000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>177000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1467000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>36000</v>
+        <v>43000</v>
       </c>
       <c r="E22" s="3">
         <v>36000</v>
       </c>
       <c r="F22" s="3">
+        <v>36000</v>
+      </c>
+      <c r="G22" s="3">
         <v>38000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>40000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>39000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>38000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>44000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>43000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>41000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>42000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>43000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>38000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>37000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>34000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>36000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>34000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>37000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>35000</v>
       </c>
       <c r="V22" s="3">
         <v>35000</v>
       </c>
       <c r="W22" s="3">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="X22" s="3">
         <v>33000</v>
       </c>
       <c r="Y22" s="3">
+        <v>33000</v>
+      </c>
+      <c r="Z22" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E23" s="3">
         <v>93000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>180000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>247000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>390000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>413000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>327000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-361000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1575000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>268000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>285000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>298000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>275000</v>
-      </c>
-      <c r="P23" s="3">
-        <v>293000</v>
       </c>
       <c r="Q23" s="3">
         <v>293000</v>
       </c>
       <c r="R23" s="3">
+        <v>293000</v>
+      </c>
+      <c r="S23" s="3">
         <v>378000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>370000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>350000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>331000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>337000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>237000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>181000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>819000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>25000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>28000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>48000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>55000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-14000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>30000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>38000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>31000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>33000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>36000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>67000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>58000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>59000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>135000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>31000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>38000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>19000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>171000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E26" s="3">
         <v>93000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>155000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>219000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>342000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>358000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>329000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-347000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1565000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>238000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>247000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>267000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>242000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>257000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>226000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>320000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>311000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>215000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>300000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>299000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>218000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>185000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>648000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E27" s="3">
         <v>15000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>86000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>147000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>279000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>283000</v>
       </c>
       <c r="I27" s="3">
         <v>283000</v>
       </c>
       <c r="J27" s="3">
+        <v>283000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-369000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1572000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>230000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>246000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>274000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>240000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>253000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>221000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>316000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>307000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>232000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>236000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>272000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>195000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>204000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>630000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,40 +2178,43 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2161,38 +2222,41 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>1000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-25000</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>24000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>107000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>80000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>123000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>77000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>346000</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,16 +2400,19 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-16000</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-1000</v>
       </c>
       <c r="F32" s="3">
         <v>-1000</v>
@@ -2351,132 +2421,138 @@
         <v>-1000</v>
       </c>
       <c r="H32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-6000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>10000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-22000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>16000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-9000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-19000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>7000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>9000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-4000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>11000</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E33" s="3">
         <v>15000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>86000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>147000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>279000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>283000</v>
       </c>
       <c r="I33" s="3">
         <v>283000</v>
       </c>
       <c r="J33" s="3">
+        <v>283000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-369000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1572000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>230000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>246000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>274000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>240000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>247000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>222000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>291000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>307000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>256000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>343000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>352000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>318000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>281000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E35" s="3">
         <v>15000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>86000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>147000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>279000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>283000</v>
       </c>
       <c r="I35" s="3">
         <v>283000</v>
       </c>
       <c r="J35" s="3">
+        <v>283000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-369000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1572000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>230000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>246000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>274000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>240000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>247000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>222000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>291000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>307000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>256000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>343000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>352000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>318000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>281000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4877000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3139000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2741000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2926000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2830000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2821000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2122000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1885000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2055000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>412000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>341000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>365000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>321000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>567000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>771000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>970000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1345000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1596000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>557000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>792000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>547000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>737000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>395000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,339 +2979,354 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3313000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3032000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2954000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2928000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3048000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3016000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2920000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2091000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2308000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2829000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2935000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2982000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3008000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2795000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2893000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2944000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3174000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2785000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3534000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3418000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3410000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2306000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3243000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2312000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2014000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2119000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1801000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1525000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1297000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1229000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1212000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1363000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1286000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1345000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1304000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1326000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1277000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1358000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1265000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1202000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1083000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1642000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1485000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1375000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>859000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1375000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>272000</v>
+      </c>
+      <c r="E45" s="3">
         <v>251000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>290000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>398000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>331000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>318000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>224000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>464000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>792000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>764000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>203000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>164000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>138000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>182000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>161000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>205000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>177000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>977000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>154000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>155000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1517000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>134000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10774000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8436000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8104000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8055000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7801000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7465000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6589000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5412000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6190000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5319000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5385000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4854000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4819000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4777000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5204000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5340000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5926000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5641000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6710000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5849000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5487000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5419000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5147000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2061000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1941000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2023000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2095000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2128000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2178000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2221000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2238000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2284000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>311000</v>
-      </c>
-      <c r="M47" s="3">
-        <v>280000</v>
       </c>
       <c r="N47" s="3">
         <v>280000</v>
       </c>
       <c r="O47" s="3">
+        <v>280000</v>
+      </c>
+      <c r="P47" s="3">
         <v>262000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>215000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>198000</v>
-      </c>
-      <c r="R47" s="3">
-        <v>206000</v>
       </c>
       <c r="S47" s="3">
         <v>206000</v>
@@ -3230,164 +3335,173 @@
         <v>206000</v>
       </c>
       <c r="U47" s="3">
+        <v>206000</v>
+      </c>
+      <c r="V47" s="3">
         <v>320000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>278000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>256000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>136000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3672000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3677000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3574000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3571000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3523000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3681000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3598000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3573000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3642000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3722000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3556000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3681000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3652000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3179000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3056000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2972000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2890000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2804000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3819000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3671000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3569000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2325000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3522000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3403000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3475000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3477000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3568000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3536000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3671000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3574000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3505000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3521000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3593000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3264000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3822000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3837000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3904000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3378000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3402000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3184000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3163000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2883000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2860000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2801000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2650000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2905000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>494000</v>
+      </c>
+      <c r="E52" s="3">
         <v>478000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>473000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>491000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>488000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>527000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>462000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>552000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>530000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>514000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>454000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>471000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>449000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>405000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>491000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>396000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>354000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>355000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>434000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>398000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>384000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1762000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>331000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20404000</v>
+      </c>
+      <c r="E54" s="3">
         <v>18007000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17651000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17780000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17476000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17522000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16444000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>15280000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16167000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13459000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12939000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13108000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13019000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12480000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12327000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12316000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12560000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12169000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>14166000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>13056000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12497000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12292000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12122000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2910000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2953000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2544000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2574000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2624000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2571000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2186000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1432000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2243000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2463000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2232000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2284000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2340000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2334000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2254000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2307000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2282000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2227000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2745000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2603000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2549000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1820000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2544000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8000</v>
+        <v>35000</v>
       </c>
       <c r="E58" s="3">
         <v>8000</v>
       </c>
       <c r="F58" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G58" s="3">
         <v>16000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>78000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>90000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>99000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>200000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>260000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>393000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>444000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>517000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>542000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>306000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>24000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>22000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>60000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>17000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>15000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>13000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>8000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>10000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1201000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1246000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1282000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1315000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1260000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1385000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1294000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1227000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1152000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1198000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1199000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1190000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1132000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1054000</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1109000</v>
       </c>
       <c r="R59" s="3">
         <v>1109000</v>
       </c>
       <c r="S59" s="3">
+        <v>1109000</v>
+      </c>
+      <c r="T59" s="3">
         <v>1366000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1296000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1383000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1554000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1535000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2318000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1261000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4146000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4207000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3834000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3905000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3962000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4046000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3579000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2859000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3655000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4054000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3875000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3991000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4014000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3694000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3387000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3438000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3708000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3540000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4143000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4170000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4092000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4148000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3841000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6503000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4059000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4000000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4031000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3946000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4011000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3935000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3946000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5964000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3971000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3939000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3997000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3995000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4038000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4084000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4067000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4163000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4132000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4884000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4059000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3991000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3953000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4038000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1155000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1180000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1318000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1319000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1292000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1365000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1376000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1349000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1395000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1423000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1344000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1388000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1375000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1078000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1047000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1053000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>991000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>980000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1525000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1542000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1465000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1428000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1322000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12008000</v>
+      </c>
+      <c r="E66" s="3">
         <v>9660000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9357000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9458000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9399000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9617000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9081000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8338000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11196000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9640000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9374000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9589000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9601000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9021000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8719000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8793000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9093000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8870000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10963000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10161000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>9918000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>9891000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>9570000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5150000</v>
+      </c>
+      <c r="E72" s="3">
         <v>5077000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5062000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4976000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4829000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4550000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4267000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3984000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4353000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2890000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2745000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2597000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2491000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2511000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2610000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2510000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2278000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2118000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2485000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2257000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2057000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1980000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1870000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8396000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8347000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8294000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8322000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8077000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7905000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7363000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6942000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4971000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3819000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3565000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3519000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3418000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3459000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3608000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3523000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3467000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3299000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3203000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2895000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2579000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2401000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2552000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E81" s="3">
         <v>15000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>86000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>147000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>279000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>283000</v>
       </c>
       <c r="I81" s="3">
         <v>283000</v>
       </c>
       <c r="J81" s="3">
+        <v>283000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-369000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1572000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>230000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>246000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>274000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>240000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>247000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>222000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>291000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>307000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>256000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>343000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>352000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>318000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>281000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>191000</v>
+      </c>
+      <c r="E83" s="3">
         <v>190000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>193000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>197000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>193000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>208000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>192000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>184000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>180000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>178000</v>
       </c>
       <c r="M83" s="3">
         <v>178000</v>
       </c>
       <c r="N83" s="3">
+        <v>178000</v>
+      </c>
+      <c r="O83" s="3">
         <v>188000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>173000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>202000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>163000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>156000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>155000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>7000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>183000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>181000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>175000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>178000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>526000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-202000</v>
+      </c>
+      <c r="E89" s="3">
         <v>669000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>297000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>252000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>799000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>559000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-106000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>161000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>703000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>325000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>512000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>84000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>757000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>171000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>545000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>155000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>428000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>151000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>599000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>290000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>683000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1258000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-247000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-181000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-169000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-127000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-134000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-95000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-117000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-167000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-205000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-162000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-168000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-216000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-235000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-185000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-212000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-206000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-243000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-218000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-87000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-178000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-215000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-871000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-465000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-259000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-156000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-180000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-134000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-94000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-138000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-187000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-207000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-479000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-163000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-234000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-235000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-879000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-208000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-716000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-245000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-570000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-219000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-193000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-270000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>9000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-587000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6278,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
-        <v>-56000</v>
+        <v>0</v>
       </c>
       <c r="L96" s="3">
         <v>-56000</v>
@@ -6287,13 +6521,13 @@
         <v>-56000</v>
       </c>
       <c r="N96" s="3">
-        <v>-57000</v>
+        <v>-56000</v>
       </c>
       <c r="O96" s="3">
         <v>-57000</v>
       </c>
       <c r="P96" s="3">
-        <v>-58000</v>
+        <v>-57000</v>
       </c>
       <c r="Q96" s="3">
         <v>-58000</v>
@@ -6302,28 +6536,31 @@
         <v>-58000</v>
       </c>
       <c r="S96" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-59000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-77000</v>
       </c>
       <c r="U96" s="3">
         <v>-77000</v>
       </c>
       <c r="V96" s="3">
-        <v>-78000</v>
+        <v>-77000</v>
       </c>
       <c r="W96" s="3">
         <v>-78000</v>
       </c>
       <c r="X96" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-79000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2411000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-63000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-25000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-26000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-77000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-31000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-196000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>120000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1720000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-160000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-174000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-216000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-99000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-73000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-161000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-116000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-205000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>351000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>618000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-181000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-332000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-221000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-860000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-8000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>5000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-12000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>25000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>12000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-16000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>7000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-11000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-88000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>44000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>34000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>11000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>20000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>21000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-28000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1738000</v>
+      </c>
+      <c r="E102" s="3">
         <v>346000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-185000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>96000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>29000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>699000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>237000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-170000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1658000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>71000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-23000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>59000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-246000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-204000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-199000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-375000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-251000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>243000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>561000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>245000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-291000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>443000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-184000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APTV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APTV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>APTV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4057000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4178000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4134000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3654000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3807000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4023000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4212000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3668000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1960000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3226000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3596000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3559000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3627000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3575000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3636000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3485000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3684000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3630000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3440000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3148000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3153000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3143000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3193000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9081000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3617000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3589000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3543000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3138000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3205000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3296000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3427000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3021000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1943000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2725000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2909000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2881000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2956000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2962000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2965000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2833000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2957000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2947000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2730000</v>
-      </c>
-      <c r="V9" s="3">
-        <v>2498000</v>
       </c>
       <c r="W9" s="3">
         <v>2498000</v>
       </c>
       <c r="X9" s="3">
+        <v>2498000</v>
+      </c>
+      <c r="Y9" s="3">
         <v>2544000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2325000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>7202000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>440000</v>
+      </c>
+      <c r="E10" s="3">
         <v>589000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>591000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>516000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>602000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>727000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>785000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>647000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>501000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>687000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>678000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>671000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>613000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>671000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>652000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>727000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>683000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>710000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>650000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>655000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>599000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>868000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1879000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,87 +1183,93 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E14" s="3">
         <v>22000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>150000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>15000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>24000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>18000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>76000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1406000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>35000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>62000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>41000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>32000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>41000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>66000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>32000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>9000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>28000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>18000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>14000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>79000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>362000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>178000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="E15" s="3">
         <v>37000</v>
@@ -1264,34 +1287,34 @@
         <v>37000</v>
       </c>
       <c r="J15" s="3">
+        <v>37000</v>
+      </c>
+      <c r="K15" s="3">
         <v>36000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>35000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>36000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>35000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>34000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>35000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>34000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>33000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>31000</v>
-      </c>
-      <c r="S15" s="3">
-        <v>30000</v>
       </c>
       <c r="T15" s="3">
         <v>30000</v>
@@ -1300,7 +1323,7 @@
         <v>30000</v>
       </c>
       <c r="V15" s="3">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="W15" s="3">
         <v>29000</v>
@@ -1312,10 +1335,13 @@
         <v>29000</v>
       </c>
       <c r="Z15" s="3">
+        <v>29000</v>
+      </c>
+      <c r="AA15" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3962000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3922000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4021000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3439000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3523000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3594000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3766000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3304000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2275000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1607000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3277000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3239000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3292000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3284000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3290000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3162000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3279000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3245000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3054000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2775000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2772000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2877000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2968000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8140000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E18" s="3">
         <v>256000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>113000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>215000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>284000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>429000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>446000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>364000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-315000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1619000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>319000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>320000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>335000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>291000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>346000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>323000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>405000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>385000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>386000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>373000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>381000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>266000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>225000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>941000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,19 +1548,20 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-39000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>16000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1000</v>
       </c>
       <c r="G20" s="3">
         <v>1000</v>
@@ -1536,357 +1570,372 @@
         <v>1000</v>
       </c>
       <c r="I20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J20" s="3">
         <v>6000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-10000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>22000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-16000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>9000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>19000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-7000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-9000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>4000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-11000</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E21" s="3">
         <v>408000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>319000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>409000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>482000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>623000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>660000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>557000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-133000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1798000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>487000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>505000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>529000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>486000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>532000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>490000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>570000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>559000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>541000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>402000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>553000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>445000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>177000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1467000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E22" s="3">
         <v>43000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>36000</v>
       </c>
       <c r="F22" s="3">
         <v>36000</v>
       </c>
       <c r="G22" s="3">
+        <v>36000</v>
+      </c>
+      <c r="H22" s="3">
         <v>38000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>40000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>39000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>38000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>44000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>43000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>41000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>42000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>43000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>38000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>37000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>34000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>36000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>34000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>37000</v>
-      </c>
-      <c r="V22" s="3">
-        <v>35000</v>
       </c>
       <c r="W22" s="3">
         <v>35000</v>
       </c>
       <c r="X22" s="3">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="Y22" s="3">
         <v>33000</v>
       </c>
       <c r="Z22" s="3">
+        <v>33000</v>
+      </c>
+      <c r="AA22" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E23" s="3">
         <v>174000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>93000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>180000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>247000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>390000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>413000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>327000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-361000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1575000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>268000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>285000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>298000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>275000</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>293000</v>
       </c>
       <c r="R23" s="3">
         <v>293000</v>
       </c>
       <c r="S23" s="3">
+        <v>293000</v>
+      </c>
+      <c r="T23" s="3">
         <v>378000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>370000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>350000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>331000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>337000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>237000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>181000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>819000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E24" s="3">
         <v>21000</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>25000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>28000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>48000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>55000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-14000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>30000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>38000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>31000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>33000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>36000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>67000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>58000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>59000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>135000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>31000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>38000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>19000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>171000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>153000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>93000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>155000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>219000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>342000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>358000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>329000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-347000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1565000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>238000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>247000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>267000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>242000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>257000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>226000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>320000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>311000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>215000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>300000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>299000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>218000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>185000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>648000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E27" s="3">
         <v>73000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>15000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>86000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>147000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>279000</v>
-      </c>
-      <c r="I27" s="3">
-        <v>283000</v>
       </c>
       <c r="J27" s="3">
         <v>283000</v>
       </c>
       <c r="K27" s="3">
+        <v>283000</v>
+      </c>
+      <c r="L27" s="3">
         <v>-369000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1572000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>230000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>246000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>274000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>240000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>253000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>221000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>316000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>307000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>232000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>236000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>272000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>195000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>204000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>630000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2207,17 +2268,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2225,38 +2286,41 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-6000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>1000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-25000</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>24000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>107000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>80000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>123000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>77000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>346000</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,19 +2470,22 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E32" s="3">
         <v>39000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-16000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-1000</v>
       </c>
       <c r="G32" s="3">
         <v>-1000</v>
@@ -2424,135 +2494,141 @@
         <v>-1000</v>
       </c>
       <c r="I32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-6000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>10000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>16000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-9000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-19000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>7000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>9000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>11000</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E33" s="3">
         <v>73000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>15000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>86000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>147000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>279000</v>
-      </c>
-      <c r="I33" s="3">
-        <v>283000</v>
       </c>
       <c r="J33" s="3">
         <v>283000</v>
       </c>
       <c r="K33" s="3">
+        <v>283000</v>
+      </c>
+      <c r="L33" s="3">
         <v>-369000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1572000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>230000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>246000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>274000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>240000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>247000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>222000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>291000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>307000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>256000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>343000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>352000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>318000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>281000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E35" s="3">
         <v>73000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>15000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>86000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>147000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>279000</v>
-      </c>
-      <c r="I35" s="3">
-        <v>283000</v>
       </c>
       <c r="J35" s="3">
         <v>283000</v>
       </c>
       <c r="K35" s="3">
+        <v>283000</v>
+      </c>
+      <c r="L35" s="3">
         <v>-369000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1572000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>230000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>246000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>274000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>240000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>247000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>222000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>291000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>307000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>256000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>343000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>352000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>318000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>281000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4670000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4877000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3139000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2741000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2926000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2830000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2821000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2122000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1885000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2055000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>412000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>341000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>365000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>321000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>567000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>771000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>970000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1345000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1596000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>557000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>792000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>547000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>737000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>395000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,354 +3072,369 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3304000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3313000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3032000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2954000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2928000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3048000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3016000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2920000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2091000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2308000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2829000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2935000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2982000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3008000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2795000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2893000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2944000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3174000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2785000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3534000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3418000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3410000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2306000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3243000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2362000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2312000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2014000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2119000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1801000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1525000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1297000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1229000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1212000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1363000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1286000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1345000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1304000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1326000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1277000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1358000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1265000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1202000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1083000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1642000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1485000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1375000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>859000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1375000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>222000</v>
+      </c>
+      <c r="E45" s="3">
         <v>272000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>251000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>290000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>398000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>331000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>318000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>224000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>464000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>792000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>764000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>203000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>164000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>138000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>182000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>161000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>205000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>177000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>977000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>154000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>155000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1517000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>134000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10558000</v>
+      </c>
+      <c r="E46" s="3">
         <v>10774000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8436000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8104000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8055000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7801000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7465000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6589000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5412000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6190000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5319000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5385000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4854000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4819000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4777000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5204000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5340000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5926000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5641000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6710000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5849000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5487000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5419000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5147000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1982000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2061000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1941000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2023000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2095000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2128000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2178000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2221000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2238000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2284000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>311000</v>
-      </c>
-      <c r="N47" s="3">
-        <v>280000</v>
       </c>
       <c r="O47" s="3">
         <v>280000</v>
       </c>
       <c r="P47" s="3">
+        <v>280000</v>
+      </c>
+      <c r="Q47" s="3">
         <v>262000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>215000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>198000</v>
-      </c>
-      <c r="S47" s="3">
-        <v>206000</v>
       </c>
       <c r="T47" s="3">
         <v>206000</v>
@@ -3338,170 +3443,179 @@
         <v>206000</v>
       </c>
       <c r="V47" s="3">
+        <v>206000</v>
+      </c>
+      <c r="W47" s="3">
         <v>320000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>278000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>256000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>136000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3625000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3672000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3677000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3574000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3571000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3523000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3681000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3598000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3573000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3642000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3722000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3556000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3681000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3652000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3179000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3056000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2972000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2890000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2804000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3819000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3671000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3569000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2325000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3522000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3268000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3403000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3475000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3477000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3568000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3536000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3671000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3574000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3505000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3521000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3593000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3264000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3822000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3837000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3904000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3378000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3402000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3184000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3163000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2883000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2860000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2801000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2650000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2905000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>475000</v>
+      </c>
+      <c r="E52" s="3">
         <v>494000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>478000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>473000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>491000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>488000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>527000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>462000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>552000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>530000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>514000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>454000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>471000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>449000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>405000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>491000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>396000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>354000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>355000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>434000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>398000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>384000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1762000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>331000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19908000</v>
+      </c>
+      <c r="E54" s="3">
         <v>20404000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>18007000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17651000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17780000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17476000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17522000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16444000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15280000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16167000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13459000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12939000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13108000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13019000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12480000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12327000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12316000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12560000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12169000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>14166000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>13056000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12497000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12292000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>12122000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2749000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2910000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2953000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2544000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2574000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2624000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2571000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2186000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1432000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2243000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2463000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2232000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2284000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2340000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2334000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2254000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2307000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2282000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2227000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2745000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2603000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2549000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1820000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2544000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E58" s="3">
         <v>35000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>8000</v>
       </c>
       <c r="F58" s="3">
         <v>8000</v>
       </c>
       <c r="G58" s="3">
+        <v>8000</v>
+      </c>
+      <c r="H58" s="3">
         <v>16000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>78000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>90000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>99000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>200000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>260000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>393000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>444000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>517000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>542000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>306000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>24000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>22000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>60000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>17000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>15000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>13000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>8000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>10000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1253000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1201000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1246000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1282000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1315000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1260000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1385000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1294000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1227000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1152000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1198000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1199000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1190000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1132000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1054000</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1109000</v>
       </c>
       <c r="S59" s="3">
         <v>1109000</v>
       </c>
       <c r="T59" s="3">
+        <v>1109000</v>
+      </c>
+      <c r="U59" s="3">
         <v>1366000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1296000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1383000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1554000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1535000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2318000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1261000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4019000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4146000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4207000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3834000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3905000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3962000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4046000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3579000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2859000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3655000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4054000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3875000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3991000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4014000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3694000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3387000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3438000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3708000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3540000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4143000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4170000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4092000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4148000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3841000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6433000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6503000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4059000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4000000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4031000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3946000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4011000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3935000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3946000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5964000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3971000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3939000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3997000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3995000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4038000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4084000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4067000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4163000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4132000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4884000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4059000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3991000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3953000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4038000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1174000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1155000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1180000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1318000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1319000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1292000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1365000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1376000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1349000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1395000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1423000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1344000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1388000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1375000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1078000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1047000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1053000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>991000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>980000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1525000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1542000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1465000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1428000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1322000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11809000</v>
+      </c>
+      <c r="E66" s="3">
         <v>12008000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9660000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9357000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9458000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9399000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9617000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9081000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8338000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11196000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9640000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9374000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9589000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9601000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9021000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8719000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8793000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9093000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8870000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10963000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10161000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>9918000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>9891000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>9570000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5089000</v>
+      </c>
+      <c r="E72" s="3">
         <v>5150000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5077000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5062000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4976000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4829000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4550000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4267000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3984000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4353000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2890000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2745000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2597000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2491000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2511000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2610000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2510000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2278000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2118000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2485000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2257000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2057000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1980000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1870000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8099000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8396000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8347000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8294000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8322000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8077000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7905000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7363000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6942000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4971000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3819000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3565000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3519000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3418000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3459000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3608000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3523000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3467000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3299000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3203000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2895000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2579000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2401000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2552000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E81" s="3">
         <v>73000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>15000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>86000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>147000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>279000</v>
-      </c>
-      <c r="I81" s="3">
-        <v>283000</v>
       </c>
       <c r="J81" s="3">
         <v>283000</v>
       </c>
       <c r="K81" s="3">
+        <v>283000</v>
+      </c>
+      <c r="L81" s="3">
         <v>-369000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1572000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>230000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>246000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>274000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>240000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>247000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>222000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>291000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>307000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>256000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>343000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>352000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>318000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>281000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E83" s="3">
         <v>191000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>190000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>193000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>197000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>193000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>208000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>192000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>184000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>180000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>178000</v>
       </c>
       <c r="N83" s="3">
         <v>178000</v>
       </c>
       <c r="O83" s="3">
+        <v>178000</v>
+      </c>
+      <c r="P83" s="3">
         <v>188000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>173000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>202000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>163000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>156000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>155000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>7000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>183000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>181000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>175000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>178000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>526000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-202000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>669000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>297000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>252000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>799000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>559000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-106000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>161000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>703000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>325000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>512000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>84000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>757000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>171000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>545000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>155000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>428000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>151000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>599000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>290000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>683000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1258000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-207000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-247000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-181000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-169000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-127000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-134000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-95000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-117000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-167000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-205000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-162000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-168000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-216000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-235000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-185000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-212000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-206000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-243000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-218000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-87000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-178000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-215000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-871000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-240000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-465000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-259000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-156000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-180000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-134000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-94000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-138000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-187000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-207000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-479000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-163000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-234000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-235000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-879000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-208000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-716000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-245000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-570000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-219000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-193000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-270000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>9000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-587000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6515,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
-        <v>-56000</v>
+        <v>0</v>
       </c>
       <c r="M96" s="3">
         <v>-56000</v>
@@ -6524,13 +6758,13 @@
         <v>-56000</v>
       </c>
       <c r="O96" s="3">
-        <v>-57000</v>
+        <v>-56000</v>
       </c>
       <c r="P96" s="3">
         <v>-57000</v>
       </c>
       <c r="Q96" s="3">
-        <v>-58000</v>
+        <v>-57000</v>
       </c>
       <c r="R96" s="3">
         <v>-58000</v>
@@ -6539,28 +6773,31 @@
         <v>-58000</v>
       </c>
       <c r="T96" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-59000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-77000</v>
       </c>
       <c r="V96" s="3">
         <v>-77000</v>
       </c>
       <c r="W96" s="3">
-        <v>-78000</v>
+        <v>-77000</v>
       </c>
       <c r="X96" s="3">
         <v>-78000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-79000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2411000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-63000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-25000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-26000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-77000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-31000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-196000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>120000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1720000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-160000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-174000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-216000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-99000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-73000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-161000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-116000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-205000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>351000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>618000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-181000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-332000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-221000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-860000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-8000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>5000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-12000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>25000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>12000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-16000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>7000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-11000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-9000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-88000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>44000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>34000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>11000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>20000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>21000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-28000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-181000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1738000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>346000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-185000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>96000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>29000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>699000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>237000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-170000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1658000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>71000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-23000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>59000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-246000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-204000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-199000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-375000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-251000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>243000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>561000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>245000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-291000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>443000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-184000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APTV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APTV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>APTV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4614000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4057000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4178000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4134000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3654000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3807000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4023000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4212000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3668000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1960000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3226000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3596000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3559000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3627000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3575000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3636000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3485000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3684000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3630000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3440000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3148000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3153000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3143000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3193000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>9081000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3821000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3617000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3589000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3543000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3138000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3205000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3296000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3427000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3021000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1943000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2725000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2909000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2881000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2956000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2962000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2965000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2833000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2957000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2947000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2730000</v>
-      </c>
-      <c r="W9" s="3">
-        <v>2498000</v>
       </c>
       <c r="X9" s="3">
         <v>2498000</v>
       </c>
       <c r="Y9" s="3">
+        <v>2498000</v>
+      </c>
+      <c r="Z9" s="3">
         <v>2544000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2325000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>7202000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>793000</v>
+      </c>
+      <c r="E10" s="3">
         <v>440000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>589000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>591000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>516000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>602000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>727000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>785000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>647000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>17000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>501000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>687000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>678000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>671000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>613000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>671000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>652000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>727000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>683000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>710000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>650000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>655000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>599000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>868000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1879000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,93 +1203,99 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E14" s="3">
         <v>21000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>22000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>150000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>15000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>24000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>18000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>76000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-1406000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>35000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>62000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>41000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>32000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>41000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>66000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>32000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>9000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>28000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>18000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>14000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>79000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>362000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>178000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E15" s="3">
         <v>38000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>37000</v>
       </c>
       <c r="F15" s="3">
         <v>37000</v>
@@ -1290,34 +1313,34 @@
         <v>37000</v>
       </c>
       <c r="K15" s="3">
+        <v>37000</v>
+      </c>
+      <c r="L15" s="3">
         <v>36000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>35000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>36000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>35000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>34000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>35000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>34000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>33000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>31000</v>
-      </c>
-      <c r="T15" s="3">
-        <v>30000</v>
       </c>
       <c r="U15" s="3">
         <v>30000</v>
@@ -1326,7 +1349,7 @@
         <v>30000</v>
       </c>
       <c r="W15" s="3">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="X15" s="3">
         <v>29000</v>
@@ -1338,10 +1361,13 @@
         <v>29000</v>
       </c>
       <c r="AA15" s="3">
+        <v>29000</v>
+      </c>
+      <c r="AB15" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4150000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3962000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3922000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4021000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3439000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3523000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3594000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3766000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3304000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2275000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1607000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3277000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3239000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3292000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3284000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3290000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3162000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3279000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3245000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3054000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2775000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2772000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2877000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2968000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>8140000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>464000</v>
+      </c>
+      <c r="E18" s="3">
         <v>95000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>256000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>113000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>215000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>284000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>429000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>446000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>364000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-315000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1619000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>319000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>320000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>335000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>291000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>346000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>323000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>405000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>385000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>386000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>373000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>381000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>266000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>225000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>941000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,22 +1582,23 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-23000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-39000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>16000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1000</v>
       </c>
       <c r="H20" s="3">
         <v>1000</v>
@@ -1573,369 +1607,384 @@
         <v>1000</v>
       </c>
       <c r="J20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K20" s="3">
         <v>6000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-10000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>22000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-16000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>9000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>19000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-7000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>4000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-11000</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>680000</v>
+      </c>
+      <c r="E21" s="3">
         <v>265000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>408000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>319000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>409000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>482000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>623000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>660000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>557000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-133000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1798000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>487000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>505000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>529000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>486000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>532000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>490000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>570000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>559000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>541000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>402000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>553000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>445000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>177000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1467000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E22" s="3">
         <v>56000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>43000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>36000</v>
       </c>
       <c r="G22" s="3">
         <v>36000</v>
       </c>
       <c r="H22" s="3">
+        <v>36000</v>
+      </c>
+      <c r="I22" s="3">
         <v>38000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>40000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>39000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>38000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>44000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>43000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>41000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>42000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>43000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>38000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>37000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>34000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>36000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>34000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>37000</v>
-      </c>
-      <c r="W22" s="3">
-        <v>35000</v>
       </c>
       <c r="X22" s="3">
         <v>35000</v>
       </c>
       <c r="Y22" s="3">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="Z22" s="3">
         <v>33000</v>
       </c>
       <c r="AA22" s="3">
+        <v>33000</v>
+      </c>
+      <c r="AB22" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>432000</v>
+      </c>
+      <c r="E23" s="3">
         <v>16000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>174000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>93000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>180000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>247000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>390000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>413000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>327000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-361000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1575000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>268000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>285000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>298000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>275000</v>
-      </c>
-      <c r="R23" s="3">
-        <v>293000</v>
       </c>
       <c r="S23" s="3">
         <v>293000</v>
       </c>
       <c r="T23" s="3">
+        <v>293000</v>
+      </c>
+      <c r="U23" s="3">
         <v>378000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>370000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>350000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>331000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>337000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>237000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>181000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>819000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E24" s="3">
         <v>16000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>21000</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>25000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>28000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>48000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>55000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-14000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>30000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>38000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>31000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>33000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>36000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>67000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>58000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>59000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>135000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>31000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>38000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>19000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>171000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>373000</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>153000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>93000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>155000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>219000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>342000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>358000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>329000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-347000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1565000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>238000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>247000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>267000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>242000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>257000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>226000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>320000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>311000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>215000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>300000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>299000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>218000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>185000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>648000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>286000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-61000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>73000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>15000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>86000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>147000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>279000</v>
-      </c>
-      <c r="J27" s="3">
-        <v>283000</v>
       </c>
       <c r="K27" s="3">
         <v>283000</v>
       </c>
       <c r="L27" s="3">
+        <v>283000</v>
+      </c>
+      <c r="M27" s="3">
         <v>-369000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1572000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>230000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>246000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>274000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>240000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>253000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>221000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>316000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>307000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>232000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>236000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>272000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>195000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>204000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>630000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2271,17 +2332,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2289,38 +2350,41 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-6000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>1000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-25000</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>24000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>107000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>80000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>123000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>77000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>346000</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,22 +2540,25 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E32" s="3">
         <v>23000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>39000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-16000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-1000</v>
       </c>
       <c r="H32" s="3">
         <v>-1000</v>
@@ -2497,138 +2567,144 @@
         <v>-1000</v>
       </c>
       <c r="J32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-6000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>10000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-22000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>16000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-9000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-19000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>7000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>9000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>11000</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>286000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-61000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>73000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>15000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>86000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>147000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>279000</v>
-      </c>
-      <c r="J33" s="3">
-        <v>283000</v>
       </c>
       <c r="K33" s="3">
         <v>283000</v>
       </c>
       <c r="L33" s="3">
+        <v>283000</v>
+      </c>
+      <c r="M33" s="3">
         <v>-369000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1572000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>230000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>246000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>274000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>240000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>247000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>222000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>291000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>307000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>256000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>343000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>352000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>318000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>281000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>286000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-61000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>73000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>15000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>86000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>147000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>279000</v>
-      </c>
-      <c r="J35" s="3">
-        <v>283000</v>
       </c>
       <c r="K35" s="3">
         <v>283000</v>
       </c>
       <c r="L35" s="3">
+        <v>283000</v>
+      </c>
+      <c r="M35" s="3">
         <v>-369000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1572000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>230000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>246000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>274000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>240000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>247000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>222000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>291000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>307000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>256000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>343000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>352000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>318000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>281000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4850000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4670000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4877000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3139000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2741000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2926000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2830000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2821000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2122000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1885000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2055000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>412000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>341000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>365000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>321000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>567000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>771000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>970000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1345000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1596000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>557000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>792000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>547000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>737000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>395000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,369 +3165,384 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3606000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3304000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3313000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3032000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2954000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2928000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3048000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3016000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2920000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2091000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2308000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2829000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2935000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2982000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3008000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2795000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2893000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2944000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3174000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2785000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3534000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3418000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3410000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2306000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3243000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2306000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2362000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2312000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2014000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2119000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1801000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1525000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1297000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1229000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1212000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1363000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1286000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1345000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1304000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1326000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1277000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1358000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1265000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1202000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1083000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1642000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1485000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1375000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>859000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1375000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>221000</v>
+      </c>
+      <c r="E45" s="3">
         <v>222000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>272000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>251000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>290000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>398000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>331000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>318000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>224000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>464000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>792000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>764000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>203000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>164000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>138000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>182000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>161000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>205000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>177000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>977000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>154000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>155000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1517000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>134000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10983000</v>
+      </c>
+      <c r="E46" s="3">
         <v>10558000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10774000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8436000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8104000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8055000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7801000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7465000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6589000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5412000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6190000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5319000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5385000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4854000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4819000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4777000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5204000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5340000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5926000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5641000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6710000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5849000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5487000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5419000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5147000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1886000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1982000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2061000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1941000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2023000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2095000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2128000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2178000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2221000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2238000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2284000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>311000</v>
-      </c>
-      <c r="O47" s="3">
-        <v>280000</v>
       </c>
       <c r="P47" s="3">
         <v>280000</v>
       </c>
       <c r="Q47" s="3">
+        <v>280000</v>
+      </c>
+      <c r="R47" s="3">
         <v>262000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>215000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>198000</v>
-      </c>
-      <c r="T47" s="3">
-        <v>206000</v>
       </c>
       <c r="U47" s="3">
         <v>206000</v>
@@ -3446,176 +3551,185 @@
         <v>206000</v>
       </c>
       <c r="W47" s="3">
+        <v>206000</v>
+      </c>
+      <c r="X47" s="3">
         <v>320000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>278000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>256000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>136000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3563000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3625000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3672000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3677000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3574000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3571000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3523000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3681000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3598000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3573000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3642000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3722000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3556000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3681000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3652000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3179000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3056000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2972000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2890000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2804000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3819000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3671000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3569000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2325000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3522000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3080000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3268000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3403000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3475000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3477000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3568000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3536000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3671000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3574000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3505000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3521000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3593000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3264000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3822000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3837000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3904000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3378000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3402000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3184000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3163000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2883000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2860000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2801000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2650000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2905000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>459000</v>
+      </c>
+      <c r="E52" s="3">
         <v>475000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>494000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>478000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>473000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>491000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>488000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>527000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>462000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>552000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>530000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>514000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>454000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>471000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>449000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>405000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>491000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>396000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>354000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>355000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>434000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>398000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>384000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1762000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>331000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19971000</v>
+      </c>
+      <c r="E54" s="3">
         <v>19908000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>20404000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18007000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17651000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17780000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17476000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17522000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16444000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15280000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16167000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13459000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12939000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13108000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13019000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12480000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12327000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12316000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12560000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12169000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>14166000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>13056000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12497000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>12292000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>12122000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2775000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2749000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2910000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2953000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2544000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2574000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2624000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2571000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2186000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1432000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2243000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2463000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2232000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2284000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2340000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2334000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2254000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2307000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2282000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2227000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2745000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2603000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2549000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1820000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2544000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E58" s="3">
         <v>17000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>35000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>8000</v>
       </c>
       <c r="G58" s="3">
         <v>8000</v>
       </c>
       <c r="H58" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I58" s="3">
         <v>16000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>78000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>90000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>99000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>200000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>260000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>393000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>444000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>517000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>542000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>306000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>24000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>22000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>60000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>17000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>15000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>13000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>8000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>10000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1338000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1253000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1201000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1246000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1282000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1315000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1260000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1385000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1294000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1227000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1152000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1198000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1199000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1190000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1132000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1054000</v>
-      </c>
-      <c r="S59" s="3">
-        <v>1109000</v>
       </c>
       <c r="T59" s="3">
         <v>1109000</v>
       </c>
       <c r="U59" s="3">
+        <v>1109000</v>
+      </c>
+      <c r="V59" s="3">
         <v>1366000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1296000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1383000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1554000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1535000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2318000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1261000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4129000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4019000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4146000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4207000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3834000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3905000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3962000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4046000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3579000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2859000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3655000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4054000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3875000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3991000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4014000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3694000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3387000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3438000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3708000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3540000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4143000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4170000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4092000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4148000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3841000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6336000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6433000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6503000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4059000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4000000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4031000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3946000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4011000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3935000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3946000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5964000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3971000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3939000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3997000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3995000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4038000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4084000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4067000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4163000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4132000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4884000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4059000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3991000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3953000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>4038000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1125000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1174000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1155000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1180000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1318000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1319000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1292000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1365000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1376000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1349000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1395000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1423000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1344000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1388000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1375000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1078000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1047000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1053000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>991000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>980000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1525000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1542000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1465000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1428000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1322000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11776000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11809000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12008000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9660000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9357000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9458000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9399000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9617000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9081000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8338000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11196000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9640000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9374000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9589000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9601000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9021000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8719000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8793000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9093000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8870000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10963000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10161000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>9918000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>9891000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>9570000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5375000</v>
+      </c>
+      <c r="E72" s="3">
         <v>5089000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5150000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5077000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5062000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4976000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4829000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4550000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4267000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3984000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4353000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2890000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2745000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2597000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2491000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2511000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2610000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2510000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2278000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2118000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2485000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2257000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2057000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1980000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1870000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8195000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8099000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8396000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8347000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8294000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8322000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8077000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7905000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7363000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6942000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4971000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3819000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3565000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3519000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3418000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3459000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3608000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3523000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3467000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3299000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3203000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2895000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2579000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2401000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2552000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>286000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-61000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>73000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>15000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>86000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>147000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>279000</v>
-      </c>
-      <c r="J81" s="3">
-        <v>283000</v>
       </c>
       <c r="K81" s="3">
         <v>283000</v>
       </c>
       <c r="L81" s="3">
+        <v>283000</v>
+      </c>
+      <c r="M81" s="3">
         <v>-369000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1572000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>230000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>246000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>274000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>240000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>247000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>222000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>291000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>307000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>256000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>343000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>352000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>318000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>281000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E83" s="3">
         <v>193000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>191000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>190000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>193000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>197000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>193000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>208000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>192000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>184000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>180000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>178000</v>
       </c>
       <c r="O83" s="3">
         <v>178000</v>
       </c>
       <c r="P83" s="3">
+        <v>178000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>188000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>173000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>202000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>163000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>156000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>155000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>7000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>183000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>181000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>175000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>178000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>526000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>437000</v>
+      </c>
+      <c r="E89" s="3">
         <v>95000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-202000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>669000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>297000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>252000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>799000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>559000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-106000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>161000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>703000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>325000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>512000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>84000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>757000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>171000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>545000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>155000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>428000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>151000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>599000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>290000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>683000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1258000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-212000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-207000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-247000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-181000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-169000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-127000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-134000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-95000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-117000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-167000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-205000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-162000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-168000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-216000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-235000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-185000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-212000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-206000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-243000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-218000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-87000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-178000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-215000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-871000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-208000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-240000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-465000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-259000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-156000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-180000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-134000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-94000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-138000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-187000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-207000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-479000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-163000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-234000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-235000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-879000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-208000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-716000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-245000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-570000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-219000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-193000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-270000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>9000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-587000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6752,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
-        <v>-56000</v>
+        <v>0</v>
       </c>
       <c r="N96" s="3">
         <v>-56000</v>
@@ -6761,13 +6995,13 @@
         <v>-56000</v>
       </c>
       <c r="P96" s="3">
-        <v>-57000</v>
+        <v>-56000</v>
       </c>
       <c r="Q96" s="3">
         <v>-57000</v>
       </c>
       <c r="R96" s="3">
-        <v>-58000</v>
+        <v>-57000</v>
       </c>
       <c r="S96" s="3">
         <v>-58000</v>
@@ -6776,28 +7010,31 @@
         <v>-58000</v>
       </c>
       <c r="U96" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-59000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-77000</v>
       </c>
       <c r="W96" s="3">
         <v>-77000</v>
       </c>
       <c r="X96" s="3">
-        <v>-78000</v>
+        <v>-77000</v>
       </c>
       <c r="Y96" s="3">
         <v>-78000</v>
       </c>
       <c r="Z96" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-79000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-17000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2411000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-63000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-25000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-26000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-77000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-31000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-196000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>120000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1720000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-160000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-174000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-216000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-99000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-73000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-161000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-116000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-205000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>351000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>618000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-181000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-332000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-221000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-860000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-19000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-6000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-8000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>5000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-12000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>25000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>12000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-16000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>7000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-11000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-9000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-88000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>44000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>34000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>11000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>20000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>21000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-28000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>182000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-181000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1738000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>346000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-185000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>96000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>29000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>699000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>237000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-170000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1658000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>71000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-23000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>59000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-246000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-204000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-199000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-375000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-251000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>243000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>561000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>245000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-291000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>443000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-184000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APTV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APTV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>APTV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4640000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4614000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4057000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4178000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4134000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3654000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3807000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4023000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4212000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3668000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1960000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3226000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3596000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3559000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3627000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3575000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3636000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3485000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3684000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3630000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3440000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3148000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3153000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3143000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3193000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>9081000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3827000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3821000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3617000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3589000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3543000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3138000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3205000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3296000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3427000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3021000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1943000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2725000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2909000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2881000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2956000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2962000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2965000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2833000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2957000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2947000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2730000</v>
-      </c>
-      <c r="X9" s="3">
-        <v>2498000</v>
       </c>
       <c r="Y9" s="3">
         <v>2498000</v>
       </c>
       <c r="Z9" s="3">
+        <v>2498000</v>
+      </c>
+      <c r="AA9" s="3">
         <v>2544000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2325000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>7202000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>813000</v>
+      </c>
+      <c r="E10" s="3">
         <v>793000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>440000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>589000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>591000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>516000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>602000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>727000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>785000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>647000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>17000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>501000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>687000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>678000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>671000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>613000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>671000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>652000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>727000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>683000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>710000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>650000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>655000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>599000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>868000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1879000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,88 +1222,94 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E14" s="3">
         <v>17000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>21000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>22000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>150000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>15000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>24000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>18000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>76000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-1406000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>35000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>62000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>41000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>32000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>41000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>66000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>32000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>9000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>28000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>18000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>14000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>79000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>362000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>178000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1295,10 +1317,10 @@
         <v>37000</v>
       </c>
       <c r="E15" s="3">
+        <v>37000</v>
+      </c>
+      <c r="F15" s="3">
         <v>38000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>37000</v>
       </c>
       <c r="G15" s="3">
         <v>37000</v>
@@ -1316,34 +1338,34 @@
         <v>37000</v>
       </c>
       <c r="L15" s="3">
+        <v>37000</v>
+      </c>
+      <c r="M15" s="3">
         <v>36000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>35000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>36000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>35000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>34000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>35000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>34000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>33000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>31000</v>
-      </c>
-      <c r="U15" s="3">
-        <v>30000</v>
       </c>
       <c r="V15" s="3">
         <v>30000</v>
@@ -1352,7 +1374,7 @@
         <v>30000</v>
       </c>
       <c r="X15" s="3">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="Y15" s="3">
         <v>29000</v>
@@ -1364,10 +1386,13 @@
         <v>29000</v>
       </c>
       <c r="AB15" s="3">
+        <v>29000</v>
+      </c>
+      <c r="AC15" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4253000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4150000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3962000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3922000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4021000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3439000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3523000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3594000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3766000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3304000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2275000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1607000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3277000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3239000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3292000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3284000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3290000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3162000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3279000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3245000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3054000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2775000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2772000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2877000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2968000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>8140000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>387000</v>
+      </c>
+      <c r="E18" s="3">
         <v>464000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>95000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>256000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>113000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>215000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>284000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>429000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>446000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>364000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-315000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1619000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>319000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>320000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>335000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>291000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>346000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>323000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>405000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>385000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>386000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>373000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>381000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>266000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>225000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>941000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,25 +1615,26 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E20" s="3">
         <v>26000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-23000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-39000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>16000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1000</v>
       </c>
       <c r="I20" s="3">
         <v>1000</v>
@@ -1610,381 +1643,396 @@
         <v>1000</v>
       </c>
       <c r="K20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L20" s="3">
         <v>6000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-10000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>6000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>22000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-16000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>9000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>19000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-7000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-9000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>4000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-11000</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>618000</v>
+      </c>
+      <c r="E21" s="3">
         <v>680000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>265000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>408000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>319000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>409000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>482000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>623000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>660000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>557000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-133000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1798000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>487000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>505000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>529000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>486000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>532000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>490000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>570000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>559000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>541000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>402000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>553000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>445000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>177000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1467000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E22" s="3">
         <v>58000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>56000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>43000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>36000</v>
       </c>
       <c r="H22" s="3">
         <v>36000</v>
       </c>
       <c r="I22" s="3">
+        <v>36000</v>
+      </c>
+      <c r="J22" s="3">
         <v>38000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>40000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>39000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>38000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>44000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>43000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>41000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>42000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>43000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>38000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>37000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>34000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>36000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>34000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>37000</v>
-      </c>
-      <c r="X22" s="3">
-        <v>35000</v>
       </c>
       <c r="Y22" s="3">
         <v>35000</v>
       </c>
       <c r="Z22" s="3">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="AA22" s="3">
         <v>33000</v>
       </c>
       <c r="AB22" s="3">
+        <v>33000</v>
+      </c>
+      <c r="AC22" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>368000</v>
+      </c>
+      <c r="E23" s="3">
         <v>432000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>16000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>174000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>93000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>180000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>247000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>390000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>413000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>327000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-361000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1575000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>268000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>285000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>298000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>275000</v>
-      </c>
-      <c r="S23" s="3">
-        <v>293000</v>
       </c>
       <c r="T23" s="3">
         <v>293000</v>
       </c>
       <c r="U23" s="3">
+        <v>293000</v>
+      </c>
+      <c r="V23" s="3">
         <v>378000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>370000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>350000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>331000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>337000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>237000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>181000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>819000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E24" s="3">
         <v>59000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>16000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>21000</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>25000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>28000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>48000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>55000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-14000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>30000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>38000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>31000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>33000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>36000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>67000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>58000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>59000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>135000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>31000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>38000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>19000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-4000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>171000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>343000</v>
+      </c>
+      <c r="E26" s="3">
         <v>373000</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>153000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>93000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>155000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>219000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>342000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>358000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>329000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-347000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1565000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>238000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>247000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>267000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>242000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>257000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>226000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>320000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>311000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>215000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>300000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>299000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>218000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>185000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>648000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>233000</v>
+      </c>
+      <c r="E27" s="3">
         <v>286000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-61000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>73000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>15000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>86000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>147000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>279000</v>
-      </c>
-      <c r="K27" s="3">
-        <v>283000</v>
       </c>
       <c r="L27" s="3">
         <v>283000</v>
       </c>
       <c r="M27" s="3">
+        <v>283000</v>
+      </c>
+      <c r="N27" s="3">
         <v>-369000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1572000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>230000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>246000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>274000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>240000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>253000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>221000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>316000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>307000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>232000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>236000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>272000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>195000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>204000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>630000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2335,17 +2395,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2353,38 +2413,41 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-6000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>1000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-25000</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>24000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>107000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>80000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>123000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>77000</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>346000</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,25 +2609,28 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-26000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>23000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>39000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-16000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-1000</v>
       </c>
       <c r="I32" s="3">
         <v>-1000</v>
@@ -2570,141 +2639,147 @@
         <v>-1000</v>
       </c>
       <c r="K32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L32" s="3">
         <v>-6000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>10000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-6000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-22000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>16000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-9000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-19000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>7000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>9000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>11000</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>233000</v>
+      </c>
+      <c r="E33" s="3">
         <v>286000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-61000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>73000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>15000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>86000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>147000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>279000</v>
-      </c>
-      <c r="K33" s="3">
-        <v>283000</v>
       </c>
       <c r="L33" s="3">
         <v>283000</v>
       </c>
       <c r="M33" s="3">
+        <v>283000</v>
+      </c>
+      <c r="N33" s="3">
         <v>-369000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1572000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>230000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>246000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>274000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>240000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>247000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>222000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>291000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>307000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>256000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>343000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>352000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>318000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>281000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>233000</v>
+      </c>
+      <c r="E35" s="3">
         <v>286000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-61000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>73000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>15000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>86000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>147000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>279000</v>
-      </c>
-      <c r="K35" s="3">
-        <v>283000</v>
       </c>
       <c r="L35" s="3">
         <v>283000</v>
       </c>
       <c r="M35" s="3">
+        <v>283000</v>
+      </c>
+      <c r="N35" s="3">
         <v>-369000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1572000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>230000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>246000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>274000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>240000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>247000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>222000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>291000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>307000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>256000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>343000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>352000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>318000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>281000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3093,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1531000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4850000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4670000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4877000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3139000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2741000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2926000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2830000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2821000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2122000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1885000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2055000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>412000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>341000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>365000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>321000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>567000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>771000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>970000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1345000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1596000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>557000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>792000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>547000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>737000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>395000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,384 +3257,399 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3672000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3606000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3304000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3313000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3032000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2954000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2928000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3048000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3016000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2920000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2091000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2308000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2829000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2935000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2982000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3008000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2795000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2893000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2944000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3174000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2785000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3534000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3418000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3410000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2306000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3243000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2340000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2306000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2362000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2312000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2014000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2119000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1801000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1525000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1297000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1229000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1212000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1363000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1286000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1345000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1304000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1326000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1277000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1358000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1265000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1202000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1083000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1642000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1485000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1375000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>859000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1375000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>241000</v>
+      </c>
+      <c r="E45" s="3">
         <v>221000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>222000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>272000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>251000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>290000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>398000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>331000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>318000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>224000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>464000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>792000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>764000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>203000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>164000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>138000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>182000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>161000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>205000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>177000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>977000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>154000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>155000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1517000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>134000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7784000</v>
+      </c>
+      <c r="E46" s="3">
         <v>10983000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10558000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10774000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8436000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8104000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8055000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7801000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7465000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6589000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5412000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6190000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5319000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5385000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4854000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4819000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4777000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5204000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5340000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5926000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5641000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6710000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5849000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5487000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5419000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>5147000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1882000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1886000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1982000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2061000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1941000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2023000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2095000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2128000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2178000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2221000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2238000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2284000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>311000</v>
-      </c>
-      <c r="P47" s="3">
-        <v>280000</v>
       </c>
       <c r="Q47" s="3">
         <v>280000</v>
       </c>
       <c r="R47" s="3">
+        <v>280000</v>
+      </c>
+      <c r="S47" s="3">
         <v>262000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>215000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>198000</v>
-      </c>
-      <c r="U47" s="3">
-        <v>206000</v>
       </c>
       <c r="V47" s="3">
         <v>206000</v>
@@ -3554,182 +3658,191 @@
         <v>206000</v>
       </c>
       <c r="X47" s="3">
+        <v>206000</v>
+      </c>
+      <c r="Y47" s="3">
         <v>320000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>278000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>256000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>136000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3946000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3563000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3625000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3672000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3677000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3574000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3571000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3523000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3681000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3598000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3573000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3642000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3722000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3556000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3681000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3652000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3179000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3056000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2972000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2890000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2804000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3819000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3671000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3569000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2325000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3522000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7691000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3080000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3268000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3403000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3475000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3477000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3568000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3536000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3671000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3574000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3505000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3521000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3593000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3264000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3822000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3837000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3904000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3378000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3402000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3184000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3163000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2883000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2860000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2801000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2650000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2905000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>581000</v>
+      </c>
+      <c r="E52" s="3">
         <v>459000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>475000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>494000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>478000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>473000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>491000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>488000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>527000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>462000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>552000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>530000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>514000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>454000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>471000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>449000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>405000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>491000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>396000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>354000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>355000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>434000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>398000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>384000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1762000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>331000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21884000</v>
+      </c>
+      <c r="E54" s="3">
         <v>19971000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>19908000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>20404000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18007000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17651000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17780000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17476000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17522000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16444000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15280000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16167000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13459000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12939000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13108000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13019000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12480000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12327000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12316000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12560000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12169000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>14166000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>13056000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>12497000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>12292000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>12122000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4317,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3150000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2775000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2749000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2910000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2953000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2544000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2574000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2624000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2571000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2186000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1432000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2243000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2463000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2232000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2284000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2340000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2334000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2254000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2307000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2282000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2227000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2745000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2603000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2549000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1820000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2544000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E58" s="3">
         <v>16000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>17000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>35000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>8000</v>
       </c>
       <c r="H58" s="3">
         <v>8000</v>
       </c>
       <c r="I58" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J58" s="3">
         <v>16000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>78000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>90000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>99000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>200000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>260000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>393000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>444000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>517000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>542000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>306000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>24000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>22000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>60000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>17000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>15000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>13000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>8000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>10000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1684000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1338000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1253000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1201000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1246000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1282000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1315000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1260000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1385000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1294000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1227000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1152000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1198000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1199000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1190000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1132000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1054000</v>
-      </c>
-      <c r="T59" s="3">
-        <v>1109000</v>
       </c>
       <c r="U59" s="3">
         <v>1109000</v>
       </c>
       <c r="V59" s="3">
+        <v>1109000</v>
+      </c>
+      <c r="W59" s="3">
         <v>1366000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1296000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1383000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1554000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1535000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2318000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1261000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4865000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4129000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4019000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4146000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4207000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3834000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3905000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3962000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4046000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3579000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2859000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3655000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4054000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3875000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3991000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4014000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3694000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3387000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3438000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3708000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3540000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4143000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4170000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4092000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4148000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>3841000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6460000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6336000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6433000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6503000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4059000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4000000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4031000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3946000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4011000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3935000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3946000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5964000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3971000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3939000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3997000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3995000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4038000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4084000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4067000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4163000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4132000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4884000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4059000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3991000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3953000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>4038000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1465000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1125000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1174000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1155000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1180000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1318000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1319000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1292000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1365000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1376000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1349000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1395000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1423000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1344000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1388000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1375000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1078000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1047000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1053000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>991000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>980000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1525000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1542000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1465000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1428000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1322000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13075000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11776000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11809000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12008000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9660000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9357000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9458000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9399000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9617000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9081000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8338000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11196000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9640000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9374000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9589000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9601000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9021000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8719000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8793000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9093000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8870000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10963000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>10161000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>9918000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>9891000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>9570000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5608000</v>
+      </c>
+      <c r="E72" s="3">
         <v>5375000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5089000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5150000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5077000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5062000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4976000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4829000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4550000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4267000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3984000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4353000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2890000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2745000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2597000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2491000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2511000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2610000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2510000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2278000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2118000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2485000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2257000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2057000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1980000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1870000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8809000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8195000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8099000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8396000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8347000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8294000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8322000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8077000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7905000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7363000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6942000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4971000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3819000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3565000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3519000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3418000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3459000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3608000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3523000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3467000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3299000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3203000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2895000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2579000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2401000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2552000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>233000</v>
+      </c>
+      <c r="E81" s="3">
         <v>286000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-61000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>73000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>15000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>86000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>147000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>279000</v>
-      </c>
-      <c r="K81" s="3">
-        <v>283000</v>
       </c>
       <c r="L81" s="3">
         <v>283000</v>
       </c>
       <c r="M81" s="3">
+        <v>283000</v>
+      </c>
+      <c r="N81" s="3">
         <v>-369000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1572000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>230000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>246000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>274000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>240000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>247000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>222000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>291000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>307000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>256000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>343000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>352000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>318000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>281000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>188000</v>
+      </c>
+      <c r="E83" s="3">
         <v>190000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>193000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>191000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>190000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>193000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>197000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>193000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>208000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>192000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>184000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>180000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>178000</v>
       </c>
       <c r="P83" s="3">
         <v>178000</v>
       </c>
       <c r="Q83" s="3">
+        <v>178000</v>
+      </c>
+      <c r="R83" s="3">
         <v>188000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>173000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>202000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>163000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>156000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>155000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>7000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>183000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>181000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>175000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>178000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>526000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>933000</v>
+      </c>
+      <c r="E89" s="3">
         <v>437000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>95000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-202000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>669000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>297000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>252000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>799000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>559000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-106000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>161000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>703000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>325000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>512000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>84000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>757000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>171000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>545000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>155000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>428000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>151000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>599000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>290000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>683000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1258000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-178000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-212000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-207000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-247000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-181000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-169000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-127000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-134000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-95000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-117000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-167000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-205000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-162000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-168000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-216000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-235000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-185000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-212000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-206000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-243000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-218000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-87000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-178000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-215000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-871000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4269000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-208000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-240000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-465000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-259000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-156000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-180000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-134000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-94000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-138000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-187000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-207000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-479000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-163000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-234000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-235000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-879000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-208000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-716000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-245000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-570000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-219000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-193000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-270000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>9000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-587000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6989,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
-        <v>-56000</v>
+        <v>0</v>
       </c>
       <c r="O96" s="3">
         <v>-56000</v>
@@ -6998,13 +7231,13 @@
         <v>-56000</v>
       </c>
       <c r="Q96" s="3">
-        <v>-57000</v>
+        <v>-56000</v>
       </c>
       <c r="R96" s="3">
         <v>-57000</v>
       </c>
       <c r="S96" s="3">
-        <v>-58000</v>
+        <v>-57000</v>
       </c>
       <c r="T96" s="3">
         <v>-58000</v>
@@ -7013,28 +7246,31 @@
         <v>-58000</v>
       </c>
       <c r="V96" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-59000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-77000</v>
       </c>
       <c r="X96" s="3">
         <v>-77000</v>
       </c>
       <c r="Y96" s="3">
-        <v>-78000</v>
+        <v>-77000</v>
       </c>
       <c r="Z96" s="3">
         <v>-78000</v>
       </c>
       <c r="AA96" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-79000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7515,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-18000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-17000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2411000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-63000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-25000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-26000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-77000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-31000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-196000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>120000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1720000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-160000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-174000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-216000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-99000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-73000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-161000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-116000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-205000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>351000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>618000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-181000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-332000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-221000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-860000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-29000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-19000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-6000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-8000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>5000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-12000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>25000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>12000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-16000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>7000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-9000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-88000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>44000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>34000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>11000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>20000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>21000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-28000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3323000</v>
+      </c>
+      <c r="E102" s="3">
         <v>182000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-181000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1738000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>346000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-185000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>96000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>29000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>699000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>237000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-170000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1658000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>71000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>59000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-246000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-204000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-199000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-375000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-251000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>243000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>561000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>245000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-291000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>443000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-184000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APTV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APTV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>APTV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4818000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4640000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4614000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4057000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4178000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4134000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3654000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3807000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4023000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4212000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3668000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1960000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3226000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3596000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3559000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3627000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3575000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3636000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3485000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3684000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3630000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3440000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3148000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3153000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3143000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3193000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>9081000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4058000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3827000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3821000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3617000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3589000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3543000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3138000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3205000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3296000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3427000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3021000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1943000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2725000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2909000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2881000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2956000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2962000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2965000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2833000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2957000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2947000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2730000</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>2498000</v>
       </c>
       <c r="Z9" s="3">
         <v>2498000</v>
       </c>
       <c r="AA9" s="3">
+        <v>2498000</v>
+      </c>
+      <c r="AB9" s="3">
         <v>2544000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2325000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>7202000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>760000</v>
+      </c>
+      <c r="E10" s="3">
         <v>813000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>793000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>440000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>589000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>591000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>516000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>602000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>727000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>785000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>647000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>17000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>501000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>687000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>678000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>671000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>613000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>671000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>652000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>727000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>683000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>710000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>650000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>655000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>599000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>868000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1879000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,105 +1242,111 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E14" s="3">
         <v>86000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>17000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>21000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>22000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>150000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>15000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>24000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>18000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>76000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-1406000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>35000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>62000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>41000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>32000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>41000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>66000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>32000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>9000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>28000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>18000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>14000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>79000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>362000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>178000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>37000</v>
+        <v>59000</v>
       </c>
       <c r="E15" s="3">
         <v>37000</v>
       </c>
       <c r="F15" s="3">
+        <v>37000</v>
+      </c>
+      <c r="G15" s="3">
         <v>38000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>37000</v>
       </c>
       <c r="H15" s="3">
         <v>37000</v>
@@ -1341,34 +1364,34 @@
         <v>37000</v>
       </c>
       <c r="M15" s="3">
+        <v>37000</v>
+      </c>
+      <c r="N15" s="3">
         <v>36000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>35000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>36000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>35000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>34000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>35000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>34000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>33000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>31000</v>
-      </c>
-      <c r="V15" s="3">
-        <v>30000</v>
       </c>
       <c r="W15" s="3">
         <v>30000</v>
@@ -1377,7 +1400,7 @@
         <v>30000</v>
       </c>
       <c r="Y15" s="3">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="Z15" s="3">
         <v>29000</v>
@@ -1389,10 +1412,13 @@
         <v>29000</v>
       </c>
       <c r="AC15" s="3">
+        <v>29000</v>
+      </c>
+      <c r="AD15" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4488000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4253000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4150000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3962000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3922000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4021000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3439000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3523000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3594000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3766000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3304000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2275000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1607000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3277000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3239000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3292000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3284000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3290000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3162000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3279000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3245000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3054000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2775000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2772000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2877000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2968000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>8140000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>330000</v>
+      </c>
+      <c r="E18" s="3">
         <v>387000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>464000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>95000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>256000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>113000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>215000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>284000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>429000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>446000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>364000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-315000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1619000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>319000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>320000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>335000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>291000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>346000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>323000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>405000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>385000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>386000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>373000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>381000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>266000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>225000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>941000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,28 +1649,29 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E20" s="3">
         <v>43000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>26000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-23000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-39000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>16000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1000</v>
       </c>
       <c r="J20" s="3">
         <v>1000</v>
@@ -1646,393 +1680,408 @@
         <v>1000</v>
       </c>
       <c r="L20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M20" s="3">
         <v>6000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>7000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>6000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>22000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-16000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>9000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>19000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-7000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-9000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>4000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-11000</v>
       </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>563000</v>
+      </c>
+      <c r="E21" s="3">
         <v>618000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>680000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>265000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>408000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>319000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>409000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>482000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>623000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>660000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>557000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-133000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1798000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>487000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>505000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>529000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>486000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>532000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>490000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>570000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>559000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>541000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>402000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>553000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>445000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>177000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1467000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E22" s="3">
         <v>62000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>58000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>56000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>43000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>36000</v>
       </c>
       <c r="I22" s="3">
         <v>36000</v>
       </c>
       <c r="J22" s="3">
+        <v>36000</v>
+      </c>
+      <c r="K22" s="3">
         <v>38000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>40000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>39000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>38000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>44000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>43000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>41000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>42000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>43000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>38000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>37000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>34000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>36000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>34000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>37000</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>35000</v>
       </c>
       <c r="Z22" s="3">
         <v>35000</v>
       </c>
       <c r="AA22" s="3">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="AB22" s="3">
         <v>33000</v>
       </c>
       <c r="AC22" s="3">
+        <v>33000</v>
+      </c>
+      <c r="AD22" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>280000</v>
+      </c>
+      <c r="E23" s="3">
         <v>368000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>432000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>16000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>174000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>93000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>180000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>247000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>390000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>413000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>327000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-361000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1575000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>268000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>285000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>298000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>275000</v>
-      </c>
-      <c r="T23" s="3">
-        <v>293000</v>
       </c>
       <c r="U23" s="3">
         <v>293000</v>
       </c>
       <c r="V23" s="3">
+        <v>293000</v>
+      </c>
+      <c r="W23" s="3">
         <v>378000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>370000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>350000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>331000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>337000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>237000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>181000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>819000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E24" s="3">
         <v>25000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>59000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>16000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>21000</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>25000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>28000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>48000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>55000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-14000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>30000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>38000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>31000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>33000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>36000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>67000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>58000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>59000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>135000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>31000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>38000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>19000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-4000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>171000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>246000</v>
+      </c>
+      <c r="E26" s="3">
         <v>343000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>373000</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>153000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>93000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>155000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>219000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>342000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>358000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>329000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-347000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1565000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>238000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>247000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>267000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>242000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>257000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>226000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>320000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>311000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>215000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>300000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>299000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>218000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>185000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>648000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E27" s="3">
         <v>233000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>286000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-61000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>73000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>15000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>86000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>147000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>279000</v>
-      </c>
-      <c r="L27" s="3">
-        <v>283000</v>
       </c>
       <c r="M27" s="3">
         <v>283000</v>
       </c>
       <c r="N27" s="3">
+        <v>283000</v>
+      </c>
+      <c r="O27" s="3">
         <v>-369000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1572000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>230000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>246000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>274000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>240000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>253000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>221000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>316000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>307000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>232000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>236000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>272000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>195000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>204000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>630000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2398,17 +2459,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2416,38 +2477,41 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>-6000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>1000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-25000</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>24000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>107000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>80000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>123000</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>77000</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>346000</v>
       </c>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,28 +2679,31 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-43000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-26000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>23000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>39000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-16000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-1000</v>
       </c>
       <c r="J32" s="3">
         <v>-1000</v>
@@ -2642,144 +2712,150 @@
         <v>-1000</v>
       </c>
       <c r="L32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M32" s="3">
         <v>-6000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>10000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-7000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-6000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-22000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>16000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-9000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-19000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>7000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>9000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-4000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>11000</v>
       </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E33" s="3">
         <v>233000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>286000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-61000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>73000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>15000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>86000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>147000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>279000</v>
-      </c>
-      <c r="L33" s="3">
-        <v>283000</v>
       </c>
       <c r="M33" s="3">
         <v>283000</v>
       </c>
       <c r="N33" s="3">
+        <v>283000</v>
+      </c>
+      <c r="O33" s="3">
         <v>-369000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1572000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>230000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>246000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>274000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>240000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>247000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>222000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>291000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>307000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>256000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>343000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>352000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>318000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>281000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E35" s="3">
         <v>233000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>286000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-61000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>73000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>15000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>86000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>147000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>279000</v>
-      </c>
-      <c r="L35" s="3">
-        <v>283000</v>
       </c>
       <c r="M35" s="3">
         <v>283000</v>
       </c>
       <c r="N35" s="3">
+        <v>283000</v>
+      </c>
+      <c r="O35" s="3">
         <v>-369000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1572000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>230000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>246000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>274000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>240000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>247000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>222000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>291000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>307000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>256000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>343000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>352000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>318000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>281000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,91 +3180,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1531000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4850000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4670000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4877000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3139000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2741000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2926000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2830000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2821000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2122000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1885000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2055000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>412000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>341000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>365000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>321000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>567000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>771000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>970000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1345000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1596000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>557000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>792000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>547000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>737000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>395000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,399 +3350,414 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3828000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3672000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3606000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3304000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3313000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3032000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2954000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2928000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3048000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3016000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2920000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2091000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2308000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2829000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2935000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2982000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3008000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2795000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2893000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2944000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3174000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2785000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3534000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3418000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3410000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2306000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3243000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2485000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2340000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2306000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2362000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2312000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2014000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2119000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1801000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1525000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1297000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1229000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1212000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1363000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1286000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1345000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1304000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1326000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1277000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1358000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1265000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1202000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1083000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1642000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1485000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1375000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>859000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1375000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>312000</v>
+      </c>
+      <c r="E45" s="3">
         <v>241000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>221000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>222000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>272000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>251000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>290000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>398000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>331000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>318000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>224000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>464000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>792000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>764000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>203000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>164000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>138000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>182000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>161000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>205000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>177000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>977000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>154000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>155000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1517000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>134000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7725000</v>
+      </c>
+      <c r="E46" s="3">
         <v>7784000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10983000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10558000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10774000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8436000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8104000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8055000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7801000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7465000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6589000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5412000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6190000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5319000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5385000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4854000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4819000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4777000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5204000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5340000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5926000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5641000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>6710000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5849000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5487000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>5419000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>5147000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1800000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1882000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1886000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1982000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2061000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1941000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2023000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2095000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2128000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2178000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2221000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2238000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2284000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>311000</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>280000</v>
       </c>
       <c r="R47" s="3">
         <v>280000</v>
       </c>
       <c r="S47" s="3">
+        <v>280000</v>
+      </c>
+      <c r="T47" s="3">
         <v>262000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>215000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>198000</v>
-      </c>
-      <c r="V47" s="3">
-        <v>206000</v>
       </c>
       <c r="W47" s="3">
         <v>206000</v>
@@ -3661,188 +3766,197 @@
         <v>206000</v>
       </c>
       <c r="Y47" s="3">
+        <v>206000</v>
+      </c>
+      <c r="Z47" s="3">
         <v>320000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>278000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>256000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>136000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3988000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3946000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3563000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3625000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3672000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3677000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3574000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3571000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3523000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3681000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3598000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3573000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3642000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3722000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3556000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3681000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3652000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3179000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3056000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2972000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2890000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2804000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3819000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3671000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3569000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2325000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>3522000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7633000</v>
+      </c>
+      <c r="E49" s="3">
         <v>7691000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3080000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3268000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3403000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3475000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3477000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3568000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3536000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3671000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3574000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3505000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3521000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3593000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3264000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3822000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3837000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3904000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3378000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3402000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3184000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3163000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2883000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2860000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2801000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2650000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2905000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4124,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>570000</v>
+      </c>
+      <c r="E52" s="3">
         <v>581000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>459000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>475000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>494000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>478000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>473000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>491000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>488000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>527000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>462000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>552000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>530000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>514000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>454000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>471000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>449000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>405000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>491000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>396000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>354000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>355000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>434000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>398000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>384000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1762000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>331000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21716000</v>
+      </c>
+      <c r="E54" s="3">
         <v>21884000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>19971000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>19908000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>20404000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>18007000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17651000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17780000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17476000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17522000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16444000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15280000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16167000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13459000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12939000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13108000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13019000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12480000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12327000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12316000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12560000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12169000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>14166000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>13056000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>12497000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>12292000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>12122000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,506 +4448,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2996000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3150000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2775000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2749000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2910000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2953000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2544000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2574000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2624000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2571000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2186000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1432000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2243000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2463000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2232000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2284000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2340000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2334000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2254000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2307000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2282000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2227000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2745000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2603000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2549000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1820000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>2544000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E58" s="3">
         <v>31000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>16000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>17000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>35000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>8000</v>
       </c>
       <c r="I58" s="3">
         <v>8000</v>
       </c>
       <c r="J58" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K58" s="3">
         <v>16000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>78000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>90000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>99000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>200000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>260000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>393000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>444000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>517000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>542000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>306000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>24000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>22000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>60000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>17000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>15000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>13000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>8000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>10000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1467000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1684000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1338000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1253000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1201000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1246000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1282000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1315000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1260000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1385000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1294000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1227000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1152000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1198000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1199000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1190000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1132000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1054000</v>
-      </c>
-      <c r="U59" s="3">
-        <v>1109000</v>
       </c>
       <c r="V59" s="3">
         <v>1109000</v>
       </c>
       <c r="W59" s="3">
+        <v>1109000</v>
+      </c>
+      <c r="X59" s="3">
         <v>1366000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1296000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1383000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1554000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1535000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2318000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1261000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4508000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4865000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4129000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4019000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4146000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4207000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3834000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3905000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3962000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4046000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3579000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2859000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3655000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4054000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3875000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3991000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4014000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3694000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3387000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3438000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3708000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3540000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4143000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4170000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4092000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4148000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>3841000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6473000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6460000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6336000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6433000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6503000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4059000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4000000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4031000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3946000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4011000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3935000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3946000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5964000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3971000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3939000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3997000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3995000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4038000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4084000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4067000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4163000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4132000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4884000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4059000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3991000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>3953000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>4038000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1463000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1465000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1125000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1174000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1155000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1180000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1318000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1319000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1292000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1365000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1376000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1349000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1395000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1423000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1344000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1388000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1375000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1078000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1047000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1053000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>991000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>980000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1525000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1542000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1465000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1428000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1322000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12733000</v>
+      </c>
+      <c r="E66" s="3">
         <v>13075000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11776000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11809000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12008000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9660000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9357000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9458000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9399000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9617000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9081000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8338000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11196000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9640000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9374000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9589000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9601000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9021000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8719000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8793000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>9093000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>8870000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>10963000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>10161000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>9918000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>9891000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>9570000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5690000</v>
+      </c>
+      <c r="E72" s="3">
         <v>5608000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5375000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5089000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5150000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5077000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5062000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4976000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4829000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4550000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4267000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3984000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4353000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2890000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2745000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2597000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2491000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2511000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2610000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2510000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2278000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2118000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2485000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2257000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2057000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1980000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1870000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8983000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8809000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8195000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8099000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8396000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8347000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8294000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8322000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8077000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7905000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7363000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6942000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4971000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3819000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3565000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3519000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3418000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3459000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3608000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3523000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3467000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3299000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3203000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2895000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2579000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2401000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2552000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E81" s="3">
         <v>233000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>286000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-61000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>73000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>15000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>86000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>147000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>279000</v>
-      </c>
-      <c r="L81" s="3">
-        <v>283000</v>
       </c>
       <c r="M81" s="3">
         <v>283000</v>
       </c>
       <c r="N81" s="3">
+        <v>283000</v>
+      </c>
+      <c r="O81" s="3">
         <v>-369000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1572000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>230000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>246000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>274000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>240000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>247000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>222000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>291000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>307000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>256000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>343000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>352000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>318000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>281000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6409,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>216000</v>
+      </c>
+      <c r="E83" s="3">
         <v>188000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>190000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>193000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>191000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>190000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>193000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>197000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>193000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>208000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>192000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>184000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>180000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>178000</v>
       </c>
       <c r="Q83" s="3">
         <v>178000</v>
       </c>
       <c r="R83" s="3">
+        <v>178000</v>
+      </c>
+      <c r="S83" s="3">
         <v>188000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>173000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>202000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>163000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>156000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>155000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>7000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>183000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>181000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>175000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>178000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>526000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E89" s="3">
         <v>933000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>437000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>95000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-202000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>669000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>297000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>252000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>799000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>559000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-106000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>161000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>703000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>325000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>512000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>84000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>757000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>171000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>545000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>155000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>428000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>151000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>599000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>290000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>683000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1258000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-269000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-178000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-212000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-207000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-247000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-181000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-169000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-127000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-134000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-95000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-117000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-167000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-205000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-162000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-168000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-216000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-235000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-185000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-212000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-206000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-243000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-218000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-87000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-178000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-215000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-871000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-309000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4269000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-208000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-240000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-465000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-259000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-156000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-180000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-134000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-94000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-138000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-187000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-207000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-479000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-163000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-234000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-235000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-879000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-208000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-716000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-245000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-570000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-219000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-193000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-270000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>9000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-587000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7225,7 +7459,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
-        <v>-56000</v>
+        <v>0</v>
       </c>
       <c r="P96" s="3">
         <v>-56000</v>
@@ -7234,13 +7468,13 @@
         <v>-56000</v>
       </c>
       <c r="R96" s="3">
-        <v>-57000</v>
+        <v>-56000</v>
       </c>
       <c r="S96" s="3">
         <v>-57000</v>
       </c>
       <c r="T96" s="3">
-        <v>-58000</v>
+        <v>-57000</v>
       </c>
       <c r="U96" s="3">
         <v>-58000</v>
@@ -7249,28 +7483,31 @@
         <v>-58000</v>
       </c>
       <c r="W96" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-59000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-77000</v>
       </c>
       <c r="Y96" s="3">
         <v>-77000</v>
       </c>
       <c r="Z96" s="3">
-        <v>-78000</v>
+        <v>-77000</v>
       </c>
       <c r="AA96" s="3">
         <v>-78000</v>
       </c>
       <c r="AB96" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-79000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +7761,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-17000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-18000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-17000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2411000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-63000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-25000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-26000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-77000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-31000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-196000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>120000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1720000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-160000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-174000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-216000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-99000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-73000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-161000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-116000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-205000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>351000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>618000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-181000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-332000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-221000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-860000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>30000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-29000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-19000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-6000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-8000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>5000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-12000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>25000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>12000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-16000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>7000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-11000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>4000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-9000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-88000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>44000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>34000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>11000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>20000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>21000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-28000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-438000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3323000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>182000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-181000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1738000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>346000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-185000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>96000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>29000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>699000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>237000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-170000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1658000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>71000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-23000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>59000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-246000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-204000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-199000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-375000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-251000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>243000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>561000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>245000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-291000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>443000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-184000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APTV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APTV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>APTV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5200000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4818000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4640000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4614000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4057000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4178000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4134000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3654000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3807000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4023000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4212000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3668000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1960000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3226000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3596000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3559000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3627000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3575000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3636000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3485000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3684000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3630000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3440000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3148000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3153000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3143000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>3193000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>9081000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4336000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4058000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3827000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3821000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3617000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3589000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3543000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3138000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3205000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3296000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3427000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3021000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1943000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2725000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2909000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2881000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2956000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2962000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2965000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2833000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2957000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2947000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2730000</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>2498000</v>
       </c>
       <c r="AA9" s="3">
         <v>2498000</v>
       </c>
       <c r="AB9" s="3">
+        <v>2498000</v>
+      </c>
+      <c r="AC9" s="3">
         <v>2544000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2325000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>7202000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>864000</v>
+      </c>
+      <c r="E10" s="3">
         <v>760000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>813000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>793000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>440000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>589000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>591000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>516000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>602000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>727000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>785000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>647000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>17000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>501000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>687000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>678000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>671000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>613000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>671000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>652000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>727000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>683000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>710000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>650000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>655000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>599000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>868000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1879000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,94 +1262,100 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E14" s="3">
         <v>29000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>86000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>17000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>21000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>22000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>150000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>15000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>24000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>18000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>76000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-1406000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>35000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>62000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>41000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>32000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>41000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>66000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>32000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>9000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>28000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>18000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>14000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>79000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>362000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>178000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,16 +1363,16 @@
         <v>59000</v>
       </c>
       <c r="E15" s="3">
-        <v>37000</v>
+        <v>59000</v>
       </c>
       <c r="F15" s="3">
         <v>37000</v>
       </c>
       <c r="G15" s="3">
+        <v>37000</v>
+      </c>
+      <c r="H15" s="3">
         <v>38000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>37000</v>
       </c>
       <c r="I15" s="3">
         <v>37000</v>
@@ -1367,34 +1390,34 @@
         <v>37000</v>
       </c>
       <c r="N15" s="3">
+        <v>37000</v>
+      </c>
+      <c r="O15" s="3">
         <v>36000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>35000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>36000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>35000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>34000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>35000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>34000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>33000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>31000</v>
-      </c>
-      <c r="W15" s="3">
-        <v>30000</v>
       </c>
       <c r="X15" s="3">
         <v>30000</v>
@@ -1403,7 +1426,7 @@
         <v>30000</v>
       </c>
       <c r="Z15" s="3">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="AA15" s="3">
         <v>29000</v>
@@ -1415,10 +1438,13 @@
         <v>29000</v>
       </c>
       <c r="AD15" s="3">
+        <v>29000</v>
+      </c>
+      <c r="AE15" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4794000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4488000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4253000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4150000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3962000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3922000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4021000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3439000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3523000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3594000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3766000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3304000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2275000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1607000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3277000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3239000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3292000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3284000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3290000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3162000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3279000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3245000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3054000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2775000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2772000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2877000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2968000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>8140000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>406000</v>
+      </c>
+      <c r="E18" s="3">
         <v>330000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>387000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>464000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>95000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>256000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>113000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>215000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>284000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>429000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>446000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>364000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-315000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1619000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>319000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>320000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>335000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>291000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>346000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>323000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>405000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>385000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>386000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>373000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>381000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>266000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>225000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>941000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,31 +1683,32 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E20" s="3">
         <v>17000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>43000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>26000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-23000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-39000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>16000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1000</v>
       </c>
       <c r="K20" s="3">
         <v>1000</v>
@@ -1683,405 +1717,420 @@
         <v>1000</v>
       </c>
       <c r="M20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N20" s="3">
         <v>6000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-10000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>6000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>22000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-16000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>4000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>9000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>19000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-7000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-9000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>4000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-11000</v>
       </c>
-      <c r="AD20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>645000</v>
+      </c>
+      <c r="E21" s="3">
         <v>563000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>618000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>680000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>265000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>408000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>319000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>409000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>482000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>623000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>660000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>557000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-133000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1798000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>487000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>505000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>529000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>486000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>532000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>490000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>570000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>559000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>541000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>402000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>553000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>445000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>177000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1467000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E22" s="3">
         <v>67000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>62000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>58000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>56000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>43000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>36000</v>
       </c>
       <c r="J22" s="3">
         <v>36000</v>
       </c>
       <c r="K22" s="3">
+        <v>36000</v>
+      </c>
+      <c r="L22" s="3">
         <v>38000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>40000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>39000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>38000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>44000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>43000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>41000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>42000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>43000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>38000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>37000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>34000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>36000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>34000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>37000</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>35000</v>
       </c>
       <c r="AA22" s="3">
         <v>35000</v>
       </c>
       <c r="AB22" s="3">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="AC22" s="3">
         <v>33000</v>
       </c>
       <c r="AD22" s="3">
+        <v>33000</v>
+      </c>
+      <c r="AE22" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>349000</v>
+      </c>
+      <c r="E23" s="3">
         <v>280000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>368000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>432000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>16000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>174000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>93000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>180000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>247000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>390000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>413000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>327000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-361000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1575000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>268000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>285000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>298000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>275000</v>
-      </c>
-      <c r="U23" s="3">
-        <v>293000</v>
       </c>
       <c r="V23" s="3">
         <v>293000</v>
       </c>
       <c r="W23" s="3">
+        <v>293000</v>
+      </c>
+      <c r="X23" s="3">
         <v>378000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>370000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>350000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>331000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>337000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>237000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>181000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>819000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E24" s="3">
         <v>34000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>25000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>59000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>16000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>21000</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>25000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>48000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>55000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-14000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>30000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>38000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>31000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>33000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>36000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>67000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>58000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>59000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>135000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>31000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>38000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>19000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-4000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>171000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>319000</v>
+      </c>
+      <c r="E26" s="3">
         <v>246000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>343000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>373000</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>153000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>93000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>155000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>219000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>342000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>358000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>329000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-347000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1565000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>238000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>247000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>267000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>242000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>257000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>226000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>320000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>311000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>215000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>300000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>299000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>218000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>185000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>648000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>229000</v>
+      </c>
+      <c r="E27" s="3">
         <v>146000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>233000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>286000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-61000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>73000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>15000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>86000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>147000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>279000</v>
-      </c>
-      <c r="M27" s="3">
-        <v>283000</v>
       </c>
       <c r="N27" s="3">
         <v>283000</v>
       </c>
       <c r="O27" s="3">
+        <v>283000</v>
+      </c>
+      <c r="P27" s="3">
         <v>-369000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1572000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>230000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>246000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>274000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>240000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>253000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>221000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>316000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>307000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>232000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>236000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>272000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>195000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>204000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>630000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2462,17 +2523,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2480,38 +2541,41 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>-6000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>1000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-25000</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>24000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>107000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>80000</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>123000</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>77000</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>346000</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,31 +2749,34 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-17000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-43000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-26000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>23000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>39000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-16000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-1000</v>
       </c>
       <c r="K32" s="3">
         <v>-1000</v>
@@ -2715,147 +2785,153 @@
         <v>-1000</v>
       </c>
       <c r="M32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N32" s="3">
         <v>-6000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>10000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-6000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-22000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>16000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-4000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-9000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-19000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>7000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>9000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-4000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>11000</v>
       </c>
-      <c r="AD32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>229000</v>
+      </c>
+      <c r="E33" s="3">
         <v>146000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>233000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>286000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-61000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>73000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>15000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>86000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>147000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>279000</v>
-      </c>
-      <c r="M33" s="3">
-        <v>283000</v>
       </c>
       <c r="N33" s="3">
         <v>283000</v>
       </c>
       <c r="O33" s="3">
+        <v>283000</v>
+      </c>
+      <c r="P33" s="3">
         <v>-369000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1572000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>230000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>246000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>274000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>240000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>247000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>222000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>291000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>307000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>256000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>343000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>352000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>318000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>281000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>229000</v>
+      </c>
+      <c r="E35" s="3">
         <v>146000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>233000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>286000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-61000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>73000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>15000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>86000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>147000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>279000</v>
-      </c>
-      <c r="M35" s="3">
-        <v>283000</v>
       </c>
       <c r="N35" s="3">
         <v>283000</v>
       </c>
       <c r="O35" s="3">
+        <v>283000</v>
+      </c>
+      <c r="P35" s="3">
         <v>-369000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1572000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>230000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>246000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>274000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>240000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>247000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>222000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>291000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>307000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>256000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>343000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>352000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>318000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>281000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1302000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1100000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1531000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4850000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4670000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4877000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3139000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2741000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2926000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2830000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2821000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2122000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1885000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2055000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>412000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>341000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>365000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>321000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>567000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>771000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>970000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1345000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1596000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>557000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>792000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>547000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>737000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>395000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,414 +3443,429 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4025000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3828000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3672000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3606000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3304000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3313000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3032000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2954000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2928000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3048000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3016000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2920000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2091000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2308000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2829000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2935000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2982000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3008000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2795000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2893000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2944000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3174000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2785000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3534000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3418000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3410000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>2306000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>3243000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2380000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2485000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2340000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2306000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2362000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2312000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2014000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2119000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1801000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1525000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1297000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1229000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1212000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1363000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1286000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1345000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1304000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1326000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1277000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1358000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1265000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1202000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1083000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1642000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1485000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1375000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>859000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1375000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>365000</v>
+      </c>
+      <c r="E45" s="3">
         <v>312000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>241000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>221000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>222000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>272000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>251000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>290000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>398000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>331000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>318000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>224000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>464000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>792000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>764000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>203000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>164000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>138000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>182000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>161000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>205000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>177000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>977000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>154000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>155000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1517000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>134000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8072000</v>
+      </c>
+      <c r="E46" s="3">
         <v>7725000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7784000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10983000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10558000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10774000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8436000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8104000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8055000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7801000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7465000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6589000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5412000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6190000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5319000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5385000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4854000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4819000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4777000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5204000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5340000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5926000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5641000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>6710000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5849000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>5487000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>5419000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>5147000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1742000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1800000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1882000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1886000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1982000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2061000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1941000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2023000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2095000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2128000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2178000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2221000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2238000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2284000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>311000</v>
-      </c>
-      <c r="R47" s="3">
-        <v>280000</v>
       </c>
       <c r="S47" s="3">
         <v>280000</v>
       </c>
       <c r="T47" s="3">
+        <v>280000</v>
+      </c>
+      <c r="U47" s="3">
         <v>262000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>215000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>198000</v>
-      </c>
-      <c r="W47" s="3">
-        <v>206000</v>
       </c>
       <c r="X47" s="3">
         <v>206000</v>
@@ -3769,194 +3874,203 @@
         <v>206000</v>
       </c>
       <c r="Z47" s="3">
+        <v>206000</v>
+      </c>
+      <c r="AA47" s="3">
         <v>320000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>278000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>256000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>136000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4062000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3988000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3946000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3563000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3625000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3672000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3677000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3574000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3571000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3523000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3681000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3598000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3573000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3642000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3722000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3556000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3681000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3652000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3179000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3056000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2972000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2890000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2804000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3819000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3671000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3569000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2325000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>3522000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7627000</v>
+      </c>
+      <c r="E49" s="3">
         <v>7633000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7691000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3080000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3268000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3403000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3475000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3477000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3568000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3536000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3671000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3574000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3505000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3521000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3593000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3264000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3822000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3837000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3904000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3378000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3402000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3184000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>3163000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2883000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2860000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2801000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2650000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>2905000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>595000</v>
+      </c>
+      <c r="E52" s="3">
         <v>570000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>581000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>459000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>475000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>494000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>478000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>473000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>491000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>488000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>527000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>462000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>552000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>530000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>514000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>454000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>471000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>449000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>405000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>491000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>396000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>354000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>355000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>434000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>398000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>384000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1762000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>331000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22098000</v>
+      </c>
+      <c r="E54" s="3">
         <v>21716000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>21884000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>19971000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>19908000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>20404000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18007000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17651000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17780000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17476000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17522000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16444000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15280000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16167000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13459000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12939000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13108000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>13019000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12480000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12327000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12316000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12560000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12169000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>14166000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>13056000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>12497000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>12292000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>12122000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,524 +4579,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3028000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2996000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3150000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2775000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2749000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2910000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2953000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2544000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2574000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2624000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2571000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2186000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1432000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2243000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2463000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2232000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2284000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2340000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2334000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2254000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2307000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2282000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2227000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2745000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2603000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2549000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1820000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>2544000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E58" s="3">
         <v>45000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>31000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>16000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>17000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>35000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>8000</v>
       </c>
       <c r="J58" s="3">
         <v>8000</v>
       </c>
       <c r="K58" s="3">
+        <v>8000</v>
+      </c>
+      <c r="L58" s="3">
         <v>16000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>78000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>90000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>99000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>200000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>260000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>393000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>444000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>517000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>542000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>306000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>24000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>22000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>60000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>17000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>15000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>13000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>8000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>10000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1524000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1467000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1684000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1338000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1253000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1201000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1246000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1282000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1315000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1260000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1385000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1294000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1227000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1152000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1198000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1199000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1190000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1132000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1054000</v>
-      </c>
-      <c r="V59" s="3">
-        <v>1109000</v>
       </c>
       <c r="W59" s="3">
         <v>1109000</v>
       </c>
       <c r="X59" s="3">
+        <v>1109000</v>
+      </c>
+      <c r="Y59" s="3">
         <v>1366000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1296000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1383000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1554000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1535000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2318000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1261000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4589000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4508000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4865000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4129000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4019000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4146000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4207000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3834000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3905000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3962000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4046000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3579000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2859000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3655000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4054000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3875000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3991000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4014000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3694000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3387000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3438000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3708000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3540000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4143000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4170000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4092000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>4148000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>3841000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6476000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6473000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6460000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6336000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6433000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6503000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4059000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4000000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4031000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3946000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4011000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3935000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3946000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5964000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3971000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3939000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3997000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3995000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4038000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4084000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4067000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4163000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4132000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4884000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>4059000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>3991000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>3953000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>4038000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1511000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1463000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1465000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1125000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1174000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1155000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1180000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1318000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1319000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1292000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1365000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1376000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1349000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1395000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1423000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1344000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1388000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1375000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1078000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1047000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1053000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>991000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>980000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1525000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1542000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1465000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1428000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1322000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12866000</v>
+      </c>
+      <c r="E66" s="3">
         <v>12733000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13075000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11776000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11809000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12008000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9660000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9357000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9458000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9399000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9617000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9081000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8338000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11196000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9640000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9374000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9589000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9601000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9021000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8719000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8793000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>9093000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>8870000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>10963000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>10161000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>9918000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>9891000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>9570000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5893000</v>
+      </c>
+      <c r="E72" s="3">
         <v>5690000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5608000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5375000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5089000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5150000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5077000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5062000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4976000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4829000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4550000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4267000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3984000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4353000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2890000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2745000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2597000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2491000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2511000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2610000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2510000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2278000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2118000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2485000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2257000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2057000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1980000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1870000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9232000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8983000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8809000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8195000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8099000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8396000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8347000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8294000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8322000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8077000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7905000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7363000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6942000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4971000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3819000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3565000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3519000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3418000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3459000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3608000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3523000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3467000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3299000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3203000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2895000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2579000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2401000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2552000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>229000</v>
+      </c>
+      <c r="E81" s="3">
         <v>146000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>233000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>286000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-61000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>73000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>15000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>86000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>147000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>279000</v>
-      </c>
-      <c r="M81" s="3">
-        <v>283000</v>
       </c>
       <c r="N81" s="3">
         <v>283000</v>
       </c>
       <c r="O81" s="3">
+        <v>283000</v>
+      </c>
+      <c r="P81" s="3">
         <v>-369000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1572000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>230000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>246000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>274000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>240000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>247000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>222000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>291000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>307000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>256000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>343000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>352000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>318000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>281000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E83" s="3">
         <v>216000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>188000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>190000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>193000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>191000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>190000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>193000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>197000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>193000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>208000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>192000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>184000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>180000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>178000</v>
       </c>
       <c r="R83" s="3">
         <v>178000</v>
       </c>
       <c r="S83" s="3">
+        <v>178000</v>
+      </c>
+      <c r="T83" s="3">
         <v>188000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>173000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>202000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>163000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>156000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>155000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>7000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>183000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>181000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>175000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>178000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>526000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>535000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>933000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>437000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>95000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-202000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>669000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>297000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>252000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>799000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>559000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-106000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>161000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>703000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>325000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>512000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>84000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>757000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>171000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>545000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>155000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>428000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>151000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>599000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>290000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>683000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1258000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-222000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-269000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-178000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-212000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-207000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-247000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-181000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-169000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-127000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-134000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-95000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-117000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-167000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-205000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-162000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-168000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-216000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-235000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-185000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-212000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-206000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-243000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-218000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-87000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-178000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-215000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-871000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-281000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-309000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4269000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-208000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-240000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-465000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-259000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-156000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-180000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-134000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-94000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-138000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-187000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-207000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-479000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-163000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-234000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-235000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-879000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-208000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-716000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-245000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-570000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-219000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-193000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-270000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>9000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-587000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7462,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
-        <v>-56000</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="3">
         <v>-56000</v>
@@ -7471,13 +7705,13 @@
         <v>-56000</v>
       </c>
       <c r="S96" s="3">
-        <v>-57000</v>
+        <v>-56000</v>
       </c>
       <c r="T96" s="3">
         <v>-57000</v>
       </c>
       <c r="U96" s="3">
-        <v>-58000</v>
+        <v>-57000</v>
       </c>
       <c r="V96" s="3">
         <v>-58000</v>
@@ -7486,28 +7720,31 @@
         <v>-58000</v>
       </c>
       <c r="X96" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-59000</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-77000</v>
       </c>
       <c r="Z96" s="3">
         <v>-77000</v>
       </c>
       <c r="AA96" s="3">
-        <v>-78000</v>
+        <v>-77000</v>
       </c>
       <c r="AB96" s="3">
         <v>-78000</v>
       </c>
       <c r="AC96" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-79000</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-122000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-17000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-18000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-17000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2411000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-63000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-25000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-26000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-77000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-31000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-196000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>120000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1720000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-160000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-174000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-216000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-99000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-73000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-161000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-116000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-205000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>351000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>618000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-181000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-332000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-221000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-860000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E101" s="3">
         <v>2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>30000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-29000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-19000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-6000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-8000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-12000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>25000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>12000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>7000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-11000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-9000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-88000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>44000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>34000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>11000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>20000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>21000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-28000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-438000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3323000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>182000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-181000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1738000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>346000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-185000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>96000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>29000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>699000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>237000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-170000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1658000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>71000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-23000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>59000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-246000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-204000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-199000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-375000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-251000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>243000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>561000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>245000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-291000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>443000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-184000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APTV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APTV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>APTV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5114000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5200000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4818000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4640000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4614000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4057000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4178000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4134000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3654000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3807000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4023000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4212000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3668000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1960000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3226000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3596000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3559000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3627000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3575000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3636000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3485000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3684000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3630000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3440000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3148000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3153000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>3143000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>3193000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>9081000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4221000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4336000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4058000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3827000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3821000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3617000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3589000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3543000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3138000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3205000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3296000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3427000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3021000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1943000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2725000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2909000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2881000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2956000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2962000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2965000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2833000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2957000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2947000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2730000</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>2498000</v>
       </c>
       <c r="AB9" s="3">
         <v>2498000</v>
       </c>
       <c r="AC9" s="3">
+        <v>2498000</v>
+      </c>
+      <c r="AD9" s="3">
         <v>2544000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>2325000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>7202000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>893000</v>
+      </c>
+      <c r="E10" s="3">
         <v>864000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>760000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>813000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>793000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>440000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>589000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>591000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>516000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>602000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>727000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>785000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>647000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>17000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>501000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>687000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>678000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>671000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>613000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>671000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>652000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>727000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>683000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>710000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>650000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>655000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>599000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>868000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>1879000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,97 +1282,103 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E14" s="3">
         <v>46000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>29000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>86000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>17000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>21000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>22000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>150000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>15000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>24000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>18000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>76000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-1406000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>35000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>62000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>41000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>32000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>41000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>66000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>32000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>9000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>28000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>18000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>14000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>79000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>362000</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>178000</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,16 +1389,16 @@
         <v>59000</v>
       </c>
       <c r="F15" s="3">
-        <v>37000</v>
+        <v>59000</v>
       </c>
       <c r="G15" s="3">
         <v>37000</v>
       </c>
       <c r="H15" s="3">
+        <v>37000</v>
+      </c>
+      <c r="I15" s="3">
         <v>38000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>37000</v>
       </c>
       <c r="J15" s="3">
         <v>37000</v>
@@ -1393,34 +1416,34 @@
         <v>37000</v>
       </c>
       <c r="O15" s="3">
+        <v>37000</v>
+      </c>
+      <c r="P15" s="3">
         <v>36000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>35000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>36000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>35000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>34000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>35000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>34000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>33000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>31000</v>
-      </c>
-      <c r="X15" s="3">
-        <v>30000</v>
       </c>
       <c r="Y15" s="3">
         <v>30000</v>
@@ -1429,7 +1452,7 @@
         <v>30000</v>
       </c>
       <c r="AA15" s="3">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="AB15" s="3">
         <v>29000</v>
@@ -1441,10 +1464,13 @@
         <v>29000</v>
       </c>
       <c r="AE15" s="3">
+        <v>29000</v>
+      </c>
+      <c r="AF15" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4668000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4794000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4488000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4253000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4150000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3962000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3922000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4021000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3439000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3523000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3594000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3766000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3304000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2275000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1607000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3277000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3239000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3292000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3284000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3290000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3162000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3279000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3245000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3054000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2775000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2772000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2877000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2968000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>8140000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>446000</v>
+      </c>
+      <c r="E18" s="3">
         <v>406000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>330000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>387000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>464000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>95000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>256000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>113000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>215000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>284000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>429000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>446000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>364000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-315000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1619000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>319000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>320000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>335000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>291000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>346000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>323000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>405000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>385000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>386000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>373000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>381000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>266000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>225000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>941000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,34 +1717,35 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E20" s="3">
         <v>15000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>17000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>43000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>26000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-23000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-39000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>16000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1000</v>
       </c>
       <c r="L20" s="3">
         <v>1000</v>
@@ -1720,417 +1754,432 @@
         <v>1000</v>
       </c>
       <c r="N20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O20" s="3">
         <v>6000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-10000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>6000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>22000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-16000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>4000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>9000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>19000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-7000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-9000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>4000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-11000</v>
       </c>
-      <c r="AE20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>698000</v>
+      </c>
+      <c r="E21" s="3">
         <v>645000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>563000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>618000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>680000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>265000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>408000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>319000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>409000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>482000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>623000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>660000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>557000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-133000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1798000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>487000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>505000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>529000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>486000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>532000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>490000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>570000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>559000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>541000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>402000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>553000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>445000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>177000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>1467000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E22" s="3">
         <v>72000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>67000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>62000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>58000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>56000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>43000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>36000</v>
       </c>
       <c r="K22" s="3">
         <v>36000</v>
       </c>
       <c r="L22" s="3">
+        <v>36000</v>
+      </c>
+      <c r="M22" s="3">
         <v>38000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>40000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>39000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>38000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>44000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>43000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>41000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>42000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>43000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>38000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>37000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>34000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>36000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>34000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>37000</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>35000</v>
       </c>
       <c r="AB22" s="3">
         <v>35000</v>
       </c>
       <c r="AC22" s="3">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="AD22" s="3">
         <v>33000</v>
       </c>
       <c r="AE22" s="3">
+        <v>33000</v>
+      </c>
+      <c r="AF22" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>397000</v>
+      </c>
+      <c r="E23" s="3">
         <v>349000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>280000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>368000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>432000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>16000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>174000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>93000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>180000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>247000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>390000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>413000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>327000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-361000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1575000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>268000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>285000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>298000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>275000</v>
-      </c>
-      <c r="V23" s="3">
-        <v>293000</v>
       </c>
       <c r="W23" s="3">
         <v>293000</v>
       </c>
       <c r="X23" s="3">
+        <v>293000</v>
+      </c>
+      <c r="Y23" s="3">
         <v>378000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>370000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>350000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>331000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>337000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>237000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>181000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>819000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1312000</v>
+      </c>
+      <c r="E24" s="3">
         <v>30000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>34000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>25000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>59000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>16000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>21000</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>25000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>28000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>48000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>55000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>30000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>38000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>31000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>33000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>36000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>67000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>58000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>59000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>135000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>31000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>38000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>19000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-4000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>171000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1709000</v>
+      </c>
+      <c r="E26" s="3">
         <v>319000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>246000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>343000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>373000</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>153000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>93000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>155000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>219000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>342000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>358000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>329000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-347000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1565000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>238000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>247000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>267000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>242000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>257000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>226000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>320000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>311000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>215000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>300000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>299000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>218000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>185000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>648000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1629000</v>
+      </c>
+      <c r="E27" s="3">
         <v>229000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>146000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>233000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>286000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-61000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>73000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>15000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>86000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>147000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>279000</v>
-      </c>
-      <c r="N27" s="3">
-        <v>283000</v>
       </c>
       <c r="O27" s="3">
         <v>283000</v>
       </c>
       <c r="P27" s="3">
+        <v>283000</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-369000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1572000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>230000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>246000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>274000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>240000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>253000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>221000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>316000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>307000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>232000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>236000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>272000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>195000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>204000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>630000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2526,17 +2587,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2544,38 +2605,41 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>-6000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>1000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-25000</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
       <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>24000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>107000</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>80000</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>123000</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>77000</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AF29" s="3">
         <v>346000</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,34 +2819,37 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-15000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-17000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-43000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-26000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>23000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>39000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-16000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-1000</v>
       </c>
       <c r="L32" s="3">
         <v>-1000</v>
@@ -2788,150 +2858,156 @@
         <v>-1000</v>
       </c>
       <c r="N32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O32" s="3">
         <v>-6000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>10000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-6000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-22000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>16000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-4000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-19000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>7000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>9000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-4000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>11000</v>
       </c>
-      <c r="AE32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1629000</v>
+      </c>
+      <c r="E33" s="3">
         <v>229000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>146000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>233000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>286000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-61000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>73000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>15000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>86000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>147000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>279000</v>
-      </c>
-      <c r="N33" s="3">
-        <v>283000</v>
       </c>
       <c r="O33" s="3">
         <v>283000</v>
       </c>
       <c r="P33" s="3">
+        <v>283000</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-369000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1572000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>230000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>246000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>274000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>240000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>247000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>222000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>291000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>307000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>256000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>343000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>352000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>318000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>281000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1629000</v>
+      </c>
+      <c r="E35" s="3">
         <v>229000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>146000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>233000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>286000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-61000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>73000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>15000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>86000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>147000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>279000</v>
-      </c>
-      <c r="N35" s="3">
-        <v>283000</v>
       </c>
       <c r="O35" s="3">
         <v>283000</v>
       </c>
       <c r="P35" s="3">
+        <v>283000</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-369000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1572000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>230000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>246000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>274000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>240000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>247000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>222000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>291000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>307000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>256000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>343000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>352000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>318000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>281000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1808000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1302000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1100000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1531000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4850000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4670000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4877000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3139000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2741000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2926000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2830000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2821000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2122000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1885000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2055000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>412000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>341000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>365000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>321000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>567000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>771000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>970000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1345000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1596000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>557000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>792000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>547000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>737000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>395000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,429 +3536,444 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3916000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4025000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3828000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3672000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3606000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3304000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3313000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3032000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2954000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2928000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3048000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3016000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2920000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2091000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2308000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2829000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2935000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2982000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3008000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2795000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2893000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2944000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3174000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2785000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3534000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3418000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3410000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>2306000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>3243000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2432000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2380000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2485000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2340000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2306000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2362000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2312000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2014000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2119000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1801000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1525000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1297000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1229000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1212000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1363000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1286000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1345000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1304000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1326000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1277000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1358000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1265000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1202000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1083000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1642000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1485000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1375000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>859000</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>1375000</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>334000</v>
+      </c>
+      <c r="E45" s="3">
         <v>365000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>312000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>241000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>221000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>222000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>272000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>251000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>290000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>398000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>331000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>318000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>224000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>464000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>792000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>764000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>203000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>164000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>138000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>182000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>161000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>205000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>177000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>977000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>154000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>155000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>1517000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>134000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8490000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8072000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7725000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7784000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10983000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10558000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10774000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8436000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8104000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8055000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7801000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7465000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6589000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5412000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6190000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5319000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5385000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4854000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4819000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4777000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5204000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5340000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5926000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5641000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>6710000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>5849000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>5487000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>5419000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>5147000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1660000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1742000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1800000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1882000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1886000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1982000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2061000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1941000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2023000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2095000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2128000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2178000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2221000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2238000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2284000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>311000</v>
-      </c>
-      <c r="S47" s="3">
-        <v>280000</v>
       </c>
       <c r="T47" s="3">
         <v>280000</v>
       </c>
       <c r="U47" s="3">
+        <v>280000</v>
+      </c>
+      <c r="V47" s="3">
         <v>262000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>215000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>198000</v>
-      </c>
-      <c r="X47" s="3">
-        <v>206000</v>
       </c>
       <c r="Y47" s="3">
         <v>206000</v>
@@ -3877,200 +3982,209 @@
         <v>206000</v>
       </c>
       <c r="AA47" s="3">
+        <v>206000</v>
+      </c>
+      <c r="AB47" s="3">
         <v>320000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>278000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>256000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>136000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4090000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4062000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3988000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3946000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3563000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3625000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3672000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3677000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3574000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3571000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3523000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3681000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3598000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3573000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3642000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3722000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3556000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3681000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3652000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3179000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3056000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2972000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2890000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2804000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3819000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3671000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>3569000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>2325000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>3522000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7496000</v>
+      </c>
+      <c r="E49" s="3">
         <v>7627000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7633000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7691000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3080000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3268000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3403000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3475000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3477000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3568000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3536000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3671000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3574000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3505000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3521000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3593000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3264000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3822000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3837000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3904000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3378000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3402000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>3184000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>3163000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2883000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2860000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2801000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>2650000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>2905000</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1975000</v>
+      </c>
+      <c r="E52" s="3">
         <v>595000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>570000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>581000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>459000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>475000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>494000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>478000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>473000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>491000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>488000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>527000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>462000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>552000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>530000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>514000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>454000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>471000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>449000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>405000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>491000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>396000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>354000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>355000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>434000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>398000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>384000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1762000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>331000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>23711000</v>
+      </c>
+      <c r="E54" s="3">
         <v>22098000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>21716000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>21884000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>19971000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>19908000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>20404000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>18007000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17651000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17780000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17476000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17522000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16444000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15280000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>16167000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13459000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12939000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>13108000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>13019000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12480000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12327000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12316000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12560000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>12169000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>14166000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>13056000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>12497000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>12292000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>12122000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,542 +4710,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3056000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3028000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2996000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3150000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2775000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2749000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2910000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2953000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2544000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2574000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2624000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2571000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2186000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1432000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2243000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2463000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2232000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2284000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2340000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2334000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2254000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2307000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2282000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2227000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2745000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2603000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>2549000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1820000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>2544000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E58" s="3">
         <v>37000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>45000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>31000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>16000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>17000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>35000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>8000</v>
       </c>
       <c r="K58" s="3">
         <v>8000</v>
       </c>
       <c r="L58" s="3">
+        <v>8000</v>
+      </c>
+      <c r="M58" s="3">
         <v>16000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>78000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>90000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>99000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>200000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>260000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>393000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>444000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>517000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>542000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>306000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>24000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>22000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>60000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>17000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>15000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>13000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>8000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>10000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1597000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1524000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1467000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1684000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1338000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1253000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1201000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1246000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1282000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1315000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1260000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1385000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1294000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1227000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1152000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1198000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1199000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1190000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1132000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1054000</v>
-      </c>
-      <c r="W59" s="3">
-        <v>1109000</v>
       </c>
       <c r="X59" s="3">
         <v>1109000</v>
       </c>
       <c r="Y59" s="3">
+        <v>1109000</v>
+      </c>
+      <c r="Z59" s="3">
         <v>1366000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1296000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1383000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1554000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1535000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>2318000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>1261000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4696000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4589000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4508000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4865000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4129000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4019000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4146000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4207000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3834000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3905000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3962000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4046000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3579000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2859000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3655000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4054000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3875000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3991000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4014000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3694000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3387000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3438000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3708000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3540000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4143000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4170000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>4092000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>4148000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>3841000</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6419000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6476000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6473000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6460000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6336000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6433000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6503000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4059000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4000000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4031000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3946000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4011000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3935000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3946000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5964000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3971000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3939000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3997000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3995000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4038000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4084000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4067000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4163000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4132000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>4884000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>4059000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>3991000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>3953000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>4038000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1523000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1511000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1463000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1465000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1125000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1174000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1155000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1180000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1318000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1319000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1292000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1365000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1376000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1349000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1395000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1423000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1344000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1388000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1375000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1078000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1047000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1053000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>991000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>980000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1525000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1542000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1465000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1428000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>1322000</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12933000</v>
+      </c>
+      <c r="E66" s="3">
         <v>12866000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12733000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13075000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11776000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11809000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12008000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9660000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9357000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9458000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9399000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9617000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9081000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8338000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11196000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9640000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9374000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9589000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9601000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9021000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8719000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>8793000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>9093000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>8870000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>10963000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>10161000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>9918000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>9891000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>9570000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7522000</v>
+      </c>
+      <c r="E72" s="3">
         <v>5893000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5690000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5608000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5375000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5089000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5150000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5077000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5062000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4976000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4829000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4550000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4267000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3984000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4353000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2890000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2745000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2597000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2491000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2511000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2610000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2510000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2278000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2118000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2485000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2257000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>2057000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1980000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>1870000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10778000</v>
+      </c>
+      <c r="E76" s="3">
         <v>9232000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8983000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8809000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8195000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8099000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8396000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8347000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8294000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8322000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8077000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7905000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7363000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6942000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4971000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3819000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3565000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3519000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3418000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3459000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3608000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3523000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3467000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3299000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3203000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2895000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2579000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2401000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>2552000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1629000</v>
+      </c>
+      <c r="E81" s="3">
         <v>229000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>146000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>233000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>286000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-61000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>73000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>15000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>86000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>147000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>279000</v>
-      </c>
-      <c r="N81" s="3">
-        <v>283000</v>
       </c>
       <c r="O81" s="3">
         <v>283000</v>
       </c>
       <c r="P81" s="3">
+        <v>283000</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-369000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1572000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>230000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>246000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>274000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>240000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>247000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>222000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>291000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>307000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>256000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>343000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>352000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>318000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>281000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>976000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>226000</v>
+      </c>
+      <c r="E83" s="3">
         <v>224000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>216000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>188000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>190000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>193000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>191000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>190000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>193000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>197000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>193000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>208000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>192000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>184000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>180000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>178000</v>
       </c>
       <c r="S83" s="3">
         <v>178000</v>
       </c>
       <c r="T83" s="3">
+        <v>178000</v>
+      </c>
+      <c r="U83" s="3">
         <v>188000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>173000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>202000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>163000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>156000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>155000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>7000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>183000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>181000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>175000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>178000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>526000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>746000</v>
+      </c>
+      <c r="E89" s="3">
         <v>535000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>933000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>437000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>95000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-202000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>669000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>297000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>252000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>799000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>559000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-106000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>161000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>703000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>325000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>512000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>84000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>757000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>171000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>545000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>155000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>428000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>151000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>599000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>290000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>683000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>1258000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-212000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-222000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-269000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-178000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-212000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-207000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-247000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-181000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-169000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-127000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-134000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-95000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-117000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-167000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-205000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-162000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-168000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-216000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-235000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-185000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-212000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-206000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-243000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-218000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-87000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-178000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-215000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-871000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-205000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-281000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-309000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4269000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-208000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-240000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-465000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-259000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-156000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-180000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-134000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-94000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-138000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-187000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-207000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-479000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-163000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-234000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-235000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-879000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-208000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-716000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-245000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-570000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-219000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-193000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-270000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>9000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-587000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7699,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
-        <v>-56000</v>
+        <v>0</v>
       </c>
       <c r="R96" s="3">
         <v>-56000</v>
@@ -7708,13 +7942,13 @@
         <v>-56000</v>
       </c>
       <c r="T96" s="3">
-        <v>-57000</v>
+        <v>-56000</v>
       </c>
       <c r="U96" s="3">
         <v>-57000</v>
       </c>
       <c r="V96" s="3">
-        <v>-58000</v>
+        <v>-57000</v>
       </c>
       <c r="W96" s="3">
         <v>-58000</v>
@@ -7723,28 +7957,31 @@
         <v>-58000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-59000</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-77000</v>
       </c>
       <c r="AA96" s="3">
         <v>-77000</v>
       </c>
       <c r="AB96" s="3">
-        <v>-78000</v>
+        <v>-77000</v>
       </c>
       <c r="AC96" s="3">
         <v>-78000</v>
       </c>
       <c r="AD96" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-79000</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-59000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-122000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-17000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-18000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-17000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2411000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-63000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-25000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-26000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-77000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-31000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-196000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>120000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1720000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-160000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-174000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-216000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-99000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-73000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-161000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-116000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-205000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>351000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>618000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-181000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-332000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-221000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-860000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-10000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>30000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-29000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-19000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-6000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-8000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-12000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>25000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>12000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-16000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>7000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-11000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-9000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-88000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>44000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>34000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>11000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>20000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>21000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-28000</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>506000</v>
+      </c>
+      <c r="E102" s="3">
         <v>185000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-438000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3323000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>182000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-181000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1738000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>346000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-185000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>96000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>29000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>699000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>237000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-170000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1658000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>71000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-23000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>59000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-246000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-204000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-199000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-375000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-251000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>243000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>561000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>245000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-291000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>443000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-184000</v>
       </c>
     </row>
